--- a/southCarolina.xlsx
+++ b/southCarolina.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E655F0-D524-CE46-9689-E09E2A9BC3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F234B1-4AAE-C746-8BDA-34D267D559A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CTP CSV" sheetId="3" r:id="rId1"/>
     <sheet name="Daily Data" sheetId="1" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Statistics" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Daily Data'!$E$2:$E$244</definedName>
@@ -804,63 +805,11 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
         </patternFill>
       </fill>
     </dxf>
@@ -20454,7 +20403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -32934,7 +32883,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="A2:A244">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),7)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32949,8 +32898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:P1"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -33508,4 +33457,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CEBAE4-8D4D-7847-89C2-8E60DAA1E98A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/southCarolina.xlsx
+++ b/southCarolina.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F234B1-4AAE-C746-8BDA-34D267D559A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D281CBE6-394C-7F48-A27C-A476D2729564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CTP CSV" sheetId="3" r:id="rId1"/>
+    <sheet name="CTP CSV" sheetId="5" r:id="rId1"/>
     <sheet name="Daily Data" sheetId="1" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="2" r:id="rId3"/>
     <sheet name="Statistics" sheetId="4" r:id="rId4"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="67">
   <si>
     <t>date</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Active Hospitalizations</t>
+  </si>
+  <si>
+    <t>deathIncrease</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -759,6 +762,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1122,23 +1126,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E250ED-1987-9946-87EB-4BEFC046C5C9}">
+  <dimension ref="A1:AP251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I244"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="24.5" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" customWidth="1"/>
-    <col min="33" max="33" width="18.6640625" customWidth="1"/>
-    <col min="34" max="34" width="21.1640625" customWidth="1"/>
-    <col min="41" max="41" width="40.6640625" customWidth="1"/>
-    <col min="42" max="42" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="43.83203125" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" customWidth="1"/>
+    <col min="10" max="10" width="35.5" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="34" max="34" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -1157,6 +1159,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
@@ -1273,6 +1278,9 @@
       <c r="B2" t="s">
         <v>41</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -1317,6 +1325,9 @@
       <c r="B3" t="s">
         <v>41</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -1361,6 +1372,9 @@
       <c r="B4" t="s">
         <v>41</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="K4">
         <v>0</v>
       </c>
@@ -1405,6 +1419,9 @@
       <c r="B5" t="s">
         <v>41</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="K5">
         <v>0</v>
       </c>
@@ -1449,6 +1466,9 @@
       <c r="B6" t="s">
         <v>41</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="K6">
         <v>0</v>
       </c>
@@ -1493,6 +1513,9 @@
       <c r="B7" t="s">
         <v>41</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -1537,6 +1560,9 @@
       <c r="B8" t="s">
         <v>41</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>0</v>
       </c>
@@ -1581,6 +1607,9 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>0</v>
       </c>
@@ -1625,6 +1654,9 @@
       <c r="B10" t="s">
         <v>41</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>0</v>
       </c>
@@ -1669,6 +1701,9 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="K11">
         <v>0</v>
       </c>
@@ -1713,6 +1748,9 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>0</v>
       </c>
@@ -1757,6 +1795,9 @@
       <c r="B13" t="s">
         <v>41</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
       <c r="K13">
         <v>0</v>
       </c>
@@ -1804,6 +1845,9 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="K14">
         <v>0</v>
       </c>
@@ -1851,6 +1895,9 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>0</v>
       </c>
@@ -1898,6 +1945,9 @@
       <c r="D16">
         <v>1</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="K16">
         <v>0</v>
       </c>
@@ -1945,6 +1995,9 @@
       <c r="D17">
         <v>1</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>0</v>
       </c>
@@ -1992,6 +2045,9 @@
       <c r="D18">
         <v>1</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="K18">
         <v>0</v>
       </c>
@@ -2039,6 +2095,9 @@
       <c r="D19">
         <v>1</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="K19">
         <v>0</v>
       </c>
@@ -2086,6 +2145,9 @@
       <c r="D20">
         <v>3</v>
       </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -2136,6 +2198,9 @@
       <c r="D21">
         <v>5</v>
       </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
       <c r="K21">
         <v>0</v>
       </c>
@@ -2186,6 +2251,9 @@
       <c r="D22">
         <v>5</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>0</v>
       </c>
@@ -2236,6 +2304,9 @@
       <c r="D23">
         <v>7</v>
       </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
       <c r="H23">
         <v>102</v>
       </c>
@@ -2292,6 +2363,9 @@
       <c r="D24">
         <v>9</v>
       </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
       <c r="H24">
         <v>102</v>
       </c>
@@ -2348,6 +2422,9 @@
       <c r="D25">
         <v>9</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="H25">
         <v>102</v>
       </c>
@@ -2404,6 +2481,9 @@
       <c r="D26">
         <v>13</v>
       </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
       <c r="H26">
         <v>102</v>
       </c>
@@ -2460,6 +2540,9 @@
       <c r="D27">
         <v>16</v>
       </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
       <c r="H27">
         <v>102</v>
       </c>
@@ -2516,6 +2599,9 @@
       <c r="D28">
         <v>18</v>
       </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
       <c r="H28">
         <v>102</v>
       </c>
@@ -2572,6 +2658,9 @@
       <c r="D29">
         <v>22</v>
       </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
       <c r="H29">
         <v>102</v>
       </c>
@@ -2628,6 +2717,9 @@
       <c r="D30">
         <v>26</v>
       </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
       <c r="H30">
         <v>102</v>
       </c>
@@ -2684,6 +2776,9 @@
       <c r="D31">
         <v>31</v>
       </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
       <c r="H31">
         <v>241</v>
       </c>
@@ -2740,6 +2835,9 @@
       <c r="D32">
         <v>31</v>
       </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
       <c r="H32">
         <v>241</v>
       </c>
@@ -2796,6 +2894,9 @@
       <c r="D33">
         <v>40</v>
       </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
       <c r="H33">
         <v>241</v>
       </c>
@@ -2852,6 +2953,9 @@
       <c r="D34">
         <v>44</v>
       </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
       <c r="H34">
         <v>241</v>
       </c>
@@ -2908,6 +3012,9 @@
       <c r="D35">
         <v>44</v>
       </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
       <c r="H35">
         <v>241</v>
       </c>
@@ -2964,6 +3071,9 @@
       <c r="D36">
         <v>51</v>
       </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
       <c r="H36">
         <v>241</v>
       </c>
@@ -3020,6 +3130,9 @@
       <c r="D37">
         <v>63</v>
       </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
       <c r="H37">
         <v>241</v>
       </c>
@@ -3076,6 +3189,9 @@
       <c r="D38">
         <v>67</v>
       </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
       <c r="H38">
         <v>241</v>
       </c>
@@ -3132,6 +3248,9 @@
       <c r="D39">
         <v>72</v>
       </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
       <c r="H39">
         <v>496</v>
       </c>
@@ -3188,6 +3307,9 @@
       <c r="D40">
         <v>80</v>
       </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
       <c r="H40">
         <v>496</v>
       </c>
@@ -3244,6 +3366,9 @@
       <c r="D41">
         <v>82</v>
       </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
       <c r="H41">
         <v>496</v>
       </c>
@@ -3300,6 +3425,9 @@
       <c r="D42">
         <v>82</v>
       </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
       <c r="H42">
         <v>496</v>
       </c>
@@ -3356,6 +3484,9 @@
       <c r="D43">
         <v>97</v>
       </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
       <c r="H43">
         <v>675</v>
       </c>
@@ -3412,6 +3543,9 @@
       <c r="D44">
         <v>107</v>
       </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
       <c r="H44">
         <v>675</v>
       </c>
@@ -3468,6 +3602,9 @@
       <c r="D45">
         <v>107</v>
       </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
       <c r="H45">
         <v>675</v>
       </c>
@@ -3524,6 +3661,9 @@
       <c r="D46">
         <v>109</v>
       </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
       <c r="H46">
         <v>675</v>
       </c>
@@ -3580,6 +3720,9 @@
       <c r="D47">
         <v>119</v>
       </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
       <c r="H47">
         <v>776</v>
       </c>
@@ -3639,6 +3782,9 @@
       <c r="D48">
         <v>120</v>
       </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
       <c r="H48">
         <v>776</v>
       </c>
@@ -3698,6 +3844,9 @@
       <c r="D49">
         <v>120</v>
       </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
       <c r="H49">
         <v>776</v>
       </c>
@@ -3757,6 +3906,9 @@
       <c r="D50">
         <v>124</v>
       </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
       <c r="H50">
         <v>776</v>
       </c>
@@ -3816,6 +3968,9 @@
       <c r="D51">
         <v>140</v>
       </c>
+      <c r="F51">
+        <v>16</v>
+      </c>
       <c r="H51">
         <v>837</v>
       </c>
@@ -3875,6 +4030,9 @@
       <c r="D52">
         <v>150</v>
       </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
       <c r="H52">
         <v>837</v>
       </c>
@@ -3934,6 +4092,9 @@
       <c r="D53">
         <v>150</v>
       </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
       <c r="H53">
         <v>837</v>
       </c>
@@ -3993,6 +4154,9 @@
       <c r="D54">
         <v>166</v>
       </c>
+      <c r="F54">
+        <v>16</v>
+      </c>
       <c r="H54">
         <v>944</v>
       </c>
@@ -4052,6 +4216,9 @@
       <c r="D55">
         <v>174</v>
       </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
       <c r="H55">
         <v>944</v>
       </c>
@@ -4111,6 +4278,9 @@
       <c r="D56">
         <v>174</v>
       </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
       <c r="H56">
         <v>944</v>
       </c>
@@ -4170,6 +4340,9 @@
       <c r="D57">
         <v>177</v>
       </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
       <c r="H57">
         <v>944</v>
       </c>
@@ -4229,6 +4402,9 @@
       <c r="D58">
         <v>203</v>
       </c>
+      <c r="F58">
+        <v>26</v>
+      </c>
       <c r="H58">
         <v>1000</v>
       </c>
@@ -4288,6 +4464,9 @@
       <c r="D59">
         <v>244</v>
       </c>
+      <c r="F59">
+        <v>41</v>
+      </c>
       <c r="H59">
         <v>1000</v>
       </c>
@@ -4347,6 +4526,9 @@
       <c r="D60">
         <v>256</v>
       </c>
+      <c r="F60">
+        <v>12</v>
+      </c>
       <c r="H60">
         <v>1110</v>
       </c>
@@ -4409,6 +4591,9 @@
       <c r="D61">
         <v>267</v>
       </c>
+      <c r="F61">
+        <v>11</v>
+      </c>
       <c r="H61">
         <v>1110</v>
       </c>
@@ -4471,6 +4656,9 @@
       <c r="D62">
         <v>275</v>
       </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
       <c r="H62">
         <v>1110</v>
       </c>
@@ -4533,6 +4721,9 @@
       <c r="E63">
         <v>275</v>
       </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
       <c r="H63">
         <v>1110</v>
       </c>
@@ -4595,6 +4786,9 @@
       <c r="E64">
         <v>283</v>
       </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
       <c r="H64">
         <v>1110</v>
       </c>
@@ -4657,6 +4851,9 @@
       <c r="E65">
         <v>305</v>
       </c>
+      <c r="F65">
+        <v>22</v>
+      </c>
       <c r="H65">
         <v>1152</v>
       </c>
@@ -4719,6 +4916,9 @@
       <c r="E66">
         <v>305</v>
       </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
       <c r="H66">
         <v>1152</v>
       </c>
@@ -4781,6 +4981,9 @@
       <c r="E67">
         <v>316</v>
       </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
       <c r="H67">
         <v>1152</v>
       </c>
@@ -4843,6 +5046,9 @@
       <c r="E68">
         <v>330</v>
       </c>
+      <c r="F68">
+        <v>14</v>
+      </c>
       <c r="H68">
         <v>1252</v>
       </c>
@@ -4905,6 +5111,9 @@
       <c r="E69">
         <v>331</v>
       </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
       <c r="H69">
         <v>1252</v>
       </c>
@@ -4967,6 +5176,9 @@
       <c r="E70">
         <v>331</v>
       </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
       <c r="H70">
         <v>1252</v>
       </c>
@@ -5029,6 +5241,9 @@
       <c r="E71">
         <v>355</v>
       </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
       <c r="H71">
         <v>1338</v>
       </c>
@@ -5091,6 +5306,9 @@
       <c r="E72">
         <v>355</v>
       </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
       <c r="H72">
         <v>1338</v>
       </c>
@@ -5156,6 +5374,9 @@
       <c r="E73">
         <v>371</v>
       </c>
+      <c r="F73">
+        <v>16</v>
+      </c>
       <c r="H73">
         <v>1338</v>
       </c>
@@ -5221,6 +5442,9 @@
       <c r="E74">
         <v>380</v>
       </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
       <c r="H74">
         <v>1421</v>
       </c>
@@ -5286,6 +5510,9 @@
       <c r="E75">
         <v>380</v>
       </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
       <c r="H75">
         <v>1421</v>
       </c>
@@ -5351,6 +5578,9 @@
       <c r="E76">
         <v>380</v>
       </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
       <c r="H76">
         <v>1421</v>
       </c>
@@ -5416,6 +5646,9 @@
       <c r="E77">
         <v>391</v>
       </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
       <c r="H77">
         <v>1421</v>
       </c>
@@ -5481,6 +5714,9 @@
       <c r="E78">
         <v>399</v>
       </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
       <c r="H78">
         <v>1444</v>
       </c>
@@ -5546,6 +5782,9 @@
       <c r="E79">
         <v>399</v>
       </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
       <c r="H79">
         <v>1444</v>
       </c>
@@ -5611,6 +5850,9 @@
       <c r="E80">
         <v>407</v>
       </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
       <c r="H80">
         <v>1444</v>
       </c>
@@ -5679,6 +5921,9 @@
       <c r="E81">
         <v>419</v>
       </c>
+      <c r="F81">
+        <v>12</v>
+      </c>
       <c r="H81">
         <v>1534</v>
       </c>
@@ -5753,6 +5998,9 @@
       <c r="E82">
         <v>425</v>
       </c>
+      <c r="F82">
+        <v>6</v>
+      </c>
       <c r="H82">
         <v>1534</v>
       </c>
@@ -5827,6 +6075,9 @@
       <c r="E83">
         <v>435</v>
       </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
       <c r="H83">
         <v>1534</v>
       </c>
@@ -5901,6 +6152,9 @@
       <c r="E84">
         <v>440</v>
       </c>
+      <c r="F84">
+        <v>5</v>
+      </c>
       <c r="H84">
         <v>1534</v>
       </c>
@@ -5975,6 +6229,9 @@
       <c r="E85">
         <v>446</v>
       </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
       <c r="H85">
         <v>1618</v>
       </c>
@@ -6049,6 +6306,9 @@
       <c r="E86">
         <v>466</v>
       </c>
+      <c r="F86">
+        <v>20</v>
+      </c>
       <c r="H86">
         <v>1618</v>
       </c>
@@ -6123,6 +6383,9 @@
       <c r="E87">
         <v>470</v>
       </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
       <c r="H87">
         <v>1618</v>
       </c>
@@ -6197,6 +6460,9 @@
       <c r="E88">
         <v>483</v>
       </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
       <c r="H88">
         <v>1634</v>
       </c>
@@ -6271,6 +6537,9 @@
       <c r="E89">
         <v>487</v>
       </c>
+      <c r="F89">
+        <v>4</v>
+      </c>
       <c r="H89">
         <v>1634</v>
       </c>
@@ -6345,6 +6614,9 @@
       <c r="E90">
         <v>494</v>
       </c>
+      <c r="F90">
+        <v>7</v>
+      </c>
       <c r="H90">
         <v>1634</v>
       </c>
@@ -6419,6 +6691,9 @@
       <c r="E91">
         <v>500</v>
       </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
       <c r="H91">
         <v>1634</v>
       </c>
@@ -6493,6 +6768,9 @@
       <c r="E92">
         <v>501</v>
       </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
       <c r="H92">
         <v>1789</v>
       </c>
@@ -6567,6 +6845,9 @@
       <c r="E93">
         <v>518</v>
       </c>
+      <c r="F93">
+        <v>17</v>
+      </c>
       <c r="H93">
         <v>1789</v>
       </c>
@@ -6641,6 +6922,9 @@
       <c r="E94">
         <v>525</v>
       </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
       <c r="H94">
         <v>1789</v>
       </c>
@@ -6715,6 +6999,9 @@
       <c r="E95">
         <v>538</v>
       </c>
+      <c r="F95">
+        <v>13</v>
+      </c>
       <c r="H95">
         <v>1814</v>
       </c>
@@ -6789,6 +7076,9 @@
       <c r="E96">
         <v>545</v>
       </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
       <c r="H96">
         <v>1814</v>
       </c>
@@ -6863,6 +7153,9 @@
       <c r="E97">
         <v>546</v>
       </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
       <c r="H97">
         <v>1814</v>
       </c>
@@ -6937,6 +7230,9 @@
       <c r="E98">
         <v>557</v>
       </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
       <c r="H98">
         <v>1814</v>
       </c>
@@ -7011,6 +7307,9 @@
       <c r="E99">
         <v>568</v>
       </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
       <c r="H99">
         <v>1898</v>
       </c>
@@ -7085,6 +7384,9 @@
       <c r="E100">
         <v>575</v>
       </c>
+      <c r="F100">
+        <v>7</v>
+      </c>
       <c r="H100">
         <v>1898</v>
       </c>
@@ -7159,6 +7461,9 @@
       <c r="E101">
         <v>588</v>
       </c>
+      <c r="F101">
+        <v>13</v>
+      </c>
       <c r="H101">
         <v>1898</v>
       </c>
@@ -7242,6 +7547,9 @@
       <c r="E102">
         <v>593</v>
       </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
       <c r="H102">
         <v>1988</v>
       </c>
@@ -7325,6 +7633,9 @@
       <c r="E103">
         <v>599</v>
       </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
       <c r="H103">
         <v>1988</v>
       </c>
@@ -7408,6 +7719,9 @@
       <c r="E104">
         <v>600</v>
       </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
       <c r="H104">
         <v>1988</v>
       </c>
@@ -7491,6 +7805,9 @@
       <c r="E105">
         <v>602</v>
       </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
       <c r="H105">
         <v>1988</v>
       </c>
@@ -7574,6 +7891,9 @@
       <c r="E106">
         <v>607</v>
       </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
       <c r="H106">
         <v>2055</v>
       </c>
@@ -7657,6 +7977,9 @@
       <c r="E107">
         <v>617</v>
       </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
       <c r="G107">
         <v>0</v>
       </c>
@@ -7743,6 +8066,9 @@
       <c r="E108">
         <v>621</v>
       </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
       <c r="G108">
         <v>0</v>
       </c>
@@ -7829,6 +8155,9 @@
       <c r="E109">
         <v>639</v>
       </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
       <c r="G109">
         <v>0</v>
       </c>
@@ -7915,6 +8244,9 @@
       <c r="E110">
         <v>644</v>
       </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
       <c r="G110">
         <v>0</v>
       </c>
@@ -8001,6 +8333,9 @@
       <c r="E111">
         <v>653</v>
       </c>
+      <c r="F111">
+        <v>9</v>
+      </c>
       <c r="G111">
         <v>0</v>
       </c>
@@ -8087,6 +8422,9 @@
       <c r="E112">
         <v>659</v>
       </c>
+      <c r="F112">
+        <v>6</v>
+      </c>
       <c r="G112">
         <v>0</v>
       </c>
@@ -8173,6 +8511,9 @@
       <c r="E113">
         <v>673</v>
       </c>
+      <c r="F113">
+        <v>14</v>
+      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -8259,6 +8600,9 @@
       <c r="E114">
         <v>683</v>
       </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
       <c r="G114">
         <v>0</v>
       </c>
@@ -8345,6 +8689,9 @@
       <c r="E115">
         <v>691</v>
       </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
       <c r="G115">
         <v>2</v>
       </c>
@@ -8431,6 +8778,9 @@
       <c r="E116">
         <v>692</v>
       </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
       <c r="G116">
         <v>2</v>
       </c>
@@ -8517,6 +8867,9 @@
       <c r="E117">
         <v>707</v>
       </c>
+      <c r="F117">
+        <v>17</v>
+      </c>
       <c r="G117">
         <v>4</v>
       </c>
@@ -8603,6 +8956,9 @@
       <c r="E118">
         <v>712</v>
       </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
       <c r="G118">
         <v>4</v>
       </c>
@@ -8689,6 +9045,9 @@
       <c r="E119">
         <v>717</v>
       </c>
+      <c r="F119">
+        <v>4</v>
+      </c>
       <c r="G119">
         <v>3</v>
       </c>
@@ -8775,6 +9134,9 @@
       <c r="E120">
         <v>735</v>
       </c>
+      <c r="F120">
+        <v>19</v>
+      </c>
       <c r="G120">
         <v>4</v>
       </c>
@@ -8861,6 +9223,9 @@
       <c r="E121">
         <v>759</v>
       </c>
+      <c r="F121">
+        <v>27</v>
+      </c>
       <c r="G121">
         <v>7</v>
       </c>
@@ -8947,6 +9312,9 @@
       <c r="E122">
         <v>777</v>
       </c>
+      <c r="F122">
+        <v>18</v>
+      </c>
       <c r="G122">
         <v>7</v>
       </c>
@@ -9033,6 +9401,9 @@
       <c r="E123">
         <v>787</v>
       </c>
+      <c r="F123">
+        <v>9</v>
+      </c>
       <c r="G123">
         <v>6</v>
       </c>
@@ -9119,6 +9490,9 @@
       <c r="E124">
         <v>806</v>
       </c>
+      <c r="F124">
+        <v>20</v>
+      </c>
       <c r="G124">
         <v>7</v>
       </c>
@@ -9205,6 +9579,9 @@
       <c r="E125">
         <v>813</v>
       </c>
+      <c r="F125">
+        <v>7</v>
+      </c>
       <c r="G125">
         <v>7</v>
       </c>
@@ -9291,6 +9668,9 @@
       <c r="E126">
         <v>819</v>
       </c>
+      <c r="F126">
+        <v>7</v>
+      </c>
       <c r="G126">
         <v>8</v>
       </c>
@@ -9377,6 +9757,9 @@
       <c r="E127">
         <v>838</v>
       </c>
+      <c r="F127">
+        <v>19</v>
+      </c>
       <c r="G127">
         <v>8</v>
       </c>
@@ -9463,6 +9846,9 @@
       <c r="E128">
         <v>876</v>
       </c>
+      <c r="F128">
+        <v>38</v>
+      </c>
       <c r="G128">
         <v>8</v>
       </c>
@@ -9549,6 +9935,9 @@
       <c r="E129">
         <v>898</v>
       </c>
+      <c r="F129">
+        <v>21</v>
+      </c>
       <c r="G129">
         <v>7</v>
       </c>
@@ -9635,6 +10024,9 @@
       <c r="E130">
         <v>922</v>
       </c>
+      <c r="F130">
+        <v>24</v>
+      </c>
       <c r="G130">
         <v>7</v>
       </c>
@@ -9721,6 +10113,9 @@
       <c r="E131">
         <v>940</v>
       </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
       <c r="G131">
         <v>11</v>
       </c>
@@ -9807,6 +10202,9 @@
       <c r="E132">
         <v>950</v>
       </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
       <c r="G132">
         <v>11</v>
       </c>
@@ -9893,6 +10291,9 @@
       <c r="E133">
         <v>961</v>
       </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
       <c r="G133">
         <v>11</v>
       </c>
@@ -9979,6 +10380,9 @@
       <c r="E134">
         <v>984</v>
       </c>
+      <c r="F134">
+        <v>21</v>
+      </c>
       <c r="G134">
         <v>9</v>
       </c>
@@ -10065,6 +10469,9 @@
       <c r="E135">
         <v>984</v>
       </c>
+      <c r="F135">
+        <v>5</v>
+      </c>
       <c r="G135">
         <v>14</v>
       </c>
@@ -10151,6 +10558,9 @@
       <c r="E136">
         <v>1053</v>
       </c>
+      <c r="F136">
+        <v>72</v>
+      </c>
       <c r="G136">
         <v>17</v>
       </c>
@@ -10237,6 +10647,9 @@
       <c r="E137">
         <v>1078</v>
       </c>
+      <c r="F137">
+        <v>26</v>
+      </c>
       <c r="G137">
         <v>18</v>
       </c>
@@ -10323,6 +10736,9 @@
       <c r="E138">
         <v>1117</v>
       </c>
+      <c r="F138">
+        <v>39</v>
+      </c>
       <c r="G138">
         <v>18</v>
       </c>
@@ -10409,6 +10825,9 @@
       <c r="E139">
         <v>1138</v>
       </c>
+      <c r="F139">
+        <v>20</v>
+      </c>
       <c r="G139">
         <v>17</v>
       </c>
@@ -10495,6 +10914,9 @@
       <c r="E140">
         <v>1147</v>
       </c>
+      <c r="F140">
+        <v>9</v>
+      </c>
       <c r="G140">
         <v>17</v>
       </c>
@@ -10581,6 +11003,9 @@
       <c r="E141">
         <v>1203</v>
       </c>
+      <c r="F141">
+        <v>57</v>
+      </c>
       <c r="G141">
         <v>18</v>
       </c>
@@ -10667,6 +11092,9 @@
       <c r="E142">
         <v>1242</v>
       </c>
+      <c r="F142">
+        <v>64</v>
+      </c>
       <c r="G142">
         <v>43</v>
       </c>
@@ -10753,6 +11181,9 @@
       <c r="E143">
         <v>1294</v>
       </c>
+      <c r="F143">
+        <v>49</v>
+      </c>
       <c r="G143">
         <v>40</v>
       </c>
@@ -10839,6 +11270,9 @@
       <c r="E144">
         <v>1339</v>
       </c>
+      <c r="F144">
+        <v>51</v>
+      </c>
       <c r="G144">
         <v>46</v>
       </c>
@@ -10928,6 +11362,9 @@
       <c r="E145">
         <v>1412</v>
       </c>
+      <c r="F145">
+        <v>80</v>
+      </c>
       <c r="G145">
         <v>53</v>
       </c>
@@ -11017,6 +11454,9 @@
       <c r="E146">
         <v>1436</v>
       </c>
+      <c r="F146">
+        <v>26</v>
+      </c>
       <c r="G146">
         <v>55</v>
       </c>
@@ -11106,6 +11546,9 @@
       <c r="E147">
         <v>1452</v>
       </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
       <c r="G147">
         <v>54</v>
       </c>
@@ -11195,6 +11638,9 @@
       <c r="E148">
         <v>1505</v>
       </c>
+      <c r="F148">
+        <v>59</v>
+      </c>
       <c r="G148">
         <v>60</v>
       </c>
@@ -11287,6 +11733,9 @@
       <c r="E149">
         <v>1551</v>
       </c>
+      <c r="F149">
+        <v>50</v>
+      </c>
       <c r="G149">
         <v>64</v>
       </c>
@@ -11379,6 +11828,9 @@
       <c r="E150">
         <v>1600</v>
       </c>
+      <c r="F150">
+        <v>52</v>
+      </c>
       <c r="G150">
         <v>67</v>
       </c>
@@ -11471,6 +11923,9 @@
       <c r="E151">
         <v>1647</v>
       </c>
+      <c r="F151">
+        <v>45</v>
+      </c>
       <c r="G151">
         <v>65</v>
       </c>
@@ -11563,6 +12018,9 @@
       <c r="E152">
         <v>1683</v>
       </c>
+      <c r="F152">
+        <v>39</v>
+      </c>
       <c r="G152">
         <v>68</v>
       </c>
@@ -11655,6 +12113,9 @@
       <c r="E153">
         <v>1709</v>
       </c>
+      <c r="F153">
+        <v>26</v>
+      </c>
       <c r="G153">
         <v>68</v>
       </c>
@@ -11747,6 +12208,9 @@
       <c r="E154">
         <v>1721</v>
       </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
       <c r="G154">
         <v>72</v>
       </c>
@@ -11839,6 +12303,9 @@
       <c r="E155">
         <v>1774</v>
       </c>
+      <c r="F155">
+        <v>54</v>
+      </c>
       <c r="G155">
         <v>73</v>
       </c>
@@ -11931,6 +12398,9 @@
       <c r="E156">
         <v>1819</v>
       </c>
+      <c r="F156">
+        <v>47</v>
+      </c>
       <c r="G156">
         <v>75</v>
       </c>
@@ -12023,6 +12493,9 @@
       <c r="E157">
         <v>1863</v>
       </c>
+      <c r="F157">
+        <v>49</v>
+      </c>
       <c r="G157">
         <v>80</v>
       </c>
@@ -12115,6 +12588,9 @@
       <c r="E158">
         <v>1883</v>
       </c>
+      <c r="F158">
+        <v>19</v>
+      </c>
       <c r="G158">
         <v>79</v>
       </c>
@@ -12207,6 +12683,9 @@
       <c r="E159">
         <v>1931</v>
       </c>
+      <c r="F159">
+        <v>45</v>
+      </c>
       <c r="G159">
         <v>76</v>
       </c>
@@ -12299,6 +12778,9 @@
       <c r="E160">
         <v>1949</v>
       </c>
+      <c r="F160">
+        <v>24</v>
+      </c>
       <c r="G160">
         <v>82</v>
       </c>
@@ -12391,6 +12873,9 @@
       <c r="E161">
         <v>1966</v>
       </c>
+      <c r="F161">
+        <v>18</v>
+      </c>
       <c r="G161">
         <v>83</v>
       </c>
@@ -12483,6 +12968,9 @@
       <c r="E162">
         <v>2012</v>
       </c>
+      <c r="F162">
+        <v>49</v>
+      </c>
       <c r="G162">
         <v>86</v>
       </c>
@@ -12575,6 +13063,9 @@
       <c r="E163">
         <v>2057</v>
       </c>
+      <c r="F163">
+        <v>46</v>
+      </c>
       <c r="G163">
         <v>87</v>
       </c>
@@ -12667,6 +13158,9 @@
       <c r="E164">
         <v>2089</v>
       </c>
+      <c r="F164">
+        <v>42</v>
+      </c>
       <c r="G164">
         <v>97</v>
       </c>
@@ -12759,6 +13253,9 @@
       <c r="E165">
         <v>2106</v>
       </c>
+      <c r="F165">
+        <v>18</v>
+      </c>
       <c r="G165">
         <v>98</v>
       </c>
@@ -12851,6 +13348,9 @@
       <c r="E166">
         <v>2156</v>
       </c>
+      <c r="F166">
+        <v>56</v>
+      </c>
       <c r="G166">
         <v>104</v>
       </c>
@@ -12943,6 +13443,9 @@
       <c r="E167">
         <v>2165</v>
       </c>
+      <c r="F167">
+        <v>9</v>
+      </c>
       <c r="G167">
         <v>104</v>
       </c>
@@ -13035,6 +13538,9 @@
       <c r="E168">
         <v>2185</v>
       </c>
+      <c r="F168">
+        <v>19</v>
+      </c>
       <c r="G168">
         <v>103</v>
       </c>
@@ -13127,6 +13633,9 @@
       <c r="E169">
         <v>2230</v>
       </c>
+      <c r="F169">
+        <v>55</v>
+      </c>
       <c r="G169">
         <v>113</v>
       </c>
@@ -13219,6 +13728,9 @@
       <c r="E170">
         <v>2248</v>
       </c>
+      <c r="F170">
+        <v>17</v>
+      </c>
       <c r="G170">
         <v>112</v>
       </c>
@@ -13311,6 +13823,9 @@
       <c r="E171">
         <v>2289</v>
       </c>
+      <c r="F171">
+        <v>41</v>
+      </c>
       <c r="G171">
         <v>112</v>
       </c>
@@ -13403,6 +13918,9 @@
       <c r="E172">
         <v>2339</v>
       </c>
+      <c r="F172">
+        <v>58</v>
+      </c>
       <c r="G172">
         <v>120</v>
       </c>
@@ -13495,6 +14013,9 @@
       <c r="E173">
         <v>2372</v>
       </c>
+      <c r="F173">
+        <v>34</v>
+      </c>
       <c r="G173">
         <v>121</v>
       </c>
@@ -13587,6 +14108,9 @@
       <c r="E174">
         <v>2380</v>
       </c>
+      <c r="F174">
+        <v>11</v>
+      </c>
       <c r="G174">
         <v>124</v>
       </c>
@@ -13679,6 +14203,9 @@
       <c r="E175">
         <v>2387</v>
       </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
       <c r="G175">
         <v>124</v>
       </c>
@@ -13771,6 +14298,9 @@
       <c r="E176">
         <v>2408</v>
       </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
       <c r="G176">
         <v>121</v>
       </c>
@@ -13863,6 +14393,9 @@
       <c r="E177">
         <v>2451</v>
       </c>
+      <c r="F177">
+        <v>44</v>
+      </c>
       <c r="G177">
         <v>122</v>
       </c>
@@ -13955,6 +14488,9 @@
       <c r="E178">
         <v>2494</v>
       </c>
+      <c r="F178">
+        <v>55</v>
+      </c>
       <c r="G178">
         <v>134</v>
       </c>
@@ -14047,6 +14583,9 @@
       <c r="E179">
         <v>2521</v>
       </c>
+      <c r="F179">
+        <v>27</v>
+      </c>
       <c r="G179">
         <v>134</v>
       </c>
@@ -14139,6 +14678,9 @@
       <c r="E180">
         <v>2563</v>
       </c>
+      <c r="F180">
+        <v>43</v>
+      </c>
       <c r="G180">
         <v>135</v>
       </c>
@@ -14231,6 +14773,9 @@
       <c r="E181">
         <v>2574</v>
       </c>
+      <c r="F181">
+        <v>11</v>
+      </c>
       <c r="G181">
         <v>135</v>
       </c>
@@ -14323,6 +14868,9 @@
       <c r="E182">
         <v>2588</v>
       </c>
+      <c r="F182">
+        <v>11</v>
+      </c>
       <c r="G182">
         <v>132</v>
       </c>
@@ -14415,6 +14963,9 @@
       <c r="E183">
         <v>2626</v>
       </c>
+      <c r="F183">
+        <v>37</v>
+      </c>
       <c r="G183">
         <v>131</v>
       </c>
@@ -14507,6 +15058,9 @@
       <c r="E184">
         <v>2652</v>
       </c>
+      <c r="F184">
+        <v>37</v>
+      </c>
       <c r="G184">
         <v>142</v>
       </c>
@@ -14599,6 +15153,9 @@
       <c r="E185">
         <v>2667</v>
       </c>
+      <c r="F185">
+        <v>13</v>
+      </c>
       <c r="G185">
         <v>140</v>
       </c>
@@ -14691,6 +15248,9 @@
       <c r="E186">
         <v>2706</v>
       </c>
+      <c r="F186">
+        <v>39</v>
+      </c>
       <c r="G186">
         <v>140</v>
       </c>
@@ -14783,6 +15343,9 @@
       <c r="E187">
         <v>2738</v>
       </c>
+      <c r="F187">
+        <v>31</v>
+      </c>
       <c r="G187">
         <v>139</v>
       </c>
@@ -14875,6 +15438,9 @@
       <c r="E188">
         <v>2748</v>
       </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
       <c r="G188">
         <v>139</v>
       </c>
@@ -14967,6 +15533,9 @@
       <c r="E189">
         <v>2767</v>
       </c>
+      <c r="F189">
+        <v>20</v>
+      </c>
       <c r="G189">
         <v>140</v>
       </c>
@@ -15059,6 +15628,9 @@
       <c r="E190">
         <v>2772</v>
       </c>
+      <c r="F190">
+        <v>5</v>
+      </c>
       <c r="G190">
         <v>140</v>
       </c>
@@ -15151,6 +15723,9 @@
       <c r="E191">
         <v>2800</v>
       </c>
+      <c r="F191">
+        <v>30</v>
+      </c>
       <c r="G191">
         <v>142</v>
       </c>
@@ -15243,6 +15818,9 @@
       <c r="E192">
         <v>2823</v>
       </c>
+      <c r="F192">
+        <v>33</v>
+      </c>
       <c r="G192">
         <v>152</v>
       </c>
@@ -15335,6 +15913,9 @@
       <c r="E193">
         <v>2877</v>
       </c>
+      <c r="F193">
+        <v>53</v>
+      </c>
       <c r="G193">
         <v>151</v>
       </c>
@@ -15427,6 +16008,9 @@
       <c r="E194">
         <v>2891</v>
       </c>
+      <c r="F194">
+        <v>12</v>
+      </c>
       <c r="G194">
         <v>149</v>
       </c>
@@ -15519,6 +16103,9 @@
       <c r="E195">
         <v>2915</v>
       </c>
+      <c r="F195">
+        <v>24</v>
+      </c>
       <c r="G195">
         <v>149</v>
       </c>
@@ -15611,6 +16198,9 @@
       <c r="E196">
         <v>2922</v>
       </c>
+      <c r="F196">
+        <v>13</v>
+      </c>
       <c r="G196">
         <v>155</v>
       </c>
@@ -15703,6 +16293,9 @@
       <c r="E197">
         <v>2943</v>
       </c>
+      <c r="F197">
+        <v>21</v>
+      </c>
       <c r="G197">
         <v>155</v>
       </c>
@@ -15801,6 +16394,9 @@
       <c r="E198">
         <v>2968</v>
       </c>
+      <c r="F198">
+        <v>34</v>
+      </c>
       <c r="G198">
         <v>164</v>
       </c>
@@ -15899,6 +16495,9 @@
       <c r="E199">
         <v>2992</v>
       </c>
+      <c r="F199">
+        <v>26</v>
+      </c>
       <c r="G199">
         <v>166</v>
       </c>
@@ -15997,6 +16596,9 @@
       <c r="E200">
         <v>3010</v>
       </c>
+      <c r="F200">
+        <v>19</v>
+      </c>
       <c r="G200">
         <v>167</v>
       </c>
@@ -16095,6 +16697,9 @@
       <c r="E201">
         <v>3017</v>
       </c>
+      <c r="F201">
+        <v>11</v>
+      </c>
       <c r="G201">
         <v>171</v>
       </c>
@@ -16193,6 +16798,9 @@
       <c r="E202">
         <v>3028</v>
       </c>
+      <c r="F202">
+        <v>11</v>
+      </c>
       <c r="G202">
         <v>171</v>
       </c>
@@ -16291,6 +16899,9 @@
       <c r="E203">
         <v>3040</v>
       </c>
+      <c r="F203">
+        <v>13</v>
+      </c>
       <c r="G203">
         <v>172</v>
       </c>
@@ -16389,6 +17000,9 @@
       <c r="E204">
         <v>3067</v>
       </c>
+      <c r="F204">
+        <v>31</v>
+      </c>
       <c r="G204">
         <v>176</v>
       </c>
@@ -16487,6 +17101,9 @@
       <c r="E205">
         <v>3085</v>
       </c>
+      <c r="F205">
+        <v>19</v>
+      </c>
       <c r="G205">
         <v>177</v>
       </c>
@@ -16585,6 +17202,9 @@
       <c r="E206">
         <v>3097</v>
       </c>
+      <c r="F206">
+        <v>17</v>
+      </c>
       <c r="G206">
         <v>182</v>
       </c>
@@ -16683,6 +17303,9 @@
       <c r="E207">
         <v>3114</v>
       </c>
+      <c r="F207">
+        <v>18</v>
+      </c>
       <c r="G207">
         <v>183</v>
       </c>
@@ -16781,6 +17404,9 @@
       <c r="E208">
         <v>3141</v>
       </c>
+      <c r="F208">
+        <v>26</v>
+      </c>
       <c r="G208">
         <v>182</v>
       </c>
@@ -16879,6 +17505,9 @@
       <c r="E209">
         <v>3144</v>
       </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
       <c r="G209">
         <v>182</v>
       </c>
@@ -16977,6 +17606,9 @@
       <c r="E210">
         <v>3154</v>
       </c>
+      <c r="F210">
+        <v>11</v>
+      </c>
       <c r="G210">
         <v>183</v>
       </c>
@@ -17075,6 +17707,9 @@
       <c r="E211">
         <v>3173</v>
       </c>
+      <c r="F211">
+        <v>22</v>
+      </c>
       <c r="G211">
         <v>186</v>
       </c>
@@ -17173,6 +17808,9 @@
       <c r="E212">
         <v>3186</v>
       </c>
+      <c r="F212">
+        <v>19</v>
+      </c>
       <c r="G212">
         <v>192</v>
       </c>
@@ -17271,6 +17909,9 @@
       <c r="E213">
         <v>3203</v>
       </c>
+      <c r="F213">
+        <v>22</v>
+      </c>
       <c r="G213">
         <v>197</v>
       </c>
@@ -17369,6 +18010,9 @@
       <c r="E214">
         <v>3211</v>
       </c>
+      <c r="F214">
+        <v>9</v>
+      </c>
       <c r="G214">
         <v>198</v>
       </c>
@@ -17467,6 +18111,9 @@
       <c r="E215">
         <v>3243</v>
       </c>
+      <c r="F215">
+        <v>33</v>
+      </c>
       <c r="G215">
         <v>199</v>
       </c>
@@ -17565,6 +18212,9 @@
       <c r="E216">
         <v>3255</v>
       </c>
+      <c r="F216">
+        <v>11</v>
+      </c>
       <c r="G216">
         <v>198</v>
       </c>
@@ -17663,6 +18313,9 @@
       <c r="E217">
         <v>3258</v>
       </c>
+      <c r="F217">
+        <v>3</v>
+      </c>
       <c r="G217">
         <v>198</v>
       </c>
@@ -17761,6 +18414,9 @@
       <c r="E218">
         <v>3275</v>
       </c>
+      <c r="F218">
+        <v>15</v>
+      </c>
       <c r="G218">
         <v>196</v>
       </c>
@@ -17859,6 +18515,9 @@
       <c r="E219">
         <v>3300</v>
       </c>
+      <c r="F219">
+        <v>31</v>
+      </c>
       <c r="G219">
         <v>202</v>
       </c>
@@ -17957,6 +18616,9 @@
       <c r="E220">
         <v>3311</v>
       </c>
+      <c r="F220">
+        <v>12</v>
+      </c>
       <c r="G220">
         <v>203</v>
       </c>
@@ -18055,6 +18717,9 @@
       <c r="E221">
         <v>3325</v>
       </c>
+      <c r="F221">
+        <v>16</v>
+      </c>
       <c r="G221">
         <v>205</v>
       </c>
@@ -18153,6 +18818,9 @@
       <c r="E222">
         <v>3346</v>
       </c>
+      <c r="F222">
+        <v>21</v>
+      </c>
       <c r="G222">
         <v>205</v>
       </c>
@@ -18251,6 +18919,9 @@
       <c r="E223">
         <v>3348</v>
       </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
       <c r="G223">
         <v>204</v>
       </c>
@@ -18349,6 +19020,9 @@
       <c r="E224">
         <v>3355</v>
       </c>
+      <c r="F224">
+        <v>7</v>
+      </c>
       <c r="G224">
         <v>204</v>
       </c>
@@ -18447,6 +19121,9 @@
       <c r="E225">
         <v>3371</v>
       </c>
+      <c r="F225">
+        <v>17</v>
+      </c>
       <c r="G225">
         <v>205</v>
       </c>
@@ -18545,6 +19222,9 @@
       <c r="E226">
         <v>3387</v>
       </c>
+      <c r="F226">
+        <v>17</v>
+      </c>
       <c r="G226">
         <v>206</v>
       </c>
@@ -18643,6 +19323,9 @@
       <c r="E227">
         <v>3400</v>
       </c>
+      <c r="F227">
+        <v>14</v>
+      </c>
       <c r="G227">
         <v>207</v>
       </c>
@@ -18741,6 +19424,9 @@
       <c r="E228">
         <v>3405</v>
       </c>
+      <c r="F228">
+        <v>8</v>
+      </c>
       <c r="G228">
         <v>210</v>
       </c>
@@ -18839,6 +19525,9 @@
       <c r="E229">
         <v>3427</v>
       </c>
+      <c r="F229">
+        <v>22</v>
+      </c>
       <c r="G229">
         <v>210</v>
       </c>
@@ -18937,6 +19626,9 @@
       <c r="E230">
         <v>3439</v>
       </c>
+      <c r="F230">
+        <v>13</v>
+      </c>
       <c r="G230">
         <v>211</v>
       </c>
@@ -19035,6 +19727,9 @@
       <c r="E231">
         <v>3449</v>
       </c>
+      <c r="F231">
+        <v>11</v>
+      </c>
       <c r="G231">
         <v>212</v>
       </c>
@@ -19133,6 +19828,9 @@
       <c r="E232">
         <v>3475</v>
       </c>
+      <c r="F232">
+        <v>35</v>
+      </c>
       <c r="G232">
         <v>221</v>
       </c>
@@ -19231,6 +19929,9 @@
       <c r="E233">
         <v>3487</v>
       </c>
+      <c r="F233">
+        <v>12</v>
+      </c>
       <c r="G233">
         <v>221</v>
       </c>
@@ -19329,6 +20030,9 @@
       <c r="E234">
         <v>3526</v>
       </c>
+      <c r="F234">
+        <v>47</v>
+      </c>
       <c r="G234">
         <v>229</v>
       </c>
@@ -19427,6 +20131,9 @@
       <c r="E235">
         <v>3545</v>
       </c>
+      <c r="F235">
+        <v>22</v>
+      </c>
       <c r="G235">
         <v>232</v>
       </c>
@@ -19525,6 +20232,9 @@
       <c r="E236">
         <v>3560</v>
       </c>
+      <c r="F236">
+        <v>16</v>
+      </c>
       <c r="G236">
         <v>233</v>
       </c>
@@ -19623,6 +20333,9 @@
       <c r="E237">
         <v>3567</v>
       </c>
+      <c r="F237">
+        <v>9</v>
+      </c>
       <c r="G237">
         <v>235</v>
       </c>
@@ -19721,6 +20434,9 @@
       <c r="E238">
         <v>3587</v>
       </c>
+      <c r="F238">
+        <v>21</v>
+      </c>
       <c r="G238">
         <v>236</v>
       </c>
@@ -19819,6 +20535,9 @@
       <c r="E239">
         <v>3602</v>
       </c>
+      <c r="F239">
+        <v>19</v>
+      </c>
       <c r="G239">
         <v>240</v>
       </c>
@@ -19917,6 +20636,9 @@
       <c r="E240">
         <v>3634</v>
       </c>
+      <c r="F240">
+        <v>34</v>
+      </c>
       <c r="G240">
         <v>242</v>
       </c>
@@ -20015,6 +20737,9 @@
       <c r="E241">
         <v>3645</v>
       </c>
+      <c r="F241">
+        <v>13</v>
+      </c>
       <c r="G241">
         <v>244</v>
       </c>
@@ -20113,6 +20838,9 @@
       <c r="E242">
         <v>3653</v>
       </c>
+      <c r="F242">
+        <v>7</v>
+      </c>
       <c r="G242">
         <v>243</v>
       </c>
@@ -20211,6 +20939,9 @@
       <c r="E243">
         <v>3686</v>
       </c>
+      <c r="F243">
+        <v>39</v>
+      </c>
       <c r="G243">
         <v>249</v>
       </c>
@@ -20294,117 +21025,730 @@
       </c>
     </row>
     <row r="244" spans="1:42">
-      <c r="A244" s="1">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:42">
+      <c r="A245" s="1">
         <v>44136</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>41</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C245" t="s">
         <v>42</v>
       </c>
-      <c r="D244">
+      <c r="D245">
         <v>3936</v>
       </c>
-      <c r="E244">
+      <c r="E245">
         <v>3687</v>
       </c>
-      <c r="G244">
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
         <v>249</v>
       </c>
-      <c r="H244">
+      <c r="H245">
         <v>10514</v>
       </c>
-      <c r="I244">
+      <c r="I245">
         <v>10514</v>
       </c>
-      <c r="J244">
+      <c r="J245">
         <v>773</v>
       </c>
-      <c r="K244">
+      <c r="K245">
         <v>14</v>
       </c>
-      <c r="M244">
+      <c r="M245">
         <v>190</v>
       </c>
-      <c r="N244">
+      <c r="N245">
         <v>1649329</v>
       </c>
-      <c r="O244">
+      <c r="O245">
         <v>23891</v>
       </c>
-      <c r="P244">
+      <c r="P245">
         <v>71712</v>
       </c>
-      <c r="R244">
+      <c r="R245">
         <v>1596565</v>
       </c>
-      <c r="T244">
+      <c r="T245">
         <v>93</v>
       </c>
-      <c r="U244">
+      <c r="U245">
         <v>178023</v>
       </c>
-      <c r="V244">
+      <c r="V245">
         <v>169228</v>
       </c>
-      <c r="W244">
+      <c r="W245">
         <v>1411</v>
       </c>
-      <c r="X244">
-        <v>0</v>
-      </c>
-      <c r="Y244">
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
         <v>9083</v>
       </c>
-      <c r="Z244">
+      <c r="Z245">
         <v>16869</v>
       </c>
-      <c r="AC244">
+      <c r="AC245">
         <v>221992</v>
       </c>
-      <c r="AD244">
+      <c r="AD245">
         <v>91466</v>
       </c>
-      <c r="AF244">
-        <v>0</v>
-      </c>
-      <c r="AG244">
+      <c r="AF245">
+        <v>0</v>
+      </c>
+      <c r="AG245">
         <v>1827352</v>
       </c>
-      <c r="AH244">
+      <c r="AH245">
         <v>25302</v>
       </c>
-      <c r="AI244">
+      <c r="AI245">
         <v>80795</v>
       </c>
-      <c r="AJ244">
+      <c r="AJ245">
         <v>116139</v>
       </c>
-      <c r="AN244">
-        <v>0</v>
-      </c>
-      <c r="AO244">
+      <c r="AN245">
+        <v>0</v>
+      </c>
+      <c r="AO245">
         <v>1818557</v>
       </c>
-      <c r="AP244">
+      <c r="AP245">
         <v>25234</v>
       </c>
     </row>
+    <row r="246" spans="1:42">
+      <c r="A246" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B246" t="s">
+        <v>41</v>
+      </c>
+      <c r="C246" t="s">
+        <v>42</v>
+      </c>
+      <c r="D246">
+        <v>3946</v>
+      </c>
+      <c r="E246">
+        <v>3697</v>
+      </c>
+      <c r="F246">
+        <v>10</v>
+      </c>
+      <c r="G246">
+        <v>249</v>
+      </c>
+      <c r="H246">
+        <v>10533</v>
+      </c>
+      <c r="I246">
+        <v>10533</v>
+      </c>
+      <c r="J246">
+        <v>749</v>
+      </c>
+      <c r="K246">
+        <v>19</v>
+      </c>
+      <c r="M246">
+        <v>204</v>
+      </c>
+      <c r="N246">
+        <v>1663121</v>
+      </c>
+      <c r="O246">
+        <v>13792</v>
+      </c>
+      <c r="P246">
+        <v>71844</v>
+      </c>
+      <c r="R246">
+        <v>1610128</v>
+      </c>
+      <c r="T246">
+        <v>88</v>
+      </c>
+      <c r="U246">
+        <v>178917</v>
+      </c>
+      <c r="V246">
+        <v>170048</v>
+      </c>
+      <c r="W246">
+        <v>894</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>9107</v>
+      </c>
+      <c r="Z246">
+        <v>16969</v>
+      </c>
+      <c r="AC246">
+        <v>223041</v>
+      </c>
+      <c r="AD246">
+        <v>91934</v>
+      </c>
+      <c r="AF246">
+        <v>0</v>
+      </c>
+      <c r="AG246">
+        <v>1842038</v>
+      </c>
+      <c r="AH246">
+        <v>14686</v>
+      </c>
+      <c r="AI246">
+        <v>80951</v>
+      </c>
+      <c r="AJ246">
+        <v>117152</v>
+      </c>
+      <c r="AN246">
+        <v>0</v>
+      </c>
+      <c r="AO246">
+        <v>1833169</v>
+      </c>
+      <c r="AP246">
+        <v>14612</v>
+      </c>
+    </row>
+    <row r="247" spans="1:42">
+      <c r="A247" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B247" t="s">
+        <v>41</v>
+      </c>
+      <c r="C247" t="s">
+        <v>42</v>
+      </c>
+      <c r="D247">
+        <v>3968</v>
+      </c>
+      <c r="E247">
+        <v>3713</v>
+      </c>
+      <c r="F247">
+        <v>22</v>
+      </c>
+      <c r="G247">
+        <v>255</v>
+      </c>
+      <c r="H247">
+        <v>10599</v>
+      </c>
+      <c r="I247">
+        <v>10599</v>
+      </c>
+      <c r="J247">
+        <v>737</v>
+      </c>
+      <c r="K247">
+        <v>66</v>
+      </c>
+      <c r="M247">
+        <v>202</v>
+      </c>
+      <c r="N247">
+        <v>1675171</v>
+      </c>
+      <c r="O247">
+        <v>12050</v>
+      </c>
+      <c r="P247">
+        <v>72029</v>
+      </c>
+      <c r="R247">
+        <v>1621681</v>
+      </c>
+      <c r="T247">
+        <v>104</v>
+      </c>
+      <c r="U247">
+        <v>179952</v>
+      </c>
+      <c r="V247">
+        <v>170862</v>
+      </c>
+      <c r="W247">
+        <v>1035</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>9130</v>
+      </c>
+      <c r="Z247">
+        <v>17251</v>
+      </c>
+      <c r="AC247">
+        <v>224352</v>
+      </c>
+      <c r="AD247">
+        <v>92763</v>
+      </c>
+      <c r="AF247">
+        <v>0</v>
+      </c>
+      <c r="AG247">
+        <v>1855123</v>
+      </c>
+      <c r="AH247">
+        <v>13085</v>
+      </c>
+      <c r="AI247">
+        <v>81159</v>
+      </c>
+      <c r="AJ247">
+        <v>121231</v>
+      </c>
+      <c r="AN247">
+        <v>0</v>
+      </c>
+      <c r="AO247">
+        <v>1846033</v>
+      </c>
+      <c r="AP247">
+        <v>12864</v>
+      </c>
+    </row>
+    <row r="248" spans="1:42">
+      <c r="A248" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B248" t="s">
+        <v>41</v>
+      </c>
+      <c r="C248" t="s">
+        <v>42</v>
+      </c>
+      <c r="D248">
+        <v>3985</v>
+      </c>
+      <c r="E248">
+        <v>3728</v>
+      </c>
+      <c r="F248">
+        <v>17</v>
+      </c>
+      <c r="G248">
+        <v>257</v>
+      </c>
+      <c r="H248">
+        <v>10656</v>
+      </c>
+      <c r="I248">
+        <v>10656</v>
+      </c>
+      <c r="J248">
+        <v>783</v>
+      </c>
+      <c r="K248">
+        <v>57</v>
+      </c>
+      <c r="M248">
+        <v>210</v>
+      </c>
+      <c r="N248">
+        <v>1685018</v>
+      </c>
+      <c r="O248">
+        <v>9847</v>
+      </c>
+      <c r="P248">
+        <v>72151</v>
+      </c>
+      <c r="R248">
+        <v>1631123</v>
+      </c>
+      <c r="T248">
+        <v>112</v>
+      </c>
+      <c r="U248">
+        <v>180870</v>
+      </c>
+      <c r="V248">
+        <v>171642</v>
+      </c>
+      <c r="W248">
+        <v>918</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248">
+        <v>9162</v>
+      </c>
+      <c r="Z248">
+        <v>17465</v>
+      </c>
+      <c r="AC248">
+        <v>225537</v>
+      </c>
+      <c r="AD248">
+        <v>93533</v>
+      </c>
+      <c r="AF248">
+        <v>0</v>
+      </c>
+      <c r="AG248">
+        <v>1865888</v>
+      </c>
+      <c r="AH248">
+        <v>10765</v>
+      </c>
+      <c r="AI248">
+        <v>81313</v>
+      </c>
+      <c r="AJ248">
+        <v>124113</v>
+      </c>
+      <c r="AN248">
+        <v>0</v>
+      </c>
+      <c r="AO248">
+        <v>1856660</v>
+      </c>
+      <c r="AP248">
+        <v>10627</v>
+      </c>
+    </row>
+    <row r="249" spans="1:42">
+      <c r="A249" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B249" t="s">
+        <v>41</v>
+      </c>
+      <c r="C249" t="s">
+        <v>42</v>
+      </c>
+      <c r="D249">
+        <v>3992</v>
+      </c>
+      <c r="E249">
+        <v>3736</v>
+      </c>
+      <c r="F249">
+        <v>7</v>
+      </c>
+      <c r="G249">
+        <v>256</v>
+      </c>
+      <c r="H249">
+        <v>10726</v>
+      </c>
+      <c r="I249">
+        <v>10726</v>
+      </c>
+      <c r="J249">
+        <v>755</v>
+      </c>
+      <c r="K249">
+        <v>70</v>
+      </c>
+      <c r="M249">
+        <v>214</v>
+      </c>
+      <c r="N249">
+        <v>1691646</v>
+      </c>
+      <c r="O249">
+        <v>6628</v>
+      </c>
+      <c r="P249">
+        <v>72237</v>
+      </c>
+      <c r="R249">
+        <v>1637644</v>
+      </c>
+      <c r="T249">
+        <v>102</v>
+      </c>
+      <c r="U249">
+        <v>181639</v>
+      </c>
+      <c r="V249">
+        <v>172216</v>
+      </c>
+      <c r="W249">
+        <v>769</v>
+      </c>
+      <c r="X249">
+        <v>0</v>
+      </c>
+      <c r="Y249">
+        <v>9176</v>
+      </c>
+      <c r="Z249">
+        <v>17719</v>
+      </c>
+      <c r="AC249">
+        <v>226218</v>
+      </c>
+      <c r="AD249">
+        <v>94333</v>
+      </c>
+      <c r="AF249">
+        <v>0</v>
+      </c>
+      <c r="AG249">
+        <v>1873285</v>
+      </c>
+      <c r="AH249">
+        <v>7397</v>
+      </c>
+      <c r="AI249">
+        <v>81413</v>
+      </c>
+      <c r="AJ249">
+        <v>126687</v>
+      </c>
+      <c r="AN249">
+        <v>0</v>
+      </c>
+      <c r="AO249">
+        <v>1863862</v>
+      </c>
+      <c r="AP249">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="250" spans="1:42">
+      <c r="A250" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B250" t="s">
+        <v>41</v>
+      </c>
+      <c r="C250" t="s">
+        <v>42</v>
+      </c>
+      <c r="D250">
+        <v>4005</v>
+      </c>
+      <c r="E250">
+        <v>3748</v>
+      </c>
+      <c r="F250">
+        <v>13</v>
+      </c>
+      <c r="G250">
+        <v>257</v>
+      </c>
+      <c r="H250">
+        <v>10776</v>
+      </c>
+      <c r="I250">
+        <v>10776</v>
+      </c>
+      <c r="J250">
+        <v>767</v>
+      </c>
+      <c r="K250">
+        <v>50</v>
+      </c>
+      <c r="M250">
+        <v>204</v>
+      </c>
+      <c r="N250">
+        <v>1714225</v>
+      </c>
+      <c r="O250">
+        <v>22579</v>
+      </c>
+      <c r="P250">
+        <v>72567</v>
+      </c>
+      <c r="R250">
+        <v>1659483</v>
+      </c>
+      <c r="T250">
+        <v>91</v>
+      </c>
+      <c r="U250">
+        <v>182872</v>
+      </c>
+      <c r="V250">
+        <v>173186</v>
+      </c>
+      <c r="W250">
+        <v>1233</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250">
+        <v>9278</v>
+      </c>
+      <c r="Z250">
+        <v>18123</v>
+      </c>
+      <c r="AC250">
+        <v>227928</v>
+      </c>
+      <c r="AD250">
+        <v>95045</v>
+      </c>
+      <c r="AF250">
+        <v>0</v>
+      </c>
+      <c r="AG250">
+        <v>1897097</v>
+      </c>
+      <c r="AH250">
+        <v>23812</v>
+      </c>
+      <c r="AI250">
+        <v>81845</v>
+      </c>
+      <c r="AJ250">
+        <v>130900</v>
+      </c>
+      <c r="AN250">
+        <v>0</v>
+      </c>
+      <c r="AO250">
+        <v>1887411</v>
+      </c>
+      <c r="AP250">
+        <v>23549</v>
+      </c>
+    </row>
+    <row r="251" spans="1:42">
+      <c r="A251" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B251" t="s">
+        <v>41</v>
+      </c>
+      <c r="C251" t="s">
+        <v>42</v>
+      </c>
+      <c r="D251">
+        <v>4015</v>
+      </c>
+      <c r="E251">
+        <v>3756</v>
+      </c>
+      <c r="F251">
+        <v>10</v>
+      </c>
+      <c r="G251">
+        <v>259</v>
+      </c>
+      <c r="H251">
+        <v>10834</v>
+      </c>
+      <c r="I251">
+        <v>10834</v>
+      </c>
+      <c r="J251">
+        <v>740</v>
+      </c>
+      <c r="K251">
+        <v>58</v>
+      </c>
+      <c r="M251">
+        <v>180</v>
+      </c>
+      <c r="N251">
+        <v>1760186</v>
+      </c>
+      <c r="O251">
+        <v>45961</v>
+      </c>
+      <c r="P251">
+        <v>73044</v>
+      </c>
+      <c r="R251">
+        <v>1704603</v>
+      </c>
+      <c r="T251">
+        <v>89</v>
+      </c>
+      <c r="U251">
+        <v>184742</v>
+      </c>
+      <c r="V251">
+        <v>174862</v>
+      </c>
+      <c r="W251">
+        <v>1870</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>9425</v>
+      </c>
+      <c r="Z251">
+        <v>18430</v>
+      </c>
+      <c r="AC251">
+        <v>230445</v>
+      </c>
+      <c r="AD251">
+        <v>95754</v>
+      </c>
+      <c r="AF251">
+        <v>0</v>
+      </c>
+      <c r="AG251">
+        <v>1944928</v>
+      </c>
+      <c r="AH251">
+        <v>47831</v>
+      </c>
+      <c r="AI251">
+        <v>82469</v>
+      </c>
+      <c r="AJ251">
+        <v>135415</v>
+      </c>
+      <c r="AN251">
+        <v>0</v>
+      </c>
+      <c r="AO251">
+        <v>1935048</v>
+      </c>
+      <c r="AP251">
+        <v>47637</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP244">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AP251">
     <sortCondition ref="A2"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N244"/>
+  <dimension ref="A1:N250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M255" sqref="M255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30297,11 +31641,11 @@
         <v>16991</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F244" si="25">(E195/5148714)*100000</f>
+        <f t="shared" ref="F195:F250" si="25">(E195/5148714)*100000</f>
         <v>330.00473516299411</v>
       </c>
       <c r="G195" s="11">
-        <f t="shared" ref="G195:G244" si="26">IFERROR(B195/E195,0)</f>
+        <f t="shared" ref="G195:G250" si="26">IFERROR(B195/E195,0)</f>
         <v>0.11099994114531223</v>
       </c>
       <c r="H195" s="12">
@@ -30375,7 +31719,7 @@
         <v>1088468</v>
       </c>
       <c r="M196">
-        <f t="shared" ref="M196:M244" si="29">M195+I196</f>
+        <f t="shared" ref="M196:M243" si="29">M195+I196</f>
         <v>3077</v>
       </c>
       <c r="N196">
@@ -30598,7 +31942,7 @@
         <v>922</v>
       </c>
       <c r="C201">
-        <f t="shared" ref="C201:C244" si="30">AVERAGE(B195:B201)</f>
+        <f t="shared" ref="C201:C250" si="30">AVERAGE(B195:B201)</f>
         <v>1037.4285714285713</v>
       </c>
       <c r="D201">
@@ -30617,7 +31961,7 @@
         <v>7.7733749262288168E-2</v>
       </c>
       <c r="H201" s="12">
-        <f t="shared" ref="H201:H244" si="31">AVERAGE(G195:G201)</f>
+        <f t="shared" ref="H201:H250" si="31">AVERAGE(G195:G201)</f>
         <v>7.4432301997738898E-2</v>
       </c>
       <c r="I201">
@@ -30654,7 +31998,7 @@
         <v>834.85714285714289</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D244" si="32">(B202/5148714)*100000</f>
+        <f t="shared" ref="D202:D250" si="32">(B202/5148714)*100000</f>
         <v>9.0896484054076421</v>
       </c>
       <c r="E202">
@@ -32871,18 +34215,330 @@
         <v>1827347</v>
       </c>
       <c r="M244">
-        <f t="shared" si="29"/>
+        <f>M243+I244</f>
         <v>3936</v>
       </c>
       <c r="N244">
         <v>10514</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="8">
+        <v>44137</v>
+      </c>
+      <c r="B245">
+        <v>894</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="30"/>
+        <v>1059.4285714285713</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="32"/>
+        <v>17.363559133406905</v>
+      </c>
+      <c r="E245">
+        <v>14686</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="25"/>
+        <v>285.23627453379623</v>
+      </c>
+      <c r="G245" s="11">
+        <f t="shared" si="26"/>
+        <v>6.0874302056380225E-2</v>
+      </c>
+      <c r="H245" s="12">
+        <f t="shared" si="31"/>
+        <v>7.2899206181329751E-2</v>
+      </c>
+      <c r="I245">
+        <v>10</v>
+      </c>
+      <c r="J245">
+        <v>749</v>
+      </c>
+      <c r="K245">
+        <f t="shared" ref="K245:K250" si="33">K244+B245</f>
+        <v>178917</v>
+      </c>
+      <c r="L245">
+        <f t="shared" ref="L245:L250" si="34">L244+E245</f>
+        <v>1842033</v>
+      </c>
+      <c r="M245">
+        <f t="shared" ref="M245:M250" si="35">M244+I245</f>
+        <v>3946</v>
+      </c>
+      <c r="N245">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="8">
+        <v>44138</v>
+      </c>
+      <c r="B246">
+        <v>1035</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="30"/>
+        <v>1053.2857142857142</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="32"/>
+        <v>20.102107050420745</v>
+      </c>
+      <c r="E246">
+        <v>13085</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="25"/>
+        <v>254.14113116401495</v>
+      </c>
+      <c r="G246" s="11">
+        <f t="shared" si="26"/>
+        <v>7.9098204050439436E-2</v>
+      </c>
+      <c r="H246" s="12">
+        <f t="shared" si="31"/>
+        <v>7.1141462759382559E-2</v>
+      </c>
+      <c r="I246">
+        <v>22</v>
+      </c>
+      <c r="J246">
+        <v>737</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="33"/>
+        <v>179952</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="34"/>
+        <v>1855118</v>
+      </c>
+      <c r="M246">
+        <f t="shared" si="35"/>
+        <v>3968</v>
+      </c>
+      <c r="N246">
+        <v>10599</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="8">
+        <v>44139</v>
+      </c>
+      <c r="B247">
+        <v>918</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="30"/>
+        <v>1054.1428571428571</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="32"/>
+        <v>17.829694949068834</v>
+      </c>
+      <c r="E247">
+        <v>10765</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="25"/>
+        <v>209.08133565002834</v>
+      </c>
+      <c r="G247" s="11">
+        <f t="shared" si="26"/>
+        <v>8.5276358569437993E-2</v>
+      </c>
+      <c r="H247" s="12">
+        <f t="shared" si="31"/>
+        <v>6.8442507375119352E-2</v>
+      </c>
+      <c r="I247">
+        <v>17</v>
+      </c>
+      <c r="J247">
+        <v>783</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="33"/>
+        <v>180870</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="34"/>
+        <v>1865883</v>
+      </c>
+      <c r="M247">
+        <f t="shared" si="35"/>
+        <v>3985</v>
+      </c>
+      <c r="N247">
+        <v>10656</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="8">
+        <v>44140</v>
+      </c>
+      <c r="B248">
+        <v>769</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="30"/>
+        <v>1006.8571428571429</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="32"/>
+        <v>14.93576842683435</v>
+      </c>
+      <c r="E248">
+        <v>7397</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="25"/>
+        <v>143.66694285213745</v>
+      </c>
+      <c r="G248" s="11">
+        <f t="shared" si="26"/>
+        <v>0.10396106529674193</v>
+      </c>
+      <c r="H248" s="12">
+        <f t="shared" si="31"/>
+        <v>7.5421593910923207E-2</v>
+      </c>
+      <c r="I248">
+        <v>7</v>
+      </c>
+      <c r="J248">
+        <v>755</v>
+      </c>
+      <c r="K248">
+        <f t="shared" si="33"/>
+        <v>181639</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="34"/>
+        <v>1873280</v>
+      </c>
+      <c r="M248">
+        <f t="shared" si="35"/>
+        <v>3992</v>
+      </c>
+      <c r="N248">
+        <v>10726</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" s="8">
+        <v>44141</v>
+      </c>
+      <c r="B249">
+        <v>1233</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="30"/>
+        <v>1039.7142857142858</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="32"/>
+        <v>23.947727529631671</v>
+      </c>
+      <c r="E249">
+        <v>23812</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="25"/>
+        <v>462.48441843924525</v>
+      </c>
+      <c r="G249" s="11">
+        <f t="shared" si="26"/>
+        <v>5.1780614816059133E-2</v>
+      </c>
+      <c r="H249" s="12">
+        <f t="shared" si="31"/>
+        <v>7.3016819243499023E-2</v>
+      </c>
+      <c r="I249">
+        <v>13</v>
+      </c>
+      <c r="J249">
+        <v>767</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="33"/>
+        <v>182872</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="34"/>
+        <v>1897092</v>
+      </c>
+      <c r="M249">
+        <f t="shared" si="35"/>
+        <v>4005</v>
+      </c>
+      <c r="N249">
+        <v>10776</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" s="8">
+        <v>44142</v>
+      </c>
+      <c r="B250">
+        <v>1870</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="30"/>
+        <v>1161.4285714285713</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="32"/>
+        <v>36.319748970325406</v>
+      </c>
+      <c r="E250">
+        <v>47831</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="25"/>
+        <v>928.98925828857455</v>
+      </c>
+      <c r="G250" s="11">
+        <f t="shared" si="26"/>
+        <v>3.9095983776212082E-2</v>
+      </c>
+      <c r="H250" s="12">
+        <f t="shared" si="31"/>
+        <v>6.7978981592412127E-2</v>
+      </c>
+      <c r="I250">
+        <v>10</v>
+      </c>
+      <c r="J250">
+        <v>740</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="33"/>
+        <v>184742</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="34"/>
+        <v>1944923</v>
+      </c>
+      <c r="M250">
+        <f t="shared" si="35"/>
+        <v>4015</v>
+      </c>
+      <c r="N250">
+        <v>10834</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B244">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A244">
+  <conditionalFormatting sqref="A2:A250">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),7)=0</formula>
     </cfRule>
@@ -32898,8 +34554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -32980,6 +34636,52 @@
       <c r="C2" s="6">
         <v>43897</v>
       </c>
+      <c r="D2">
+        <f>SUM('Daily Data'!B2:B5)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2">
+        <f>(D2/5148714)*100000</f>
+        <v>3.8844651305160863E-2</v>
+      </c>
+      <c r="G2">
+        <f>SUM('Daily Data'!E2:E5)</f>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <f>(G2/5148714)*100000</f>
+        <v>9.7111628262902164E-2</v>
+      </c>
+      <c r="I2" s="13">
+        <f>D2/G2</f>
+        <v>0.4</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2">
+        <f>SUM('Daily Data'!I2:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>SUM('Daily Data'!J2:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>D2</f>
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <f>G2</f>
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <f>K2</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>SUM('Daily Data'!N2:N5)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4">
@@ -32991,6 +34693,52 @@
       <c r="C3" s="6">
         <v>43904</v>
       </c>
+      <c r="D3">
+        <f>SUM('Daily Data'!B6:B12)</f>
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3">
+        <f t="shared" ref="F3:F37" si="0">(D3/5148714)*100000</f>
+        <v>0.21364558217838472</v>
+      </c>
+      <c r="G3">
+        <f>SUM('Daily Data'!E6:E12)</f>
+        <v>113</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H37" si="1">(G3/5148714)*100000</f>
+        <v>2.1947227987415889</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I37" si="2">D3/G3</f>
+        <v>9.7345132743362831E-2</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3">
+        <f>SUM('Daily Data'!I6:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>SUM('Daily Data'!J6:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>M2+D3</f>
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <f>N2+G3</f>
+        <v>118</v>
+      </c>
+      <c r="O3">
+        <f>O2+K3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>SUM('Daily Data'!N6:N12)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4">
@@ -33002,6 +34750,52 @@
       <c r="C4" s="6">
         <v>43911</v>
       </c>
+      <c r="D4">
+        <f>SUM('Daily Data'!B13:B19)</f>
+        <v>139</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.6997032657086799</v>
+      </c>
+      <c r="G4">
+        <f>SUM('Daily Data'!E13:E19)</f>
+        <v>1284</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>24.938266137913274</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10825545171339564</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4">
+        <f>SUM('Daily Data'!I13:I19)</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>SUM('Daily Data'!J13:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M37" si="3">M3+D4</f>
+        <v>152</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N37" si="4">N3+G4</f>
+        <v>1402</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O37" si="5">O3+K4</f>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f>SUM('Daily Data'!N13:N19)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4">
@@ -33013,6 +34807,58 @@
       <c r="C5" s="6">
         <v>43918</v>
       </c>
+      <c r="D5">
+        <f>SUM('Daily Data'!B20:B26)</f>
+        <v>387</v>
+      </c>
+      <c r="E5">
+        <f>AVERAGE(D2:D5)</f>
+        <v>134.75</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>7.5164400275486276</v>
+      </c>
+      <c r="G5">
+        <f>SUM('Daily Data'!E20:E26)</f>
+        <v>1540</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>29.910381504973863</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="2"/>
+        <v>0.2512987012987013</v>
+      </c>
+      <c r="J5" s="12">
+        <f>AVERAGE(I2:I5)</f>
+        <v>0.21422482143886495</v>
+      </c>
+      <c r="K5">
+        <f>SUM('Daily Data'!I20:I26)</f>
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <f>SUM('Daily Data'!J20:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>539</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>2942</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <f>SUM('Daily Data'!N20:N26)</f>
+        <v>408</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="4">
@@ -33024,6 +34870,58 @@
       <c r="C6" s="6">
         <v>43925</v>
       </c>
+      <c r="D6">
+        <f>SUM('Daily Data'!B27:B33)</f>
+        <v>1378</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E37" si="6">AVERAGE(D3:D6)</f>
+        <v>478.75</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>26.763964749255834</v>
+      </c>
+      <c r="G6">
+        <f>SUM('Daily Data'!E27:E33)</f>
+        <v>15367</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>298.46287830320347</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="2"/>
+        <v>8.9672675213119016E-2</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" ref="J6:J37" si="7">AVERAGE(I3:I6)</f>
+        <v>0.13664299024214471</v>
+      </c>
+      <c r="K6">
+        <f>SUM('Daily Data'!I27:I33)</f>
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <f>SUM('Daily Data'!J27:J33)</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>1917</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>18309</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="P6">
+        <f>SUM('Daily Data'!N27:N33)</f>
+        <v>1131</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4">
@@ -33035,6 +34933,58 @@
       <c r="C7" s="6">
         <v>43932</v>
       </c>
+      <c r="D7">
+        <f>SUM('Daily Data'!B34:B40)</f>
+        <v>1290</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="6"/>
+        <v>798.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>25.054800091828753</v>
+      </c>
+      <c r="G7">
+        <f>SUM('Daily Data'!E34:E40)</f>
+        <v>11779</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>228.7755738617449</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1095169369216402</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="7"/>
+        <v>0.13968594128671402</v>
+      </c>
+      <c r="K7">
+        <f>SUM('Daily Data'!I34:I40)</f>
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <f>SUM('Daily Data'!J34:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>3207</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>30088</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <f>SUM('Daily Data'!N34:N40)</f>
+        <v>2197</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4">
@@ -33046,6 +34996,58 @@
       <c r="C8" s="6">
         <v>43939</v>
       </c>
+      <c r="D8">
+        <f>SUM('Daily Data'!B41:B47)</f>
+        <v>1039</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="6"/>
+        <v>1023.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>20.179796353031065</v>
+      </c>
+      <c r="G8">
+        <f>SUM('Daily Data'!E41:E47)</f>
+        <v>8740</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>169.75112620355296</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="2"/>
+        <v>0.11887871853546911</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="7"/>
+        <v>0.14234175799223242</v>
+      </c>
+      <c r="K8">
+        <f>SUM('Daily Data'!I41:I47)</f>
+        <v>39</v>
+      </c>
+      <c r="L8">
+        <f>SUM('Daily Data'!J41:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>4246</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>38828</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="P8">
+        <f>SUM('Daily Data'!N41:N47)</f>
+        <v>4468</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4">
@@ -33057,6 +35059,58 @@
       <c r="C9" s="6">
         <v>43946</v>
       </c>
+      <c r="D9">
+        <f>SUM('Daily Data'!B48:B54)</f>
+        <v>1007</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="6"/>
+        <v>1178.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>19.558281932148496</v>
+      </c>
+      <c r="G9">
+        <f>SUM('Daily Data'!E48:E54)</f>
+        <v>10181</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>197.73869746892137</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="2"/>
+        <v>9.8909733817896084E-2</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="7"/>
+        <v>0.1042445161220311</v>
+      </c>
+      <c r="K9">
+        <f>SUM('Daily Data'!I48:I54)</f>
+        <v>47</v>
+      </c>
+      <c r="L9">
+        <f>SUM('Daily Data'!J48:J54)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>5253</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>49009</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+      <c r="P9">
+        <f>SUM('Daily Data'!N48:N54)</f>
+        <v>5783</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4">
@@ -33068,6 +35122,58 @@
       <c r="C10" s="6">
         <v>43953</v>
       </c>
+      <c r="D10">
+        <f>SUM('Daily Data'!B55:B61)</f>
+        <v>1236</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>1143</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>24.005994506589413</v>
+      </c>
+      <c r="G10">
+        <f>SUM('Daily Data'!E55:E61)</f>
+        <v>12602</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>244.7601478738186</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="2"/>
+        <v>9.8079669893667676E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <f t="shared" si="7"/>
+        <v>0.10634626479216827</v>
+      </c>
+      <c r="K10">
+        <f>SUM('Daily Data'!I55:I61)</f>
+        <v>101</v>
+      </c>
+      <c r="L10">
+        <f>SUM('Daily Data'!J55:J61)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>6489</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>61611</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>267</v>
+      </c>
+      <c r="P10">
+        <f>SUM('Daily Data'!N55:N61)</f>
+        <v>7052</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4">
@@ -33079,6 +35185,58 @@
       <c r="C11" s="6">
         <v>43960</v>
       </c>
+      <c r="D11">
+        <f>SUM('Daily Data'!B62:B68)</f>
+        <v>1042</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>1081</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>20.238063329988808</v>
+      </c>
+      <c r="G11">
+        <f>SUM('Daily Data'!E62:E68)</f>
+        <v>19347</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>375.7637344004736</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="2"/>
+        <v>5.3858479350803741E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <f t="shared" si="7"/>
+        <v>9.243165039945915E-2</v>
+      </c>
+      <c r="K11">
+        <f>SUM('Daily Data'!I62:I68)</f>
+        <v>63</v>
+      </c>
+      <c r="L11">
+        <f>SUM('Daily Data'!J62:J68)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>7531</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>80958</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="P11">
+        <f>SUM('Daily Data'!N62:N68)</f>
+        <v>8038</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4">
@@ -33090,6 +35248,58 @@
       <c r="C12" s="6">
         <v>43967</v>
       </c>
+      <c r="D12">
+        <f>SUM('Daily Data'!B69:B75)</f>
+        <v>876</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="6"/>
+        <v>1040.25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>17.013957271660455</v>
+      </c>
+      <c r="G12">
+        <f>SUM('Daily Data'!E69:E75)</f>
+        <v>28653</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>556.50789692338708</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="2"/>
+        <v>3.057271489896346E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="7"/>
+        <v>7.0355149490332738E-2</v>
+      </c>
+      <c r="K12">
+        <f>SUM('Daily Data'!I69:I75)</f>
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <f>SUM('Daily Data'!J69:J75)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>8407</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>109611</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>380</v>
+      </c>
+      <c r="P12">
+        <f>SUM('Daily Data'!N69:N75)</f>
+        <v>9360</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="4">
@@ -33101,6 +35311,58 @@
       <c r="C13" s="6">
         <v>43974</v>
       </c>
+      <c r="D13">
+        <f>SUM('Daily Data'!B76:B82)</f>
+        <v>1488</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="6"/>
+        <v>1160.5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>28.900420571039685</v>
+      </c>
+      <c r="G13">
+        <f>SUM('Daily Data'!E76:E82)</f>
+        <v>49294</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>957.40412071829985</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="2"/>
+        <v>3.0186229561407069E-2</v>
+      </c>
+      <c r="J13" s="12">
+        <f t="shared" si="7"/>
+        <v>5.3174273426210485E-2</v>
+      </c>
+      <c r="K13">
+        <f>SUM('Daily Data'!I76:I82)</f>
+        <v>45</v>
+      </c>
+      <c r="L13">
+        <f>SUM('Daily Data'!J76:J82)</f>
+        <v>1273</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>9895</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>158905</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>425</v>
+      </c>
+      <c r="P13">
+        <f>SUM('Daily Data'!N76:N82)</f>
+        <v>10242</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4">
@@ -33112,6 +35374,58 @@
       <c r="C14" s="6">
         <v>43981</v>
       </c>
+      <c r="D14">
+        <f>SUM('Daily Data'!B83:B89)</f>
+        <v>1499</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>1226.25</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>29.114066153218065</v>
+      </c>
+      <c r="G14">
+        <f>SUM('Daily Data'!E83:E89)</f>
+        <v>30609</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>594.49796589983441</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="2"/>
+        <v>4.8972524420921953E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" si="7"/>
+        <v>4.0897487058024054E-2</v>
+      </c>
+      <c r="K14">
+        <f>SUM('Daily Data'!I83:I89)</f>
+        <v>62</v>
+      </c>
+      <c r="L14">
+        <f>SUM('Daily Data'!J83:J89)</f>
+        <v>2882</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>11394</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>189514</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>487</v>
+      </c>
+      <c r="P14">
+        <f>SUM('Daily Data'!N83:N89)</f>
+        <v>11190</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4">
@@ -33123,6 +35437,58 @@
       <c r="C15" s="6">
         <v>43988</v>
       </c>
+      <c r="D15">
+        <f>SUM('Daily Data'!B90:B96)</f>
+        <v>2522</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>1596.25</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>48.983105295807846</v>
+      </c>
+      <c r="G15">
+        <f>SUM('Daily Data'!E90:E96)</f>
+        <v>43225</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>839.53002633278902</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="2"/>
+        <v>5.8345864661654138E-2</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="7"/>
+        <v>4.2019333385736657E-2</v>
+      </c>
+      <c r="K15">
+        <f>SUM('Daily Data'!I90:I96)</f>
+        <v>58</v>
+      </c>
+      <c r="L15">
+        <f>SUM('Daily Data'!J90:J96)</f>
+        <v>3069</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>13916</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>232739</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>545</v>
+      </c>
+      <c r="P15">
+        <f>SUM('Daily Data'!N90:N96)</f>
+        <v>12263</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="4">
@@ -33134,8 +35500,60 @@
       <c r="C16" s="6">
         <v>43995</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <f>SUM('Daily Data'!B97:B103)</f>
+        <v>4039</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>2387</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>78.446773310772357</v>
+      </c>
+      <c r="G16">
+        <f>SUM('Daily Data'!E97:E103)</f>
+        <v>9162</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>177.94734762894191</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="2"/>
+        <v>0.44084261078367171</v>
+      </c>
+      <c r="J16" s="12">
+        <f t="shared" si="7"/>
+        <v>0.1445868073569137</v>
+      </c>
+      <c r="K16">
+        <f>SUM('Daily Data'!I97:I103)</f>
+        <v>54</v>
+      </c>
+      <c r="L16">
+        <f>SUM('Daily Data'!J97:J103)</f>
+        <v>3567</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>17955</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>241901</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>599</v>
+      </c>
+      <c r="P16">
+        <f>SUM('Daily Data'!N97:N103)</f>
+        <v>13298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4">
         <v>43996</v>
       </c>
@@ -33145,8 +35563,60 @@
       <c r="C17" s="6">
         <v>44002</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <f>SUM('Daily Data'!B104:B110)</f>
+        <v>5831</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>3472.75</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>113.2515808801965</v>
+      </c>
+      <c r="G17">
+        <f>SUM('Daily Data'!E104:E110)</f>
+        <v>54343</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1055.4674429381785</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10729992823362715</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="7"/>
+        <v>0.16386523202496872</v>
+      </c>
+      <c r="K17">
+        <f>SUM('Daily Data'!I104:I110)</f>
+        <v>45</v>
+      </c>
+      <c r="L17">
+        <f>SUM('Daily Data'!J104:J110)</f>
+        <v>4194</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>23786</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>296244</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>644</v>
+      </c>
+      <c r="P17">
+        <f>SUM('Daily Data'!N104:N110)</f>
+        <v>14729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="4">
         <v>44003</v>
       </c>
@@ -33156,8 +35626,60 @@
       <c r="C18" s="6">
         <v>44009</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <f>SUM('Daily Data'!B111:B117)</f>
+        <v>8153</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>5136.25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>158.35022104548827</v>
+      </c>
+      <c r="G18">
+        <f>SUM('Daily Data'!E111:E117)</f>
+        <v>54915</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>1066.5770132114544</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="2"/>
+        <v>0.14846581079850679</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="7"/>
+        <v>0.18873855361936492</v>
+      </c>
+      <c r="K18">
+        <f>SUM('Daily Data'!I111:I117)</f>
+        <v>67</v>
+      </c>
+      <c r="L18">
+        <f>SUM('Daily Data'!J111:J117)</f>
+        <v>5774</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>31939</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>351159</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>711</v>
+      </c>
+      <c r="P18">
+        <f>SUM('Daily Data'!N111:N117)</f>
+        <v>16963</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="4">
         <v>44010</v>
       </c>
@@ -33167,8 +35689,60 @@
       <c r="C19" s="6">
         <v>44016</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f>SUM('Daily Data'!B118:B124)</f>
+        <v>11447</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>7367.5</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>222.32736174508821</v>
+      </c>
+      <c r="G19">
+        <f>SUM('Daily Data'!E118:E124)</f>
+        <v>69529</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1350.4148802982647</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="2"/>
+        <v>0.16463633879388456</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="7"/>
+        <v>0.21531117215242251</v>
+      </c>
+      <c r="K19">
+        <f>SUM('Daily Data'!I118:I124)</f>
+        <v>102</v>
+      </c>
+      <c r="L19">
+        <f>SUM('Daily Data'!J118:J124)</f>
+        <v>7630</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>43386</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>420688</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>813</v>
+      </c>
+      <c r="P19">
+        <f>SUM('Daily Data'!N118:N124)</f>
+        <v>19570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="4">
         <v>44017</v>
       </c>
@@ -33178,8 +35752,60 @@
       <c r="C20" s="6">
         <v>44023</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f>SUM('Daily Data'!B125:B131)</f>
+        <v>11313</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>9186</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>219.72477010764243</v>
+      </c>
+      <c r="G20">
+        <f>SUM('Daily Data'!E125:E131)</f>
+        <v>67397</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>1309.0064820069633</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1678561360297936</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="7"/>
+        <v>0.14706455346395303</v>
+      </c>
+      <c r="K20">
+        <f>SUM('Daily Data'!I125:I131)</f>
+        <v>138</v>
+      </c>
+      <c r="L20">
+        <f>SUM('Daily Data'!J125:J131)</f>
+        <v>9506</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>54699</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>488085</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>951</v>
+      </c>
+      <c r="P20">
+        <f>SUM('Daily Data'!N125:N131)</f>
+        <v>21830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="4">
         <v>44024</v>
       </c>
@@ -33189,8 +35815,60 @@
       <c r="C21" s="6">
         <v>44030</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f>SUM('Daily Data'!B132:B138)</f>
+        <v>12913</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>10956.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>250.8004911517711</v>
+      </c>
+      <c r="G21">
+        <f>SUM('Daily Data'!E132:E138)</f>
+        <v>73903</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1435.3681327026516</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="2"/>
+        <v>0.17472903671028239</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="7"/>
+        <v>0.16392183058311682</v>
+      </c>
+      <c r="K21">
+        <f>SUM('Daily Data'!I132:I138)</f>
+        <v>184</v>
+      </c>
+      <c r="L21">
+        <f>SUM('Daily Data'!J132:J138)</f>
+        <v>10834</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>67612</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>561988</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>1135</v>
+      </c>
+      <c r="P21">
+        <f>SUM('Daily Data'!N132:N138)</f>
+        <v>26392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="4">
         <v>44031</v>
       </c>
@@ -33200,8 +35878,60 @@
       <c r="C22" s="6">
         <v>44037</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f>SUM('Daily Data'!B139:B145)</f>
+        <v>12396</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="6"/>
+        <v>12017.25</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>240.75914878938701</v>
+      </c>
+      <c r="G22">
+        <f>SUM('Daily Data'!E139:E145)</f>
+        <v>76497</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>1485.7496454454454</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="2"/>
+        <v>0.16204557041452605</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="7"/>
+        <v>0.16731677048712165</v>
+      </c>
+      <c r="K22">
+        <f>SUM('Daily Data'!I139:I145)</f>
+        <v>330</v>
+      </c>
+      <c r="L22">
+        <f>SUM('Daily Data'!J139:J145)</f>
+        <v>11445</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>80008</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>638485</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>1465</v>
+      </c>
+      <c r="P22">
+        <f>SUM('Daily Data'!N139:N145)</f>
+        <v>31512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="4">
         <v>44038</v>
       </c>
@@ -33211,8 +35941,60 @@
       <c r="C23" s="6">
         <v>44044</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f>SUM('Daily Data'!B146:B152)</f>
+        <v>10591</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="6"/>
+        <v>11803.25</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>205.70185098647934</v>
+      </c>
+      <c r="G23">
+        <f>SUM('Daily Data'!E146:E152)</f>
+        <v>73379</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>1425.1908340606994</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="2"/>
+        <v>0.14433284727238038</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="7"/>
+        <v>0.16224089760674559</v>
+      </c>
+      <c r="K23">
+        <f>SUM('Daily Data'!I146:I152)</f>
+        <v>286</v>
+      </c>
+      <c r="L23">
+        <f>SUM('Daily Data'!J146:J152)</f>
+        <v>11039</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>90599</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>711864</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>1751</v>
+      </c>
+      <c r="P23">
+        <f>SUM('Daily Data'!N146:N152)</f>
+        <v>35649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="4">
         <v>44045</v>
       </c>
@@ -33222,8 +36004,60 @@
       <c r="C24" s="6">
         <v>44051</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f>SUM('Daily Data'!B153:B159)</f>
+        <v>8861</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="6"/>
+        <v>11190.25</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>172.1012276075152</v>
+      </c>
+      <c r="G24">
+        <f>SUM('Daily Data'!E153:E159)</f>
+        <v>66206</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>1285.87449215474</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1338398332477419</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="7"/>
+        <v>0.15373682191123267</v>
+      </c>
+      <c r="K24">
+        <f>SUM('Daily Data'!I153:I159)</f>
+        <v>256</v>
+      </c>
+      <c r="L24">
+        <f>SUM('Daily Data'!J153:J159)</f>
+        <v>10064</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>99460</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>778070</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>2007</v>
+      </c>
+      <c r="P24">
+        <f>SUM('Daily Data'!N153:N159)</f>
+        <v>40757</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="4">
         <v>44052</v>
       </c>
@@ -33233,8 +36067,60 @@
       <c r="C25" s="6">
         <v>44058</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f>SUM('Daily Data'!B160:B166)</f>
+        <v>6422</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="6"/>
+        <v>9567.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>124.73017534087154</v>
+      </c>
+      <c r="G25">
+        <f>SUM('Daily Data'!E160:E166)</f>
+        <v>82325</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1598.9429593486839</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="2"/>
+        <v>7.800789553598543E-2</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="7"/>
+        <v>0.12955653661765845</v>
+      </c>
+      <c r="K25">
+        <f>SUM('Daily Data'!I160:I166)</f>
+        <v>253</v>
+      </c>
+      <c r="L25">
+        <f>SUM('Daily Data'!J160:J166)</f>
+        <v>9291</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>105882</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>860395</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>2260</v>
+      </c>
+      <c r="P25">
+        <f>SUM('Daily Data'!N160:N166)</f>
+        <v>45456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="4">
         <v>44059</v>
       </c>
@@ -33244,8 +36130,60 @@
       <c r="C26" s="6">
         <v>44065</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f>SUM('Daily Data'!B167:B173)</f>
+        <v>5413</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="6"/>
+        <v>7821.75</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>105.13304875741788</v>
+      </c>
+      <c r="G26">
+        <f>SUM('Daily Data'!E167:E173)</f>
+        <v>51732</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1004.7557506592908</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10463542874816362</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="7"/>
+        <v>0.11520400120106783</v>
+      </c>
+      <c r="K26">
+        <f>SUM('Daily Data'!I167:I173)</f>
+        <v>233</v>
+      </c>
+      <c r="L26">
+        <f>SUM('Daily Data'!J167:J173)</f>
+        <v>7758</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>111295</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>912127</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>2493</v>
+      </c>
+      <c r="P26">
+        <f>SUM('Daily Data'!N167:N173)</f>
+        <v>50020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="4">
         <v>44066</v>
       </c>
@@ -33255,8 +36193,60 @@
       <c r="C27" s="6">
         <v>44072</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <f>SUM('Daily Data'!B174:B180)</f>
+        <v>5954</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="6"/>
+        <v>6662.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>115.64052693546387</v>
+      </c>
+      <c r="G27">
+        <f>SUM('Daily Data'!E174:E180)</f>
+        <v>23491</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>456.24985190476696</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="2"/>
+        <v>0.25345877144438295</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="7"/>
+        <v>0.14248548224406848</v>
+      </c>
+      <c r="K27">
+        <f>SUM('Daily Data'!I174:I180)</f>
+        <v>205</v>
+      </c>
+      <c r="L27">
+        <f>SUM('Daily Data'!J174:J180)</f>
+        <v>7018</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>117249</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>935618</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>2698</v>
+      </c>
+      <c r="P27">
+        <f>SUM('Daily Data'!N174:N180)</f>
+        <v>53035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="4">
         <v>44073</v>
       </c>
@@ -33266,8 +36256,60 @@
       <c r="C28" s="6">
         <v>44079</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <f>SUM('Daily Data'!B181:B187)</f>
+        <v>7040</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>6207.25</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>136.73317259416623</v>
+      </c>
+      <c r="G28">
+        <f>SUM('Daily Data'!E181:E187)</f>
+        <v>58304</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>1132.3992748480493</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12074643249176729</v>
+      </c>
+      <c r="J28" s="12">
+        <f t="shared" si="7"/>
+        <v>0.13921213205507482</v>
+      </c>
+      <c r="K28">
+        <f>SUM('Daily Data'!I181:I187)</f>
+        <v>179</v>
+      </c>
+      <c r="L28">
+        <f>SUM('Daily Data'!J181:J187)</f>
+        <v>6342</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>124289</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>993922</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>2877</v>
+      </c>
+      <c r="P28">
+        <f>SUM('Daily Data'!N181:N187)</f>
+        <v>55623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="4">
         <v>44080</v>
       </c>
@@ -33277,8 +36319,60 @@
       <c r="C29" s="6">
         <v>44086</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <f>SUM('Daily Data'!B188:B194)</f>
+        <v>5689</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="6"/>
+        <v>6024</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>110.49361063753007</v>
+      </c>
+      <c r="G29">
+        <f>SUM('Daily Data'!E188:E194)</f>
+        <v>60945</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>1183.6936368965144</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="2"/>
+        <v>9.3346459922881292E-2</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="7"/>
+        <v>0.14304677315179878</v>
+      </c>
+      <c r="K29">
+        <f>SUM('Daily Data'!I188:I194)</f>
+        <v>163</v>
+      </c>
+      <c r="L29">
+        <f>SUM('Daily Data'!J188:J194)</f>
+        <v>5605</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>129978</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>1054867</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>3040</v>
+      </c>
+      <c r="P29">
+        <f>SUM('Daily Data'!N188:N194)</f>
+        <v>57783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="4">
         <v>44087</v>
       </c>
@@ -33288,8 +36382,60 @@
       <c r="C30" s="6">
         <v>44093</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <f>SUM('Daily Data'!B195:B201)</f>
+        <v>7262</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="6"/>
+        <v>6486.25</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>141.04492888903908</v>
+      </c>
+      <c r="G30">
+        <f>SUM('Daily Data'!E195:E201)</f>
+        <v>68393</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>1328.3511183569335</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" si="2"/>
+        <v>0.10618045706431944</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="7"/>
+        <v>0.14343303023083775</v>
+      </c>
+      <c r="K30">
+        <f>SUM('Daily Data'!I195:I201)</f>
+        <v>148</v>
+      </c>
+      <c r="L30">
+        <f>SUM('Daily Data'!J195:J201)</f>
+        <v>5371</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>137240</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>1123260</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>3188</v>
+      </c>
+      <c r="P30">
+        <f>SUM('Daily Data'!N195:N201)</f>
+        <v>59916</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="4">
         <v>44094</v>
       </c>
@@ -33299,8 +36445,60 @@
       <c r="C31" s="6">
         <v>44100</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <f>SUM('Daily Data'!B202:B208)</f>
+        <v>8033</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="6"/>
+        <v>7006</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>156.01954196717858</v>
+      </c>
+      <c r="G31">
+        <f>SUM('Daily Data'!E202:E208)</f>
+        <v>119532</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>2321.5894299042443</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="2"/>
+        <v>6.7203761335876591E-2</v>
+      </c>
+      <c r="J31" s="12">
+        <f t="shared" si="7"/>
+        <v>9.6869277703711149E-2</v>
+      </c>
+      <c r="K31">
+        <f>SUM('Daily Data'!I202:I208)</f>
+        <v>135</v>
+      </c>
+      <c r="L31">
+        <f>SUM('Daily Data'!J202:J208)</f>
+        <v>5355</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>145273</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>1242792</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>3323</v>
+      </c>
+      <c r="P31">
+        <f>SUM('Daily Data'!N202:N208)</f>
+        <v>62241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="4">
         <v>44101</v>
       </c>
@@ -33310,8 +36508,60 @@
       <c r="C32" s="6">
         <v>44107</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32">
+        <f>SUM('Daily Data'!B209:B215)</f>
+        <v>5618</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="6"/>
+        <v>6650.5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>109.11462551619687</v>
+      </c>
+      <c r="G32">
+        <f>SUM('Daily Data'!E209:E215)</f>
+        <v>96961</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>1883.2081175998512</v>
+      </c>
+      <c r="I32" s="13">
+        <f t="shared" si="2"/>
+        <v>5.7940821567434332E-2</v>
+      </c>
+      <c r="J32" s="12">
+        <f t="shared" si="7"/>
+        <v>8.1167874972627924E-2</v>
+      </c>
+      <c r="K32">
+        <f>SUM('Daily Data'!I209:I215)</f>
+        <v>119</v>
+      </c>
+      <c r="L32">
+        <f>SUM('Daily Data'!J209:J215)</f>
+        <v>4980</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>150891</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>1339753</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>3442</v>
+      </c>
+      <c r="P32">
+        <f>SUM('Daily Data'!N209:N215)</f>
+        <v>63965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="4">
         <v>44108</v>
       </c>
@@ -33321,8 +36571,60 @@
       <c r="C33" s="6">
         <v>44114</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f>SUM('Daily Data'!B216:B222)</f>
+        <v>5730</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="6"/>
+        <v>6660.75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>111.28992598928586</v>
+      </c>
+      <c r="G33">
+        <f>SUM('Daily Data'!E216:E222)</f>
+        <v>130553</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>2535.642880921333</v>
+      </c>
+      <c r="I33" s="13">
+        <f t="shared" si="2"/>
+        <v>4.389022082985454E-2</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" si="7"/>
+        <v>6.8803815199371218E-2</v>
+      </c>
+      <c r="K33">
+        <f>SUM('Daily Data'!I216:I222)</f>
+        <v>109</v>
+      </c>
+      <c r="L33">
+        <f>SUM('Daily Data'!J216:J222)</f>
+        <v>4746</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>156621</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>1470306</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="5"/>
+        <v>3551</v>
+      </c>
+      <c r="P33">
+        <f>SUM('Daily Data'!N216:N222)</f>
+        <v>65820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="4">
         <v>44115</v>
       </c>
@@ -33332,8 +36634,60 @@
       <c r="C34" s="6">
         <v>44121</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f>SUM('Daily Data'!B223:B229)</f>
+        <v>6593</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>6493.5</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>128.05139302746278</v>
+      </c>
+      <c r="G34">
+        <f>SUM('Daily Data'!E223:E229)</f>
+        <v>114740</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>2228.5176453770787</v>
+      </c>
+      <c r="I34" s="13">
+        <f t="shared" si="2"/>
+        <v>5.7460345128115743E-2</v>
+      </c>
+      <c r="J34" s="12">
+        <f t="shared" si="7"/>
+        <v>5.6623787215320305E-2</v>
+      </c>
+      <c r="K34">
+        <f>SUM('Daily Data'!I223:I229)</f>
+        <v>86</v>
+      </c>
+      <c r="L34">
+        <f>SUM('Daily Data'!J223:J229)</f>
+        <v>5196</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>163214</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>1585046</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="5"/>
+        <v>3637</v>
+      </c>
+      <c r="P34">
+        <f>SUM('Daily Data'!N223:N229)</f>
+        <v>68136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="4">
         <v>44122</v>
       </c>
@@ -33343,8 +36697,60 @@
       <c r="C35" s="6">
         <v>44128</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f>SUM('Daily Data'!B230:B236)</f>
+        <v>6127</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>6017</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>119.0005892733603</v>
+      </c>
+      <c r="G35">
+        <f>SUM('Daily Data'!E230:E236)</f>
+        <v>94033</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>1826.3395480890956</v>
+      </c>
+      <c r="I35" s="13">
+        <f t="shared" si="2"/>
+        <v>6.5157976455074276E-2</v>
+      </c>
+      <c r="J35" s="12">
+        <f t="shared" si="7"/>
+        <v>5.6112340995119719E-2</v>
+      </c>
+      <c r="K35">
+        <f>SUM('Daily Data'!I230:I236)</f>
+        <v>156</v>
+      </c>
+      <c r="L35">
+        <f>SUM('Daily Data'!J230:J236)</f>
+        <v>5080</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>169341</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>1679079</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="5"/>
+        <v>3793</v>
+      </c>
+      <c r="P35">
+        <f>SUM('Daily Data'!N230:N236)</f>
+        <v>70463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="4">
         <v>44129</v>
       </c>
@@ -33354,8 +36760,60 @@
       <c r="C36" s="6">
         <v>44135</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f>SUM('Daily Data'!B237:B243)</f>
+        <v>7271</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>6430.25</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>141.21972981991232</v>
+      </c>
+      <c r="G36">
+        <f>SUM('Daily Data'!E237:E243)</f>
+        <v>122966</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>2388.2856961952052</v>
+      </c>
+      <c r="I36" s="13">
+        <f t="shared" si="2"/>
+        <v>5.9130166062163522E-2</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="7"/>
+        <v>5.6409677118802029E-2</v>
+      </c>
+      <c r="K36">
+        <f>SUM('Daily Data'!I237:I243)</f>
+        <v>142</v>
+      </c>
+      <c r="L36">
+        <f>SUM('Daily Data'!J237:J243)</f>
+        <v>5384</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>176612</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>1802045</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="5"/>
+        <v>3935</v>
+      </c>
+      <c r="P36">
+        <f>SUM('Daily Data'!N237:N243)</f>
+        <v>72447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="4">
         <v>44136</v>
       </c>
@@ -33365,8 +36823,60 @@
       <c r="C37" s="6">
         <v>44142</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f>SUM('Daily Data'!B244:B250)</f>
+        <v>8130</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>7030.25</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>157.90350755547891</v>
+      </c>
+      <c r="G37">
+        <f>SUM('Daily Data'!E244:E250)</f>
+        <v>142878</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>2775.0230445893867</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" si="2"/>
+        <v>5.6901692352916478E-2</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="7"/>
+        <v>5.966254499956751E-2</v>
+      </c>
+      <c r="K37">
+        <f>SUM('Daily Data'!I244:I250)</f>
+        <v>80</v>
+      </c>
+      <c r="L37">
+        <f>SUM('Daily Data'!J244:J250)</f>
+        <v>5304</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>184742</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>1944923</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="5"/>
+        <v>4015</v>
+      </c>
+      <c r="P37">
+        <f>SUM('Daily Data'!N244:N250)</f>
+        <v>74638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="4">
         <v>44143</v>
       </c>
@@ -33377,7 +36887,7 @@
         <v>44149</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:16">
       <c r="A39" s="4">
         <v>44150</v>
       </c>
@@ -33388,7 +36898,7 @@
         <v>44156</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:16">
       <c r="A40" s="4">
         <v>44157</v>
       </c>
@@ -33399,7 +36909,7 @@
         <v>44163</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:16">
       <c r="A41" s="4">
         <v>44164</v>
       </c>
@@ -33410,7 +36920,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:16">
       <c r="A42" s="4">
         <v>44171</v>
       </c>
@@ -33421,7 +36931,7 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:16">
       <c r="A43" s="4">
         <v>44178</v>
       </c>
@@ -33432,7 +36942,7 @@
         <v>44184</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:16">
       <c r="A44" s="4">
         <v>44185</v>
       </c>
@@ -33443,7 +36953,7 @@
         <v>44191</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:16">
       <c r="A45" s="4">
         <v>44192</v>
       </c>
@@ -33456,6 +36966,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="P2:P36 L2:L36 K2:K36 G2:G36 D2:D36" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -33463,7 +36976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CEBAE4-8D4D-7847-89C2-8E60DAA1E98A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>

--- a/southCarolina.xlsx
+++ b/southCarolina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D281CBE6-394C-7F48-A27C-A476D2729564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB035E0-A457-3243-9B18-CF6161134E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="68">
   <si>
     <t>date</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>deathIncrease</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -34552,31 +34555,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" customWidth="1"/>
-    <col min="16" max="16" width="24.1640625" customWidth="1"/>
+    <col min="3" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" customWidth="1"/>
+    <col min="17" max="17" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -34587,46 +34590,49 @@
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="4">
         <v>43891</v>
       </c>
@@ -34636,54 +34642,57 @@
       <c r="C2" s="6">
         <v>43897</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
         <f>SUM('Daily Data'!B2:B5)</f>
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2">
-        <f>(D2/5148714)*100000</f>
+      <c r="F2" s="7"/>
+      <c r="G2">
+        <f>(E2/5148714)*100000</f>
         <v>3.8844651305160863E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>SUM('Daily Data'!E2:E5)</f>
         <v>5</v>
       </c>
-      <c r="H2">
-        <f>(G2/5148714)*100000</f>
+      <c r="I2">
+        <f>(H2/5148714)*100000</f>
         <v>9.7111628262902164E-2</v>
       </c>
-      <c r="I2" s="13">
-        <f>D2/G2</f>
+      <c r="J2" s="13">
+        <f>E2/H2</f>
         <v>0.4</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2">
+      <c r="K2" s="7"/>
+      <c r="L2">
         <f>SUM('Daily Data'!I2:I5)</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>SUM('Daily Data'!J2:J5)</f>
         <v>0</v>
       </c>
-      <c r="M2">
-        <f>D2</f>
+      <c r="N2">
+        <f>E2</f>
         <v>2</v>
       </c>
-      <c r="N2">
-        <f>G2</f>
+      <c r="O2">
+        <f>H2</f>
         <v>5</v>
       </c>
-      <c r="O2">
-        <f>K2</f>
-        <v>0</v>
-      </c>
       <c r="P2">
+        <f>L2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <f>SUM('Daily Data'!N2:N5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="4">
         <v>43898</v>
       </c>
@@ -34693,54 +34702,57 @@
       <c r="C3" s="6">
         <v>43904</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
         <f>SUM('Daily Data'!B6:B12)</f>
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3">
-        <f t="shared" ref="F3:F37" si="0">(D3/5148714)*100000</f>
+      <c r="F3" s="7"/>
+      <c r="G3">
+        <f t="shared" ref="G3:G37" si="0">(E3/5148714)*100000</f>
         <v>0.21364558217838472</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>SUM('Daily Data'!E6:E12)</f>
         <v>113</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H37" si="1">(G3/5148714)*100000</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I37" si="1">(H3/5148714)*100000</f>
         <v>2.1947227987415889</v>
       </c>
-      <c r="I3" s="13">
-        <f t="shared" ref="I3:I37" si="2">D3/G3</f>
+      <c r="J3" s="13">
+        <f t="shared" ref="J3:J37" si="2">E3/H3</f>
         <v>9.7345132743362831E-2</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3">
+      <c r="K3" s="7"/>
+      <c r="L3">
         <f>SUM('Daily Data'!I6:I12)</f>
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <f>SUM('Daily Data'!J6:J12)</f>
         <v>0</v>
       </c>
-      <c r="M3">
-        <f>M2+D3</f>
+      <c r="N3">
+        <f>N2+E3</f>
         <v>13</v>
       </c>
-      <c r="N3">
-        <f>N2+G3</f>
+      <c r="O3">
+        <f>O2+H3</f>
         <v>118</v>
       </c>
-      <c r="O3">
-        <f>O2+K3</f>
-        <v>0</v>
-      </c>
       <c r="P3">
+        <f>P2+L3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <f>SUM('Daily Data'!N6:N12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="4">
         <v>43905</v>
       </c>
@@ -34750,54 +34762,57 @@
       <c r="C4" s="6">
         <v>43911</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
         <f>SUM('Daily Data'!B13:B19)</f>
         <v>139</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4">
+      <c r="F4" s="7"/>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>2.6997032657086799</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>SUM('Daily Data'!E13:E19)</f>
         <v>1284</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>24.938266137913274</v>
       </c>
-      <c r="I4" s="13">
+      <c r="J4" s="13">
         <f t="shared" si="2"/>
         <v>0.10825545171339564</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4">
+      <c r="K4" s="7"/>
+      <c r="L4">
         <f>SUM('Daily Data'!I13:I19)</f>
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f>SUM('Daily Data'!J13:J19)</f>
         <v>0</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M37" si="3">M3+D4</f>
+      <c r="N4">
+        <f t="shared" ref="N4:N37" si="3">N3+E4</f>
         <v>152</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N37" si="4">N3+G4</f>
+      <c r="O4">
+        <f t="shared" ref="O4:O37" si="4">O3+H4</f>
         <v>1402</v>
       </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O37" si="5">O3+K4</f>
+      <c r="P4">
+        <f t="shared" ref="P4:P37" si="5">P3+L4</f>
         <v>1</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <f>SUM('Daily Data'!N13:N19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="4">
         <v>43912</v>
       </c>
@@ -34807,60 +34822,63 @@
       <c r="C5" s="6">
         <v>43918</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
         <f>SUM('Daily Data'!B20:B26)</f>
         <v>387</v>
       </c>
-      <c r="E5">
-        <f>AVERAGE(D2:D5)</f>
+      <c r="F5">
+        <f>AVERAGE(E2:E5)</f>
         <v>134.75</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>7.5164400275486276</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f>SUM('Daily Data'!E20:E26)</f>
         <v>1540</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>29.910381504973863</v>
       </c>
-      <c r="I5" s="13">
+      <c r="J5" s="13">
         <f t="shared" si="2"/>
         <v>0.2512987012987013</v>
       </c>
-      <c r="J5" s="12">
-        <f>AVERAGE(I2:I5)</f>
+      <c r="K5" s="12">
+        <f>AVERAGE(J2:J5)</f>
         <v>0.21422482143886495</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <f>SUM('Daily Data'!I20:I26)</f>
         <v>12</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f>SUM('Daily Data'!J20:J26)</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="3"/>
         <v>539</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="4"/>
         <v>2942</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <f>SUM('Daily Data'!N20:N26)</f>
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="4">
         <v>43919</v>
       </c>
@@ -34870,60 +34888,63 @@
       <c r="C6" s="6">
         <v>43925</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
         <f>SUM('Daily Data'!B27:B33)</f>
         <v>1378</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E37" si="6">AVERAGE(D3:D6)</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F37" si="6">AVERAGE(E3:E6)</f>
         <v>478.75</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>26.763964749255834</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>SUM('Daily Data'!E27:E33)</f>
         <v>15367</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="1"/>
         <v>298.46287830320347</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J6" s="13">
         <f t="shared" si="2"/>
         <v>8.9672675213119016E-2</v>
       </c>
-      <c r="J6" s="12">
-        <f t="shared" ref="J6:J37" si="7">AVERAGE(I3:I6)</f>
+      <c r="K6" s="12">
+        <f t="shared" ref="K6:K37" si="7">AVERAGE(J3:J6)</f>
         <v>0.13664299024214471</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f>SUM('Daily Data'!I27:I33)</f>
         <v>27</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f>SUM('Daily Data'!J27:J33)</f>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="3"/>
         <v>1917</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="4"/>
         <v>18309</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f>SUM('Daily Data'!N27:N33)</f>
         <v>1131</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="4">
         <v>43926</v>
       </c>
@@ -34933,60 +34954,63 @@
       <c r="C7" s="6">
         <v>43932</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
         <f>SUM('Daily Data'!B34:B40)</f>
         <v>1290</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="6"/>
         <v>798.5</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>25.054800091828753</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>SUM('Daily Data'!E34:E40)</f>
         <v>11779</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="1"/>
         <v>228.7755738617449</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J7" s="13">
         <f t="shared" si="2"/>
         <v>0.1095169369216402</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <f t="shared" si="7"/>
         <v>0.13968594128671402</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f>SUM('Daily Data'!I34:I40)</f>
         <v>40</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f>SUM('Daily Data'!J34:J40)</f>
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="3"/>
         <v>3207</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="4"/>
         <v>30088</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f>SUM('Daily Data'!N34:N40)</f>
         <v>2197</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="4">
         <v>43933</v>
       </c>
@@ -34996,60 +35020,63 @@
       <c r="C8" s="6">
         <v>43939</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
         <f>SUM('Daily Data'!B41:B47)</f>
         <v>1039</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="6"/>
         <v>1023.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>20.179796353031065</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>SUM('Daily Data'!E41:E47)</f>
         <v>8740</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="1"/>
         <v>169.75112620355296</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>0.11887871853546911</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <f t="shared" si="7"/>
         <v>0.14234175799223242</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f>SUM('Daily Data'!I41:I47)</f>
         <v>39</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f>SUM('Daily Data'!J41:J47)</f>
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="3"/>
         <v>4246</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="4"/>
         <v>38828</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f>SUM('Daily Data'!N41:N47)</f>
         <v>4468</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="4">
         <v>43940</v>
       </c>
@@ -35059,60 +35086,63 @@
       <c r="C9" s="6">
         <v>43946</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9">
         <f>SUM('Daily Data'!B48:B54)</f>
         <v>1007</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="6"/>
         <v>1178.5</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>19.558281932148496</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>SUM('Daily Data'!E48:E54)</f>
         <v>10181</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>197.73869746892137</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J9" s="13">
         <f t="shared" si="2"/>
         <v>9.8909733817896084E-2</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="12">
         <f t="shared" si="7"/>
         <v>0.1042445161220311</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f>SUM('Daily Data'!I48:I54)</f>
         <v>47</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f>SUM('Daily Data'!J48:J54)</f>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="3"/>
         <v>5253</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="4"/>
         <v>49009</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f>SUM('Daily Data'!N48:N54)</f>
         <v>5783</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="4">
         <v>43947</v>
       </c>
@@ -35122,60 +35152,63 @@
       <c r="C10" s="6">
         <v>43953</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
         <f>SUM('Daily Data'!B55:B61)</f>
         <v>1236</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="6"/>
         <v>1143</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="0"/>
         <v>24.005994506589413</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>SUM('Daily Data'!E55:E61)</f>
         <v>12602</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="1"/>
         <v>244.7601478738186</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
         <v>9.8079669893667676E-2</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <f t="shared" si="7"/>
         <v>0.10634626479216827</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f>SUM('Daily Data'!I55:I61)</f>
         <v>101</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f>SUM('Daily Data'!J55:J61)</f>
         <v>0</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="3"/>
         <v>6489</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="4"/>
         <v>61611</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="5"/>
         <v>267</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f>SUM('Daily Data'!N55:N61)</f>
         <v>7052</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="4">
         <v>43954</v>
       </c>
@@ -35185,60 +35218,63 @@
       <c r="C11" s="6">
         <v>43960</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
         <f>SUM('Daily Data'!B62:B68)</f>
         <v>1042</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="6"/>
         <v>1081</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="0"/>
         <v>20.238063329988808</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>SUM('Daily Data'!E62:E68)</f>
         <v>19347</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="1"/>
         <v>375.7637344004736</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
         <v>5.3858479350803741E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <f t="shared" si="7"/>
         <v>9.243165039945915E-2</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <f>SUM('Daily Data'!I62:I68)</f>
         <v>63</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f>SUM('Daily Data'!J62:J68)</f>
         <v>0</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="3"/>
         <v>7531</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="4"/>
         <v>80958</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f>SUM('Daily Data'!N62:N68)</f>
         <v>8038</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="4">
         <v>43961</v>
       </c>
@@ -35248,60 +35284,63 @@
       <c r="C12" s="6">
         <v>43967</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12">
         <f>SUM('Daily Data'!B69:B75)</f>
         <v>876</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="6"/>
         <v>1040.25</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="0"/>
         <v>17.013957271660455</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f>SUM('Daily Data'!E69:E75)</f>
         <v>28653</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="1"/>
         <v>556.50789692338708</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J12" s="13">
         <f t="shared" si="2"/>
         <v>3.057271489896346E-2</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="12">
         <f t="shared" si="7"/>
         <v>7.0355149490332738E-2</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <f>SUM('Daily Data'!I69:I75)</f>
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <f>SUM('Daily Data'!J69:J75)</f>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="3"/>
         <v>8407</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="4"/>
         <v>109611</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="5"/>
         <v>380</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f>SUM('Daily Data'!N69:N75)</f>
         <v>9360</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="4">
         <v>43968</v>
       </c>
@@ -35311,60 +35350,63 @@
       <c r="C13" s="6">
         <v>43974</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13">
         <f>SUM('Daily Data'!B76:B82)</f>
         <v>1488</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="6"/>
         <v>1160.5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>28.900420571039685</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f>SUM('Daily Data'!E76:E82)</f>
         <v>49294</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="1"/>
         <v>957.40412071829985</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
         <v>3.0186229561407069E-2</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <f t="shared" si="7"/>
         <v>5.3174273426210485E-2</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <f>SUM('Daily Data'!I76:I82)</f>
         <v>45</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f>SUM('Daily Data'!J76:J82)</f>
         <v>1273</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="3"/>
         <v>9895</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="4"/>
         <v>158905</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="5"/>
         <v>425</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f>SUM('Daily Data'!N76:N82)</f>
         <v>10242</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="4">
         <v>43975</v>
       </c>
@@ -35374,60 +35416,63 @@
       <c r="C14" s="6">
         <v>43981</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14">
         <f>SUM('Daily Data'!B83:B89)</f>
         <v>1499</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="6"/>
         <v>1226.25</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="0"/>
         <v>29.114066153218065</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f>SUM('Daily Data'!E83:E89)</f>
         <v>30609</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="1"/>
         <v>594.49796589983441</v>
       </c>
-      <c r="I14" s="13">
+      <c r="J14" s="13">
         <f t="shared" si="2"/>
         <v>4.8972524420921953E-2</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <f t="shared" si="7"/>
         <v>4.0897487058024054E-2</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <f>SUM('Daily Data'!I83:I89)</f>
         <v>62</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <f>SUM('Daily Data'!J83:J89)</f>
         <v>2882</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="3"/>
         <v>11394</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="4"/>
         <v>189514</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="5"/>
         <v>487</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f>SUM('Daily Data'!N83:N89)</f>
         <v>11190</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="4">
         <v>43982</v>
       </c>
@@ -35437,60 +35482,63 @@
       <c r="C15" s="6">
         <v>43988</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15">
         <f>SUM('Daily Data'!B90:B96)</f>
         <v>2522</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="6"/>
         <v>1596.25</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="0"/>
         <v>48.983105295807846</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f>SUM('Daily Data'!E90:E96)</f>
         <v>43225</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="1"/>
         <v>839.53002633278902</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J15" s="13">
         <f t="shared" si="2"/>
         <v>5.8345864661654138E-2</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <f t="shared" si="7"/>
         <v>4.2019333385736657E-2</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <f>SUM('Daily Data'!I90:I96)</f>
         <v>58</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <f>SUM('Daily Data'!J90:J96)</f>
         <v>3069</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="3"/>
         <v>13916</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="4"/>
         <v>232739</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <f t="shared" si="5"/>
         <v>545</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f>SUM('Daily Data'!N90:N96)</f>
         <v>12263</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="4">
         <v>43989</v>
       </c>
@@ -35500,60 +35548,63 @@
       <c r="C16" s="6">
         <v>43995</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16">
         <f>SUM('Daily Data'!B97:B103)</f>
         <v>4039</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="6"/>
         <v>2387</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="0"/>
         <v>78.446773310772357</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f>SUM('Daily Data'!E97:E103)</f>
         <v>9162</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="1"/>
         <v>177.94734762894191</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J16" s="13">
         <f t="shared" si="2"/>
         <v>0.44084261078367171</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <f t="shared" si="7"/>
         <v>0.1445868073569137</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <f>SUM('Daily Data'!I97:I103)</f>
         <v>54</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <f>SUM('Daily Data'!J97:J103)</f>
         <v>3567</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="3"/>
         <v>17955</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="4"/>
         <v>241901</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <f t="shared" si="5"/>
         <v>599</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f>SUM('Daily Data'!N97:N103)</f>
         <v>13298</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="4">
         <v>43996</v>
       </c>
@@ -35563,60 +35614,63 @@
       <c r="C17" s="6">
         <v>44002</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17">
         <f>SUM('Daily Data'!B104:B110)</f>
         <v>5831</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="6"/>
         <v>3472.75</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="0"/>
         <v>113.2515808801965</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>SUM('Daily Data'!E104:E110)</f>
         <v>54343</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="1"/>
         <v>1055.4674429381785</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J17" s="13">
         <f t="shared" si="2"/>
         <v>0.10729992823362715</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <f t="shared" si="7"/>
         <v>0.16386523202496872</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <f>SUM('Daily Data'!I104:I110)</f>
         <v>45</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <f>SUM('Daily Data'!J104:J110)</f>
         <v>4194</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f t="shared" si="3"/>
         <v>23786</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="4"/>
         <v>296244</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f t="shared" si="5"/>
         <v>644</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f>SUM('Daily Data'!N104:N110)</f>
         <v>14729</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" s="4">
         <v>44003</v>
       </c>
@@ -35626,60 +35680,63 @@
       <c r="C18" s="6">
         <v>44009</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
         <f>SUM('Daily Data'!B111:B117)</f>
         <v>8153</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="6"/>
         <v>5136.25</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="0"/>
         <v>158.35022104548827</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f>SUM('Daily Data'!E111:E117)</f>
         <v>54915</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="1"/>
         <v>1066.5770132114544</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J18" s="13">
         <f t="shared" si="2"/>
         <v>0.14846581079850679</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <f t="shared" si="7"/>
         <v>0.18873855361936492</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <f>SUM('Daily Data'!I111:I117)</f>
         <v>67</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <f>SUM('Daily Data'!J111:J117)</f>
         <v>5774</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="3"/>
         <v>31939</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="4"/>
         <v>351159</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f t="shared" si="5"/>
         <v>711</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <f>SUM('Daily Data'!N111:N117)</f>
         <v>16963</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>44010</v>
       </c>
@@ -35689,60 +35746,63 @@
       <c r="C19" s="6">
         <v>44016</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
         <f>SUM('Daily Data'!B118:B124)</f>
         <v>11447</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="6"/>
         <v>7367.5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="0"/>
         <v>222.32736174508821</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>SUM('Daily Data'!E118:E124)</f>
         <v>69529</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>1350.4148802982647</v>
       </c>
-      <c r="I19" s="13">
+      <c r="J19" s="13">
         <f t="shared" si="2"/>
         <v>0.16463633879388456</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="12">
         <f t="shared" si="7"/>
         <v>0.21531117215242251</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f>SUM('Daily Data'!I118:I124)</f>
         <v>102</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f>SUM('Daily Data'!J118:J124)</f>
         <v>7630</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="3"/>
         <v>43386</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" si="4"/>
         <v>420688</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f t="shared" si="5"/>
         <v>813</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f>SUM('Daily Data'!N118:N124)</f>
         <v>19570</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17">
       <c r="A20" s="4">
         <v>44017</v>
       </c>
@@ -35752,60 +35812,63 @@
       <c r="C20" s="6">
         <v>44023</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20">
         <f>SUM('Daily Data'!B125:B131)</f>
         <v>11313</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="6"/>
         <v>9186</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="0"/>
         <v>219.72477010764243</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>SUM('Daily Data'!E125:E131)</f>
         <v>67397</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="1"/>
         <v>1309.0064820069633</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J20" s="13">
         <f t="shared" si="2"/>
         <v>0.1678561360297936</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <f t="shared" si="7"/>
         <v>0.14706455346395303</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f>SUM('Daily Data'!I125:I131)</f>
         <v>138</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f>SUM('Daily Data'!J125:J131)</f>
         <v>9506</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="3"/>
         <v>54699</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f t="shared" si="4"/>
         <v>488085</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f t="shared" si="5"/>
         <v>951</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f>SUM('Daily Data'!N125:N131)</f>
         <v>21830</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>44024</v>
       </c>
@@ -35815,60 +35878,63 @@
       <c r="C21" s="6">
         <v>44030</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21">
         <f>SUM('Daily Data'!B132:B138)</f>
         <v>12913</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="6"/>
         <v>10956.5</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="0"/>
         <v>250.8004911517711</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f>SUM('Daily Data'!E132:E138)</f>
         <v>73903</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="1"/>
         <v>1435.3681327026516</v>
       </c>
-      <c r="I21" s="13">
+      <c r="J21" s="13">
         <f t="shared" si="2"/>
         <v>0.17472903671028239</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <f t="shared" si="7"/>
         <v>0.16392183058311682</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f>SUM('Daily Data'!I132:I138)</f>
         <v>184</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f>SUM('Daily Data'!J132:J138)</f>
         <v>10834</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="3"/>
         <v>67612</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" si="4"/>
         <v>561988</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f t="shared" si="5"/>
         <v>1135</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f>SUM('Daily Data'!N132:N138)</f>
         <v>26392</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17">
       <c r="A22" s="4">
         <v>44031</v>
       </c>
@@ -35878,60 +35944,63 @@
       <c r="C22" s="6">
         <v>44037</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22">
         <f>SUM('Daily Data'!B139:B145)</f>
         <v>12396</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="6"/>
         <v>12017.25</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="0"/>
         <v>240.75914878938701</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>SUM('Daily Data'!E139:E145)</f>
         <v>76497</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="1"/>
         <v>1485.7496454454454</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J22" s="13">
         <f t="shared" si="2"/>
         <v>0.16204557041452605</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <f t="shared" si="7"/>
         <v>0.16731677048712165</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f>SUM('Daily Data'!I139:I145)</f>
         <v>330</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <f>SUM('Daily Data'!J139:J145)</f>
         <v>11445</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="3"/>
         <v>80008</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <f t="shared" si="4"/>
         <v>638485</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <f t="shared" si="5"/>
         <v>1465</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <f>SUM('Daily Data'!N139:N145)</f>
         <v>31512</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>44038</v>
       </c>
@@ -35941,60 +36010,63 @@
       <c r="C23" s="6">
         <v>44044</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23">
         <f>SUM('Daily Data'!B146:B152)</f>
         <v>10591</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="6"/>
         <v>11803.25</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="0"/>
         <v>205.70185098647934</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f>SUM('Daily Data'!E146:E152)</f>
         <v>73379</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="1"/>
         <v>1425.1908340606994</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J23" s="13">
         <f t="shared" si="2"/>
         <v>0.14433284727238038</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="12">
         <f t="shared" si="7"/>
         <v>0.16224089760674559</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <f>SUM('Daily Data'!I146:I152)</f>
         <v>286</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f>SUM('Daily Data'!J146:J152)</f>
         <v>11039</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="3"/>
         <v>90599</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="4"/>
         <v>711864</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <f t="shared" si="5"/>
         <v>1751</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <f>SUM('Daily Data'!N146:N152)</f>
         <v>35649</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:17">
       <c r="A24" s="4">
         <v>44045</v>
       </c>
@@ -36004,60 +36076,63 @@
       <c r="C24" s="6">
         <v>44051</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24">
         <f>SUM('Daily Data'!B153:B159)</f>
         <v>8861</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="6"/>
         <v>11190.25</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>172.1012276075152</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f>SUM('Daily Data'!E153:E159)</f>
         <v>66206</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="1"/>
         <v>1285.87449215474</v>
       </c>
-      <c r="I24" s="13">
+      <c r="J24" s="13">
         <f t="shared" si="2"/>
         <v>0.1338398332477419</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="12">
         <f t="shared" si="7"/>
         <v>0.15373682191123267</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <f>SUM('Daily Data'!I153:I159)</f>
         <v>256</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <f>SUM('Daily Data'!J153:J159)</f>
         <v>10064</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <f t="shared" si="3"/>
         <v>99460</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <f t="shared" si="4"/>
         <v>778070</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <f t="shared" si="5"/>
         <v>2007</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <f>SUM('Daily Data'!N153:N159)</f>
         <v>40757</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>44052</v>
       </c>
@@ -36067,60 +36142,63 @@
       <c r="C25" s="6">
         <v>44058</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25">
         <f>SUM('Daily Data'!B160:B166)</f>
         <v>6422</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="6"/>
         <v>9567.5</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>124.73017534087154</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f>SUM('Daily Data'!E160:E166)</f>
         <v>82325</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="1"/>
         <v>1598.9429593486839</v>
       </c>
-      <c r="I25" s="13">
+      <c r="J25" s="13">
         <f t="shared" si="2"/>
         <v>7.800789553598543E-2</v>
       </c>
-      <c r="J25" s="12">
+      <c r="K25" s="12">
         <f t="shared" si="7"/>
         <v>0.12955653661765845</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f>SUM('Daily Data'!I160:I166)</f>
         <v>253</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f>SUM('Daily Data'!J160:J166)</f>
         <v>9291</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="3"/>
         <v>105882</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f t="shared" si="4"/>
         <v>860395</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f t="shared" si="5"/>
         <v>2260</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f>SUM('Daily Data'!N160:N166)</f>
         <v>45456</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:17">
       <c r="A26" s="4">
         <v>44059</v>
       </c>
@@ -36130,60 +36208,63 @@
       <c r="C26" s="6">
         <v>44065</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26">
         <f>SUM('Daily Data'!B167:B173)</f>
         <v>5413</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="6"/>
         <v>7821.75</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>105.13304875741788</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f>SUM('Daily Data'!E167:E173)</f>
         <v>51732</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="1"/>
         <v>1004.7557506592908</v>
       </c>
-      <c r="I26" s="13">
+      <c r="J26" s="13">
         <f t="shared" si="2"/>
         <v>0.10463542874816362</v>
       </c>
-      <c r="J26" s="12">
+      <c r="K26" s="12">
         <f t="shared" si="7"/>
         <v>0.11520400120106783</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f>SUM('Daily Data'!I167:I173)</f>
         <v>233</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f>SUM('Daily Data'!J167:J173)</f>
         <v>7758</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <f t="shared" si="3"/>
         <v>111295</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <f t="shared" si="4"/>
         <v>912127</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f t="shared" si="5"/>
         <v>2493</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <f>SUM('Daily Data'!N167:N173)</f>
         <v>50020</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:17">
       <c r="A27" s="4">
         <v>44066</v>
       </c>
@@ -36193,60 +36274,63 @@
       <c r="C27" s="6">
         <v>44072</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27">
         <f>SUM('Daily Data'!B174:B180)</f>
         <v>5954</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="6"/>
         <v>6662.5</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="0"/>
         <v>115.64052693546387</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f>SUM('Daily Data'!E174:E180)</f>
         <v>23491</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="1"/>
         <v>456.24985190476696</v>
       </c>
-      <c r="I27" s="13">
+      <c r="J27" s="13">
         <f t="shared" si="2"/>
         <v>0.25345877144438295</v>
       </c>
-      <c r="J27" s="12">
+      <c r="K27" s="12">
         <f t="shared" si="7"/>
         <v>0.14248548224406848</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f>SUM('Daily Data'!I174:I180)</f>
         <v>205</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f>SUM('Daily Data'!J174:J180)</f>
         <v>7018</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <f t="shared" si="3"/>
         <v>117249</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <f t="shared" si="4"/>
         <v>935618</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <f t="shared" si="5"/>
         <v>2698</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <f>SUM('Daily Data'!N174:N180)</f>
         <v>53035</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:17">
       <c r="A28" s="4">
         <v>44073</v>
       </c>
@@ -36256,60 +36340,63 @@
       <c r="C28" s="6">
         <v>44079</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28">
         <f>SUM('Daily Data'!B181:B187)</f>
         <v>7040</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="6"/>
         <v>6207.25</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="0"/>
         <v>136.73317259416623</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f>SUM('Daily Data'!E181:E187)</f>
         <v>58304</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="1"/>
         <v>1132.3992748480493</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J28" s="13">
         <f t="shared" si="2"/>
         <v>0.12074643249176729</v>
       </c>
-      <c r="J28" s="12">
+      <c r="K28" s="12">
         <f t="shared" si="7"/>
         <v>0.13921213205507482</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <f>SUM('Daily Data'!I181:I187)</f>
         <v>179</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f>SUM('Daily Data'!J181:J187)</f>
         <v>6342</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <f t="shared" si="3"/>
         <v>124289</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <f t="shared" si="4"/>
         <v>993922</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <f t="shared" si="5"/>
         <v>2877</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <f>SUM('Daily Data'!N181:N187)</f>
         <v>55623</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:17">
       <c r="A29" s="4">
         <v>44080</v>
       </c>
@@ -36319,60 +36406,63 @@
       <c r="C29" s="6">
         <v>44086</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29">
         <f>SUM('Daily Data'!B188:B194)</f>
         <v>5689</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="6"/>
         <v>6024</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="0"/>
         <v>110.49361063753007</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f>SUM('Daily Data'!E188:E194)</f>
         <v>60945</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="1"/>
         <v>1183.6936368965144</v>
       </c>
-      <c r="I29" s="13">
+      <c r="J29" s="13">
         <f t="shared" si="2"/>
         <v>9.3346459922881292E-2</v>
       </c>
-      <c r="J29" s="12">
+      <c r="K29" s="12">
         <f t="shared" si="7"/>
         <v>0.14304677315179878</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <f>SUM('Daily Data'!I188:I194)</f>
         <v>163</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f>SUM('Daily Data'!J188:J194)</f>
         <v>5605</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <f t="shared" si="3"/>
         <v>129978</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <f t="shared" si="4"/>
         <v>1054867</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <f t="shared" si="5"/>
         <v>3040</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <f>SUM('Daily Data'!N188:N194)</f>
         <v>57783</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17">
       <c r="A30" s="4">
         <v>44087</v>
       </c>
@@ -36382,60 +36472,63 @@
       <c r="C30" s="6">
         <v>44093</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
         <f>SUM('Daily Data'!B195:B201)</f>
         <v>7262</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="6"/>
         <v>6486.25</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="0"/>
         <v>141.04492888903908</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f>SUM('Daily Data'!E195:E201)</f>
         <v>68393</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="1"/>
         <v>1328.3511183569335</v>
       </c>
-      <c r="I30" s="13">
+      <c r="J30" s="13">
         <f t="shared" si="2"/>
         <v>0.10618045706431944</v>
       </c>
-      <c r="J30" s="12">
+      <c r="K30" s="12">
         <f t="shared" si="7"/>
         <v>0.14343303023083775</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <f>SUM('Daily Data'!I195:I201)</f>
         <v>148</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f>SUM('Daily Data'!J195:J201)</f>
         <v>5371</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <f t="shared" si="3"/>
         <v>137240</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <f t="shared" si="4"/>
         <v>1123260</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <f t="shared" si="5"/>
         <v>3188</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <f>SUM('Daily Data'!N195:N201)</f>
         <v>59916</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:17">
       <c r="A31" s="4">
         <v>44094</v>
       </c>
@@ -36445,60 +36538,63 @@
       <c r="C31" s="6">
         <v>44100</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31">
         <f>SUM('Daily Data'!B202:B208)</f>
         <v>8033</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="6"/>
         <v>7006</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>156.01954196717858</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f>SUM('Daily Data'!E202:E208)</f>
         <v>119532</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="1"/>
         <v>2321.5894299042443</v>
       </c>
-      <c r="I31" s="13">
+      <c r="J31" s="13">
         <f t="shared" si="2"/>
         <v>6.7203761335876591E-2</v>
       </c>
-      <c r="J31" s="12">
+      <c r="K31" s="12">
         <f t="shared" si="7"/>
         <v>9.6869277703711149E-2</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <f>SUM('Daily Data'!I202:I208)</f>
         <v>135</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <f>SUM('Daily Data'!J202:J208)</f>
         <v>5355</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <f t="shared" si="3"/>
         <v>145273</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f t="shared" si="4"/>
         <v>1242792</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <f t="shared" si="5"/>
         <v>3323</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <f>SUM('Daily Data'!N202:N208)</f>
         <v>62241</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:17">
       <c r="A32" s="4">
         <v>44101</v>
       </c>
@@ -36508,60 +36604,63 @@
       <c r="C32" s="6">
         <v>44107</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32">
         <f>SUM('Daily Data'!B209:B215)</f>
         <v>5618</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="6"/>
         <v>6650.5</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>109.11462551619687</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f>SUM('Daily Data'!E209:E215)</f>
         <v>96961</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="1"/>
         <v>1883.2081175998512</v>
       </c>
-      <c r="I32" s="13">
+      <c r="J32" s="13">
         <f t="shared" si="2"/>
         <v>5.7940821567434332E-2</v>
       </c>
-      <c r="J32" s="12">
+      <c r="K32" s="12">
         <f t="shared" si="7"/>
         <v>8.1167874972627924E-2</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <f>SUM('Daily Data'!I209:I215)</f>
         <v>119</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f>SUM('Daily Data'!J209:J215)</f>
         <v>4980</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <f t="shared" si="3"/>
         <v>150891</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <f t="shared" si="4"/>
         <v>1339753</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <f t="shared" si="5"/>
         <v>3442</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <f>SUM('Daily Data'!N209:N215)</f>
         <v>63965</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>44108</v>
       </c>
@@ -36571,60 +36670,63 @@
       <c r="C33" s="6">
         <v>44114</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
         <f>SUM('Daily Data'!B216:B222)</f>
         <v>5730</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <f t="shared" si="6"/>
         <v>6660.75</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>111.28992598928586</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f>SUM('Daily Data'!E216:E222)</f>
         <v>130553</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="1"/>
         <v>2535.642880921333</v>
       </c>
-      <c r="I33" s="13">
+      <c r="J33" s="13">
         <f t="shared" si="2"/>
         <v>4.389022082985454E-2</v>
       </c>
-      <c r="J33" s="12">
+      <c r="K33" s="12">
         <f t="shared" si="7"/>
         <v>6.8803815199371218E-2</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <f>SUM('Daily Data'!I216:I222)</f>
         <v>109</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f>SUM('Daily Data'!J216:J222)</f>
         <v>4746</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <f t="shared" si="3"/>
         <v>156621</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <f t="shared" si="4"/>
         <v>1470306</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <f t="shared" si="5"/>
         <v>3551</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <f>SUM('Daily Data'!N216:N222)</f>
         <v>65820</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:17">
       <c r="A34" s="4">
         <v>44115</v>
       </c>
@@ -36634,60 +36736,63 @@
       <c r="C34" s="6">
         <v>44121</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34">
         <f>SUM('Daily Data'!B223:B229)</f>
         <v>6593</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="6"/>
         <v>6493.5</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="0"/>
         <v>128.05139302746278</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f>SUM('Daily Data'!E223:E229)</f>
         <v>114740</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="1"/>
         <v>2228.5176453770787</v>
       </c>
-      <c r="I34" s="13">
+      <c r="J34" s="13">
         <f t="shared" si="2"/>
         <v>5.7460345128115743E-2</v>
       </c>
-      <c r="J34" s="12">
+      <c r="K34" s="12">
         <f t="shared" si="7"/>
         <v>5.6623787215320305E-2</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <f>SUM('Daily Data'!I223:I229)</f>
         <v>86</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f>SUM('Daily Data'!J223:J229)</f>
         <v>5196</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <f t="shared" si="3"/>
         <v>163214</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <f t="shared" si="4"/>
         <v>1585046</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <f t="shared" si="5"/>
         <v>3637</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <f>SUM('Daily Data'!N223:N229)</f>
         <v>68136</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:17">
       <c r="A35" s="4">
         <v>44122</v>
       </c>
@@ -36697,60 +36802,63 @@
       <c r="C35" s="6">
         <v>44128</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
         <f>SUM('Daily Data'!B230:B236)</f>
         <v>6127</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="6"/>
         <v>6017</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="0"/>
         <v>119.0005892733603</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f>SUM('Daily Data'!E230:E236)</f>
         <v>94033</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="1"/>
         <v>1826.3395480890956</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J35" s="13">
         <f t="shared" si="2"/>
         <v>6.5157976455074276E-2</v>
       </c>
-      <c r="J35" s="12">
+      <c r="K35" s="12">
         <f t="shared" si="7"/>
         <v>5.6112340995119719E-2</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <f>SUM('Daily Data'!I230:I236)</f>
         <v>156</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <f>SUM('Daily Data'!J230:J236)</f>
         <v>5080</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <f t="shared" si="3"/>
         <v>169341</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <f t="shared" si="4"/>
         <v>1679079</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <f t="shared" si="5"/>
         <v>3793</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <f>SUM('Daily Data'!N230:N236)</f>
         <v>70463</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:17">
       <c r="A36" s="4">
         <v>44129</v>
       </c>
@@ -36760,60 +36868,63 @@
       <c r="C36" s="6">
         <v>44135</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36">
         <f>SUM('Daily Data'!B237:B243)</f>
         <v>7271</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="6"/>
         <v>6430.25</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="0"/>
         <v>141.21972981991232</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f>SUM('Daily Data'!E237:E243)</f>
         <v>122966</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="1"/>
         <v>2388.2856961952052</v>
       </c>
-      <c r="I36" s="13">
+      <c r="J36" s="13">
         <f t="shared" si="2"/>
         <v>5.9130166062163522E-2</v>
       </c>
-      <c r="J36" s="12">
+      <c r="K36" s="12">
         <f t="shared" si="7"/>
         <v>5.6409677118802029E-2</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f>SUM('Daily Data'!I237:I243)</f>
         <v>142</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f>SUM('Daily Data'!J237:J243)</f>
         <v>5384</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <f t="shared" si="3"/>
         <v>176612</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <f t="shared" si="4"/>
         <v>1802045</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <f t="shared" si="5"/>
         <v>3935</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <f>SUM('Daily Data'!N237:N243)</f>
         <v>72447</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:17">
       <c r="A37" s="4">
         <v>44136</v>
       </c>
@@ -36823,60 +36934,63 @@
       <c r="C37" s="6">
         <v>44142</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
         <f>SUM('Daily Data'!B244:B250)</f>
         <v>8130</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="6"/>
         <v>7030.25</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="0"/>
         <v>157.90350755547891</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f>SUM('Daily Data'!E244:E250)</f>
         <v>142878</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="1"/>
         <v>2775.0230445893867</v>
       </c>
-      <c r="I37" s="13">
+      <c r="J37" s="13">
         <f t="shared" si="2"/>
         <v>5.6901692352916478E-2</v>
       </c>
-      <c r="J37" s="12">
+      <c r="K37" s="12">
         <f t="shared" si="7"/>
         <v>5.966254499956751E-2</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <f>SUM('Daily Data'!I244:I250)</f>
         <v>80</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <f>SUM('Daily Data'!J244:J250)</f>
         <v>5304</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <f t="shared" si="3"/>
         <v>184742</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <f t="shared" si="4"/>
         <v>1944923</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <f t="shared" si="5"/>
         <v>4015</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <f>SUM('Daily Data'!N244:N250)</f>
         <v>74638</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:17">
       <c r="A38" s="4">
         <v>44143</v>
       </c>
@@ -36886,8 +37000,9 @@
       <c r="C38" s="6">
         <v>44149</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="4">
         <v>44150</v>
       </c>
@@ -36897,8 +37012,9 @@
       <c r="C39" s="6">
         <v>44156</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="4">
         <v>44157</v>
       </c>
@@ -36908,8 +37024,9 @@
       <c r="C40" s="6">
         <v>44163</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="4">
         <v>44164</v>
       </c>
@@ -36919,8 +37036,9 @@
       <c r="C41" s="6">
         <v>44170</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="4">
         <v>44171</v>
       </c>
@@ -36930,8 +37048,9 @@
       <c r="C42" s="6">
         <v>44177</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="4">
         <v>44178</v>
       </c>
@@ -36941,8 +37060,9 @@
       <c r="C43" s="6">
         <v>44184</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="4">
         <v>44185</v>
       </c>
@@ -36952,8 +37072,9 @@
       <c r="C44" s="6">
         <v>44191</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="4">
         <v>44192</v>
       </c>
@@ -36963,11 +37084,12 @@
       <c r="C45" s="6">
         <v>44198</v>
       </c>
+      <c r="D45" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="P2:P36 L2:L36 K2:K36 G2:G36 D2:D36" formulaRange="1"/>
+    <ignoredError sqref="Q2:Q36 M2:M36 L2:L36 H2:H36 E2:E36" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/southCarolina.xlsx
+++ b/southCarolina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB035E0-A457-3243-9B18-CF6161134E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3242D8-5698-804B-A567-10EB6BF40FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34557,8 +34557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/southCarolina.xlsx
+++ b/southCarolina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3242D8-5698-804B-A567-10EB6BF40FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74DA0AE-870F-834E-881F-1F3317EE6896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CTP CSV" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="68">
   <si>
     <t>date</t>
   </si>
@@ -1130,11 +1130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E250ED-1987-9946-87EB-4BEFC046C5C9}">
-  <dimension ref="A1:AP251"/>
+  <dimension ref="A1:AP259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I256" sqref="I256"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H253" sqref="H253:H259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1142,7 +1142,7 @@
     <col min="8" max="8" width="43.83203125" customWidth="1"/>
     <col min="9" max="9" width="33.6640625" customWidth="1"/>
     <col min="10" max="10" width="35.5" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
     <col min="34" max="34" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21735,6 +21735,713 @@
       </c>
       <c r="AP251">
         <v>47637</v>
+      </c>
+    </row>
+    <row r="253" spans="1:42">
+      <c r="A253" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B253" t="s">
+        <v>41</v>
+      </c>
+      <c r="C253" t="s">
+        <v>42</v>
+      </c>
+      <c r="D253">
+        <v>4036</v>
+      </c>
+      <c r="E253">
+        <v>3776</v>
+      </c>
+      <c r="F253">
+        <v>21</v>
+      </c>
+      <c r="G253">
+        <v>260</v>
+      </c>
+      <c r="H253">
+        <v>10854</v>
+      </c>
+      <c r="I253">
+        <v>10854</v>
+      </c>
+      <c r="J253">
+        <v>718</v>
+      </c>
+      <c r="K253">
+        <v>20</v>
+      </c>
+      <c r="M253">
+        <v>184</v>
+      </c>
+      <c r="N253">
+        <v>1773414</v>
+      </c>
+      <c r="O253">
+        <v>13228</v>
+      </c>
+      <c r="P253">
+        <v>73421</v>
+      </c>
+      <c r="R253">
+        <v>1717658</v>
+      </c>
+      <c r="T253">
+        <v>89</v>
+      </c>
+      <c r="U253">
+        <v>185688</v>
+      </c>
+      <c r="V253">
+        <v>175730</v>
+      </c>
+      <c r="W253">
+        <v>946</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>9518</v>
+      </c>
+      <c r="Z253">
+        <v>18494</v>
+      </c>
+      <c r="AC253">
+        <v>231486</v>
+      </c>
+      <c r="AD253">
+        <v>96422</v>
+      </c>
+      <c r="AF253">
+        <v>0</v>
+      </c>
+      <c r="AG253">
+        <v>1959102</v>
+      </c>
+      <c r="AH253">
+        <v>14174</v>
+      </c>
+      <c r="AI253">
+        <v>82939</v>
+      </c>
+      <c r="AJ253">
+        <v>136308</v>
+      </c>
+      <c r="AN253">
+        <v>0</v>
+      </c>
+      <c r="AO253">
+        <v>1949144</v>
+      </c>
+      <c r="AP253">
+        <v>14096</v>
+      </c>
+    </row>
+    <row r="254" spans="1:42">
+      <c r="A254" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B254" t="s">
+        <v>41</v>
+      </c>
+      <c r="C254" t="s">
+        <v>42</v>
+      </c>
+      <c r="D254">
+        <v>4041</v>
+      </c>
+      <c r="E254">
+        <v>3778</v>
+      </c>
+      <c r="F254">
+        <v>5</v>
+      </c>
+      <c r="G254">
+        <v>263</v>
+      </c>
+      <c r="H254">
+        <v>10884</v>
+      </c>
+      <c r="I254">
+        <v>10884</v>
+      </c>
+      <c r="J254">
+        <v>746</v>
+      </c>
+      <c r="K254">
+        <v>30</v>
+      </c>
+      <c r="M254">
+        <v>194</v>
+      </c>
+      <c r="N254">
+        <v>1780834</v>
+      </c>
+      <c r="O254">
+        <v>7420</v>
+      </c>
+      <c r="P254">
+        <v>73458</v>
+      </c>
+      <c r="R254">
+        <v>1725001</v>
+      </c>
+      <c r="T254">
+        <v>101</v>
+      </c>
+      <c r="U254">
+        <v>186391</v>
+      </c>
+      <c r="V254">
+        <v>176373</v>
+      </c>
+      <c r="W254">
+        <v>703</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>9523</v>
+      </c>
+      <c r="Z254">
+        <v>18544</v>
+      </c>
+      <c r="AC254">
+        <v>232206</v>
+      </c>
+      <c r="AD254">
+        <v>96909</v>
+      </c>
+      <c r="AF254">
+        <v>0</v>
+      </c>
+      <c r="AG254">
+        <v>1967225</v>
+      </c>
+      <c r="AH254">
+        <v>8123</v>
+      </c>
+      <c r="AI254">
+        <v>82981</v>
+      </c>
+      <c r="AJ254">
+        <v>136772</v>
+      </c>
+      <c r="AN254">
+        <v>0</v>
+      </c>
+      <c r="AO254">
+        <v>1957207</v>
+      </c>
+      <c r="AP254">
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="255" spans="1:42">
+      <c r="A255" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B255" t="s">
+        <v>41</v>
+      </c>
+      <c r="C255" t="s">
+        <v>42</v>
+      </c>
+      <c r="D255">
+        <v>4062</v>
+      </c>
+      <c r="E255">
+        <v>3795</v>
+      </c>
+      <c r="F255">
+        <v>21</v>
+      </c>
+      <c r="G255">
+        <v>267</v>
+      </c>
+      <c r="H255">
+        <v>10966</v>
+      </c>
+      <c r="I255">
+        <v>10966</v>
+      </c>
+      <c r="J255">
+        <v>784</v>
+      </c>
+      <c r="K255">
+        <v>82</v>
+      </c>
+      <c r="M255">
+        <v>197</v>
+      </c>
+      <c r="N255">
+        <v>1800774</v>
+      </c>
+      <c r="O255">
+        <v>19940</v>
+      </c>
+      <c r="P255">
+        <v>73707</v>
+      </c>
+      <c r="R255">
+        <v>1744162</v>
+      </c>
+      <c r="T255">
+        <v>104</v>
+      </c>
+      <c r="U255">
+        <v>187738</v>
+      </c>
+      <c r="V255">
+        <v>177515</v>
+      </c>
+      <c r="W255">
+        <v>1347</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>9523</v>
+      </c>
+      <c r="Z255">
+        <v>18900</v>
+      </c>
+      <c r="AC255">
+        <v>234127</v>
+      </c>
+      <c r="AD255">
+        <v>97765</v>
+      </c>
+      <c r="AF255">
+        <v>0</v>
+      </c>
+      <c r="AG255">
+        <v>1988512</v>
+      </c>
+      <c r="AH255">
+        <v>21287</v>
+      </c>
+      <c r="AI255">
+        <v>83290</v>
+      </c>
+      <c r="AJ255">
+        <v>141266</v>
+      </c>
+      <c r="AN255">
+        <v>0</v>
+      </c>
+      <c r="AO255">
+        <v>1978289</v>
+      </c>
+      <c r="AP255">
+        <v>21082</v>
+      </c>
+    </row>
+    <row r="256" spans="1:42">
+      <c r="A256" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B256" t="s">
+        <v>41</v>
+      </c>
+      <c r="C256" t="s">
+        <v>42</v>
+      </c>
+      <c r="D256">
+        <v>4076</v>
+      </c>
+      <c r="E256">
+        <v>3809</v>
+      </c>
+      <c r="F256">
+        <v>14</v>
+      </c>
+      <c r="G256">
+        <v>267</v>
+      </c>
+      <c r="H256">
+        <v>11024</v>
+      </c>
+      <c r="I256">
+        <v>11024</v>
+      </c>
+      <c r="J256">
+        <v>780</v>
+      </c>
+      <c r="K256">
+        <v>58</v>
+      </c>
+      <c r="M256">
+        <v>198</v>
+      </c>
+      <c r="N256">
+        <v>1811714</v>
+      </c>
+      <c r="O256">
+        <v>10940</v>
+      </c>
+      <c r="P256">
+        <v>73829</v>
+      </c>
+      <c r="R256">
+        <v>1754669</v>
+      </c>
+      <c r="T256">
+        <v>97</v>
+      </c>
+      <c r="U256">
+        <v>188995</v>
+      </c>
+      <c r="V256">
+        <v>178524</v>
+      </c>
+      <c r="W256">
+        <v>1257</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>9650</v>
+      </c>
+      <c r="Z256">
+        <v>19332</v>
+      </c>
+      <c r="AC256">
+        <v>235569</v>
+      </c>
+      <c r="AD256">
+        <v>98621</v>
+      </c>
+      <c r="AF256">
+        <v>0</v>
+      </c>
+      <c r="AG256">
+        <v>2000709</v>
+      </c>
+      <c r="AH256">
+        <v>12197</v>
+      </c>
+      <c r="AI256">
+        <v>83479</v>
+      </c>
+      <c r="AJ256">
+        <v>146367</v>
+      </c>
+      <c r="AN256">
+        <v>0</v>
+      </c>
+      <c r="AO256">
+        <v>1990238</v>
+      </c>
+      <c r="AP256">
+        <v>11949</v>
+      </c>
+    </row>
+    <row r="257" spans="1:42">
+      <c r="A257" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B257" t="s">
+        <v>41</v>
+      </c>
+      <c r="C257" t="s">
+        <v>42</v>
+      </c>
+      <c r="D257">
+        <v>4084</v>
+      </c>
+      <c r="E257">
+        <v>3817</v>
+      </c>
+      <c r="F257">
+        <v>8</v>
+      </c>
+      <c r="G257">
+        <v>267</v>
+      </c>
+      <c r="H257">
+        <v>11084</v>
+      </c>
+      <c r="I257">
+        <v>11084</v>
+      </c>
+      <c r="J257">
+        <v>810</v>
+      </c>
+      <c r="K257">
+        <v>60</v>
+      </c>
+      <c r="M257">
+        <v>196</v>
+      </c>
+      <c r="N257">
+        <v>1830455</v>
+      </c>
+      <c r="O257">
+        <v>18741</v>
+      </c>
+      <c r="P257">
+        <v>74045</v>
+      </c>
+      <c r="R257">
+        <v>1772990</v>
+      </c>
+      <c r="T257">
+        <v>91</v>
+      </c>
+      <c r="U257">
+        <v>190490</v>
+      </c>
+      <c r="V257">
+        <v>179832</v>
+      </c>
+      <c r="W257">
+        <v>1495</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>9731</v>
+      </c>
+      <c r="Z257">
+        <v>19620</v>
+      </c>
+      <c r="AC257">
+        <v>237297</v>
+      </c>
+      <c r="AD257">
+        <v>99368</v>
+      </c>
+      <c r="AF257">
+        <v>0</v>
+      </c>
+      <c r="AG257">
+        <v>2020945</v>
+      </c>
+      <c r="AH257">
+        <v>20236</v>
+      </c>
+      <c r="AI257">
+        <v>83776</v>
+      </c>
+      <c r="AJ257">
+        <v>149728</v>
+      </c>
+      <c r="AN257">
+        <v>0</v>
+      </c>
+      <c r="AO257">
+        <v>2010287</v>
+      </c>
+      <c r="AP257">
+        <v>20049</v>
+      </c>
+    </row>
+    <row r="258" spans="1:42">
+      <c r="A258" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B258" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258" t="s">
+        <v>42</v>
+      </c>
+      <c r="D258">
+        <v>4101</v>
+      </c>
+      <c r="E258">
+        <v>3835</v>
+      </c>
+      <c r="F258">
+        <v>17</v>
+      </c>
+      <c r="G258">
+        <v>266</v>
+      </c>
+      <c r="H258">
+        <v>11147</v>
+      </c>
+      <c r="I258">
+        <v>11147</v>
+      </c>
+      <c r="J258">
+        <v>775</v>
+      </c>
+      <c r="K258">
+        <v>63</v>
+      </c>
+      <c r="M258">
+        <v>188</v>
+      </c>
+      <c r="N258">
+        <v>1838893</v>
+      </c>
+      <c r="O258">
+        <v>8438</v>
+      </c>
+      <c r="P258">
+        <v>74215</v>
+      </c>
+      <c r="R258">
+        <v>1781234</v>
+      </c>
+      <c r="T258">
+        <v>89</v>
+      </c>
+      <c r="U258">
+        <v>192101</v>
+      </c>
+      <c r="V258">
+        <v>181243</v>
+      </c>
+      <c r="W258">
+        <v>1611</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>9783</v>
+      </c>
+      <c r="Z258">
+        <v>19980</v>
+      </c>
+      <c r="AC258">
+        <v>238902</v>
+      </c>
+      <c r="AD258">
+        <v>100074</v>
+      </c>
+      <c r="AF258">
+        <v>0</v>
+      </c>
+      <c r="AG258">
+        <v>2030994</v>
+      </c>
+      <c r="AH258">
+        <v>10049</v>
+      </c>
+      <c r="AI258">
+        <v>83998</v>
+      </c>
+      <c r="AJ258">
+        <v>151564</v>
+      </c>
+      <c r="AN258">
+        <v>0</v>
+      </c>
+      <c r="AO258">
+        <v>2020136</v>
+      </c>
+      <c r="AP258">
+        <v>9849</v>
+      </c>
+    </row>
+    <row r="259" spans="1:42">
+      <c r="A259" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B259" t="s">
+        <v>41</v>
+      </c>
+      <c r="C259" t="s">
+        <v>42</v>
+      </c>
+      <c r="D259">
+        <v>4110</v>
+      </c>
+      <c r="E259">
+        <v>3844</v>
+      </c>
+      <c r="F259">
+        <v>9</v>
+      </c>
+      <c r="G259">
+        <v>266</v>
+      </c>
+      <c r="H259">
+        <v>11182</v>
+      </c>
+      <c r="I259">
+        <v>11182</v>
+      </c>
+      <c r="J259">
+        <v>781</v>
+      </c>
+      <c r="K259">
+        <v>35</v>
+      </c>
+      <c r="M259">
+        <v>183</v>
+      </c>
+      <c r="N259">
+        <v>1878126</v>
+      </c>
+      <c r="O259">
+        <v>39233</v>
+      </c>
+      <c r="P259">
+        <v>74614</v>
+      </c>
+      <c r="R259">
+        <v>1819465</v>
+      </c>
+      <c r="T259">
+        <v>93</v>
+      </c>
+      <c r="U259">
+        <v>194014</v>
+      </c>
+      <c r="V259">
+        <v>182943</v>
+      </c>
+      <c r="W259">
+        <v>1913</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>9988</v>
+      </c>
+      <c r="Z259">
+        <v>20442</v>
+      </c>
+      <c r="AC259">
+        <v>241604</v>
+      </c>
+      <c r="AD259">
+        <v>100742</v>
+      </c>
+      <c r="AF259">
+        <v>0</v>
+      </c>
+      <c r="AG259">
+        <v>2072140</v>
+      </c>
+      <c r="AH259">
+        <v>41146</v>
+      </c>
+      <c r="AI259">
+        <v>84602</v>
+      </c>
+      <c r="AJ259">
+        <v>158740</v>
+      </c>
+      <c r="AN259">
+        <v>0</v>
+      </c>
+      <c r="AO259">
+        <v>2061069</v>
+      </c>
+      <c r="AP259">
+        <v>40933</v>
       </c>
     </row>
   </sheetData>
@@ -21747,11 +22454,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N250"/>
+  <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M255" sqref="M255"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N251" sqref="N251:N257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31644,11 +32351,11 @@
         <v>16991</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F250" si="25">(E195/5148714)*100000</f>
+        <f t="shared" ref="F195:F257" si="25">(E195/5148714)*100000</f>
         <v>330.00473516299411</v>
       </c>
       <c r="G195" s="11">
-        <f t="shared" ref="G195:G250" si="26">IFERROR(B195/E195,0)</f>
+        <f t="shared" ref="G195:G257" si="26">IFERROR(B195/E195,0)</f>
         <v>0.11099994114531223</v>
       </c>
       <c r="H195" s="12">
@@ -31945,7 +32652,7 @@
         <v>922</v>
       </c>
       <c r="C201">
-        <f t="shared" ref="C201:C250" si="30">AVERAGE(B195:B201)</f>
+        <f t="shared" ref="C201:C257" si="30">AVERAGE(B195:B201)</f>
         <v>1037.4285714285713</v>
       </c>
       <c r="D201">
@@ -31964,7 +32671,7 @@
         <v>7.7733749262288168E-2</v>
       </c>
       <c r="H201" s="12">
-        <f t="shared" ref="H201:H250" si="31">AVERAGE(G195:G201)</f>
+        <f t="shared" ref="H201:H257" si="31">AVERAGE(G195:G201)</f>
         <v>7.4432301997738898E-2</v>
       </c>
       <c r="I201">
@@ -32001,7 +32708,7 @@
         <v>834.85714285714289</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D250" si="32">(B202/5148714)*100000</f>
+        <f t="shared" ref="D202:D257" si="32">(B202/5148714)*100000</f>
         <v>9.0896484054076421</v>
       </c>
       <c r="E202">
@@ -34535,13 +35242,384 @@
       </c>
       <c r="N250">
         <v>10834</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251" s="8">
+        <v>44143</v>
+      </c>
+      <c r="B251">
+        <f>'CTP CSV'!W253</f>
+        <v>946</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="30"/>
+        <v>1095</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="32"/>
+        <v>18.37352006734109</v>
+      </c>
+      <c r="E251">
+        <v>14174</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="25"/>
+        <v>275.29204379967501</v>
+      </c>
+      <c r="G251" s="11">
+        <f t="shared" si="26"/>
+        <v>6.6741921828700437E-2</v>
+      </c>
+      <c r="H251" s="12">
+        <f t="shared" si="31"/>
+        <v>6.954692148485303E-2</v>
+      </c>
+      <c r="I251">
+        <v>21</v>
+      </c>
+      <c r="J251">
+        <v>718</v>
+      </c>
+      <c r="K251">
+        <f t="shared" ref="K251:K257" si="36">K250+B251</f>
+        <v>185688</v>
+      </c>
+      <c r="L251">
+        <f t="shared" ref="L251:L257" si="37">L250+E251</f>
+        <v>1959097</v>
+      </c>
+      <c r="M251">
+        <f t="shared" ref="M251:M257" si="38">M250+I251</f>
+        <v>4036</v>
+      </c>
+      <c r="N251">
+        <v>10854</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" s="8">
+        <v>44144</v>
+      </c>
+      <c r="B252">
+        <f>'CTP CSV'!W254</f>
+        <v>703</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="30"/>
+        <v>1067.7142857142858</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="32"/>
+        <v>13.653894933764043</v>
+      </c>
+      <c r="E252">
+        <v>8123</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="25"/>
+        <v>157.76755127591085</v>
+      </c>
+      <c r="G252" s="11">
+        <f t="shared" si="26"/>
+        <v>8.6544380155115105E-2</v>
+      </c>
+      <c r="H252" s="12">
+        <f t="shared" si="31"/>
+        <v>7.3214075498958003E-2</v>
+      </c>
+      <c r="I252">
+        <v>5</v>
+      </c>
+      <c r="J252">
+        <v>746</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="36"/>
+        <v>186391</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="37"/>
+        <v>1967220</v>
+      </c>
+      <c r="M252">
+        <f t="shared" si="38"/>
+        <v>4041</v>
+      </c>
+      <c r="N252">
+        <v>10884</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" s="8">
+        <v>44145</v>
+      </c>
+      <c r="B253">
+        <f>'CTP CSV'!W255</f>
+        <v>1347</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="30"/>
+        <v>1112.2857142857142</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="32"/>
+        <v>26.161872654025839</v>
+      </c>
+      <c r="E253">
+        <v>21287</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="25"/>
+        <v>413.44304616647963</v>
+      </c>
+      <c r="G253" s="11">
+        <f t="shared" si="26"/>
+        <v>6.3278057030112272E-2</v>
+      </c>
+      <c r="H253" s="12">
+        <f t="shared" si="31"/>
+        <v>7.0954054496054145E-2</v>
+      </c>
+      <c r="I253">
+        <v>21</v>
+      </c>
+      <c r="J253">
+        <v>784</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="36"/>
+        <v>187738</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="37"/>
+        <v>1988507</v>
+      </c>
+      <c r="M253">
+        <f t="shared" si="38"/>
+        <v>4062</v>
+      </c>
+      <c r="N253">
+        <v>10966</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254" s="8">
+        <v>44146</v>
+      </c>
+      <c r="B254">
+        <f>'CTP CSV'!W256</f>
+        <v>1257</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="30"/>
+        <v>1160.7142857142858</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="32"/>
+        <v>24.413863345293603</v>
+      </c>
+      <c r="E254">
+        <v>12197</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="25"/>
+        <v>236.89410598452349</v>
+      </c>
+      <c r="G254" s="11">
+        <f t="shared" si="26"/>
+        <v>0.10305812904812658</v>
+      </c>
+      <c r="H254" s="12">
+        <f t="shared" si="31"/>
+        <v>7.349430742158107E-2</v>
+      </c>
+      <c r="I254">
+        <v>14</v>
+      </c>
+      <c r="J254">
+        <v>780</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="36"/>
+        <v>188995</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="37"/>
+        <v>2000704</v>
+      </c>
+      <c r="M254">
+        <f t="shared" si="38"/>
+        <v>4076</v>
+      </c>
+      <c r="N254">
+        <v>11024</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255" s="8">
+        <v>44147</v>
+      </c>
+      <c r="B255">
+        <f>'CTP CSV'!W257</f>
+        <v>1495</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="30"/>
+        <v>1264.4285714285713</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="32"/>
+        <v>29.036376850607745</v>
+      </c>
+      <c r="E255">
+        <v>20236</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="25"/>
+        <v>393.03018190561761</v>
+      </c>
+      <c r="G255" s="11">
+        <f t="shared" si="26"/>
+        <v>7.3878236805692818E-2</v>
+      </c>
+      <c r="H255" s="12">
+        <f t="shared" si="31"/>
+        <v>6.9196760494288356E-2</v>
+      </c>
+      <c r="I255">
+        <v>8</v>
+      </c>
+      <c r="J255">
+        <v>810</v>
+      </c>
+      <c r="K255">
+        <f t="shared" si="36"/>
+        <v>190490</v>
+      </c>
+      <c r="L255">
+        <f t="shared" si="37"/>
+        <v>2020940</v>
+      </c>
+      <c r="M255">
+        <f t="shared" si="38"/>
+        <v>4084</v>
+      </c>
+      <c r="N255">
+        <v>11084</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256" s="8">
+        <v>44148</v>
+      </c>
+      <c r="B256">
+        <f>'CTP CSV'!W258</f>
+        <v>1611</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="30"/>
+        <v>1318.4285714285713</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="32"/>
+        <v>31.289366626307071</v>
+      </c>
+      <c r="E256">
+        <v>10049</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="25"/>
+        <v>195.17495048278073</v>
+      </c>
+      <c r="G256" s="11">
+        <f t="shared" si="26"/>
+        <v>0.16031445915016421</v>
+      </c>
+      <c r="H256" s="12">
+        <f t="shared" si="31"/>
+        <v>8.4701595399160515E-2</v>
+      </c>
+      <c r="I256">
+        <v>17</v>
+      </c>
+      <c r="J256">
+        <v>775</v>
+      </c>
+      <c r="K256">
+        <f t="shared" si="36"/>
+        <v>192101</v>
+      </c>
+      <c r="L256">
+        <f t="shared" si="37"/>
+        <v>2030989</v>
+      </c>
+      <c r="M256">
+        <f t="shared" si="38"/>
+        <v>4101</v>
+      </c>
+      <c r="N256">
+        <v>11147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257" s="8">
+        <v>44149</v>
+      </c>
+      <c r="B257">
+        <f>'CTP CSV'!W259</f>
+        <v>1913</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="30"/>
+        <v>1324.5714285714287</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="32"/>
+        <v>37.15490897338637</v>
+      </c>
+      <c r="E257">
+        <v>41146</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="25"/>
+        <v>799.15101130107439</v>
+      </c>
+      <c r="G257" s="11">
+        <f t="shared" si="26"/>
+        <v>4.6492976230982357E-2</v>
+      </c>
+      <c r="H257" s="12">
+        <f t="shared" si="31"/>
+        <v>8.5758308606984829E-2</v>
+      </c>
+      <c r="I257">
+        <v>9</v>
+      </c>
+      <c r="J257">
+        <v>781</v>
+      </c>
+      <c r="K257">
+        <f t="shared" si="36"/>
+        <v>194014</v>
+      </c>
+      <c r="L257">
+        <f t="shared" si="37"/>
+        <v>2072135</v>
+      </c>
+      <c r="M257">
+        <f t="shared" si="38"/>
+        <v>4110</v>
+      </c>
+      <c r="N257">
+        <v>11182</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B244">
     <sortCondition ref="A2"/>
   </sortState>
-  <conditionalFormatting sqref="A2:A250">
+  <conditionalFormatting sqref="A2:A257">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(),7)=0</formula>
     </cfRule>
@@ -34557,8 +35635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -34711,7 +35789,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3">
-        <f t="shared" ref="G3:G37" si="0">(E3/5148714)*100000</f>
+        <f t="shared" ref="G3:G38" si="0">(E3/5148714)*100000</f>
         <v>0.21364558217838472</v>
       </c>
       <c r="H3">
@@ -34719,11 +35797,11 @@
         <v>113</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I37" si="1">(H3/5148714)*100000</f>
+        <f t="shared" ref="I3:I38" si="1">(H3/5148714)*100000</f>
         <v>2.1947227987415889</v>
       </c>
       <c r="J3" s="13">
-        <f t="shared" ref="J3:J37" si="2">E3/H3</f>
+        <f t="shared" ref="J3:J38" si="2">E3/H3</f>
         <v>9.7345132743362831E-2</v>
       </c>
       <c r="K3" s="7"/>
@@ -34796,15 +35874,15 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N37" si="3">N3+E4</f>
+        <f t="shared" ref="N4:N38" si="3">N3+E4</f>
         <v>152</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O37" si="4">O3+H4</f>
+        <f t="shared" ref="O4:O38" si="4">O3+H4</f>
         <v>1402</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P37" si="5">P3+L4</f>
+        <f t="shared" ref="P4:P38" si="5">P3+L4</f>
         <v>1</v>
       </c>
       <c r="Q4">
@@ -34896,7 +35974,7 @@
         <v>1378</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F37" si="6">AVERAGE(E3:E6)</f>
+        <f t="shared" ref="F6:F38" si="6">AVERAGE(E3:E6)</f>
         <v>478.75</v>
       </c>
       <c r="G6">
@@ -34916,7 +35994,7 @@
         <v>8.9672675213119016E-2</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" ref="K6:K37" si="7">AVERAGE(J3:J6)</f>
+        <f t="shared" ref="K6:K38" si="7">AVERAGE(J3:J6)</f>
         <v>0.13664299024214471</v>
       </c>
       <c r="L6">
@@ -37000,7 +38078,61 @@
       <c r="C38" s="6">
         <v>44149</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <f>SUM('Daily Data'!B251:B257)</f>
+        <v>9272</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="6"/>
+        <v>7700</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>180.08380345072575</v>
+      </c>
+      <c r="H38">
+        <f>SUM('Daily Data'!E251:E257)</f>
+        <v>127212</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>2470.7528909160619</v>
+      </c>
+      <c r="J38" s="13">
+        <f t="shared" si="2"/>
+        <v>7.2886205703864421E-2</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="7"/>
+        <v>6.3519010143504667E-2</v>
+      </c>
+      <c r="L38">
+        <f>SUM('Daily Data'!I251:I257)</f>
+        <v>95</v>
+      </c>
+      <c r="M38">
+        <f>SUM('Daily Data'!J251:J257)</f>
+        <v>5394</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>194014</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="4"/>
+        <v>2072135</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="5"/>
+        <v>4110</v>
+      </c>
+      <c r="Q38">
+        <f>SUM('Daily Data'!N251:N257)</f>
+        <v>77141</v>
+      </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="4">
@@ -37089,7 +38221,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="Q2:Q36 M2:M36 L2:L36 H2:H36 E2:E36" formulaRange="1"/>
+    <ignoredError sqref="Q2:Q36 M2:M36 L2:L36 H2:H36 E2:E37" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/southCarolina.xlsx
+++ b/southCarolina.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470BF8F-617C-D44E-A2A2-408F474F2E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4CCBDF-8FC1-B648-8FD8-2B9DAE9FA82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covidTrackingProject" sheetId="8" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="72">
   <si>
     <t>date</t>
   </si>
@@ -348,7 +348,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -892,8 +892,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="21" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1275,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF749DF-C7E0-7D4D-B7D4-EAE6FC469804}">
-  <dimension ref="A1:AP284"/>
+  <dimension ref="A1:AP291"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25314,6 +25315,713 @@
         <v>37188</v>
       </c>
     </row>
+    <row r="285" spans="1:42">
+      <c r="A285" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B285" t="s">
+        <v>41</v>
+      </c>
+      <c r="C285" t="s">
+        <v>42</v>
+      </c>
+      <c r="D285">
+        <v>4685</v>
+      </c>
+      <c r="E285">
+        <v>4344</v>
+      </c>
+      <c r="F285">
+        <v>12</v>
+      </c>
+      <c r="G285">
+        <v>341</v>
+      </c>
+      <c r="H285">
+        <v>12725</v>
+      </c>
+      <c r="I285">
+        <v>12725</v>
+      </c>
+      <c r="J285">
+        <v>1250</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="M285">
+        <v>294</v>
+      </c>
+      <c r="N285">
+        <v>2406530</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>81693</v>
+      </c>
+      <c r="R285">
+        <v>2336567</v>
+      </c>
+      <c r="T285">
+        <v>122</v>
+      </c>
+      <c r="U285">
+        <v>248798</v>
+      </c>
+      <c r="V285">
+        <v>231363</v>
+      </c>
+      <c r="W285">
+        <v>3572</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>12970</v>
+      </c>
+      <c r="Z285">
+        <v>31411</v>
+      </c>
+      <c r="AC285">
+        <v>298224</v>
+      </c>
+      <c r="AD285">
+        <v>124586</v>
+      </c>
+      <c r="AF285">
+        <v>0</v>
+      </c>
+      <c r="AG285">
+        <v>2655328</v>
+      </c>
+      <c r="AH285">
+        <v>3572</v>
+      </c>
+      <c r="AI285">
+        <v>94663</v>
+      </c>
+      <c r="AJ285">
+        <v>281579</v>
+      </c>
+      <c r="AN285">
+        <v>0</v>
+      </c>
+      <c r="AO285">
+        <v>2634791</v>
+      </c>
+      <c r="AP285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:42">
+      <c r="A286" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B286" t="s">
+        <v>41</v>
+      </c>
+      <c r="C286" t="s">
+        <v>42</v>
+      </c>
+      <c r="D286">
+        <v>4739</v>
+      </c>
+      <c r="E286">
+        <v>4387</v>
+      </c>
+      <c r="F286">
+        <v>54</v>
+      </c>
+      <c r="G286">
+        <v>352</v>
+      </c>
+      <c r="H286">
+        <v>12874</v>
+      </c>
+      <c r="I286">
+        <v>12874</v>
+      </c>
+      <c r="J286">
+        <v>1278</v>
+      </c>
+      <c r="K286">
+        <v>149</v>
+      </c>
+      <c r="M286">
+        <v>295</v>
+      </c>
+      <c r="N286">
+        <v>2467415</v>
+      </c>
+      <c r="O286">
+        <v>60885</v>
+      </c>
+      <c r="P286">
+        <v>82854</v>
+      </c>
+      <c r="R286">
+        <v>2395280</v>
+      </c>
+      <c r="T286">
+        <v>129</v>
+      </c>
+      <c r="U286">
+        <v>252206</v>
+      </c>
+      <c r="V286">
+        <v>234392</v>
+      </c>
+      <c r="W286">
+        <v>3408</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>13449</v>
+      </c>
+      <c r="Z286">
+        <v>33031</v>
+      </c>
+      <c r="AC286">
+        <v>306527</v>
+      </c>
+      <c r="AD286">
+        <v>126847</v>
+      </c>
+      <c r="AF286">
+        <v>0</v>
+      </c>
+      <c r="AG286">
+        <v>2719621</v>
+      </c>
+      <c r="AH286">
+        <v>64293</v>
+      </c>
+      <c r="AI286">
+        <v>96303</v>
+      </c>
+      <c r="AJ286">
+        <v>297348</v>
+      </c>
+      <c r="AN286">
+        <v>0</v>
+      </c>
+      <c r="AO286">
+        <v>2701807</v>
+      </c>
+      <c r="AP286">
+        <v>67016</v>
+      </c>
+    </row>
+    <row r="287" spans="1:42">
+      <c r="A287" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B287" t="s">
+        <v>41</v>
+      </c>
+      <c r="C287" t="s">
+        <v>42</v>
+      </c>
+      <c r="D287">
+        <v>4751</v>
+      </c>
+      <c r="E287">
+        <v>4398</v>
+      </c>
+      <c r="F287">
+        <v>12</v>
+      </c>
+      <c r="G287">
+        <v>353</v>
+      </c>
+      <c r="H287">
+        <v>12910</v>
+      </c>
+      <c r="I287">
+        <v>12910</v>
+      </c>
+      <c r="J287">
+        <v>1276</v>
+      </c>
+      <c r="K287">
+        <v>36</v>
+      </c>
+      <c r="M287">
+        <v>307</v>
+      </c>
+      <c r="N287">
+        <v>2490424</v>
+      </c>
+      <c r="O287">
+        <v>23009</v>
+      </c>
+      <c r="P287">
+        <v>83366</v>
+      </c>
+      <c r="R287">
+        <v>2417685</v>
+      </c>
+      <c r="T287">
+        <v>140</v>
+      </c>
+      <c r="U287">
+        <v>254776</v>
+      </c>
+      <c r="V287">
+        <v>236785</v>
+      </c>
+      <c r="W287">
+        <v>2570</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>13655</v>
+      </c>
+      <c r="Z287">
+        <v>33390</v>
+      </c>
+      <c r="AC287">
+        <v>309524</v>
+      </c>
+      <c r="AD287">
+        <v>128048</v>
+      </c>
+      <c r="AF287">
+        <v>0</v>
+      </c>
+      <c r="AG287">
+        <v>2745200</v>
+      </c>
+      <c r="AH287">
+        <v>25579</v>
+      </c>
+      <c r="AI287">
+        <v>97021</v>
+      </c>
+      <c r="AJ287">
+        <v>300424</v>
+      </c>
+      <c r="AN287">
+        <v>0</v>
+      </c>
+      <c r="AO287">
+        <v>2727209</v>
+      </c>
+      <c r="AP287">
+        <v>25402</v>
+      </c>
+    </row>
+    <row r="288" spans="1:42">
+      <c r="A288" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B288" t="s">
+        <v>41</v>
+      </c>
+      <c r="C288" t="s">
+        <v>42</v>
+      </c>
+      <c r="D288">
+        <v>4756</v>
+      </c>
+      <c r="E288">
+        <v>4402</v>
+      </c>
+      <c r="F288">
+        <v>5</v>
+      </c>
+      <c r="G288">
+        <v>354</v>
+      </c>
+      <c r="H288">
+        <v>12960</v>
+      </c>
+      <c r="I288">
+        <v>12960</v>
+      </c>
+      <c r="J288">
+        <v>1046</v>
+      </c>
+      <c r="K288">
+        <v>50</v>
+      </c>
+      <c r="M288">
+        <v>261</v>
+      </c>
+      <c r="N288">
+        <v>2512239</v>
+      </c>
+      <c r="O288">
+        <v>21815</v>
+      </c>
+      <c r="P288">
+        <v>83628</v>
+      </c>
+      <c r="R288">
+        <v>2439043</v>
+      </c>
+      <c r="T288">
+        <v>111</v>
+      </c>
+      <c r="U288">
+        <v>257320</v>
+      </c>
+      <c r="V288">
+        <v>239119</v>
+      </c>
+      <c r="W288">
+        <v>2544</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>13762</v>
+      </c>
+      <c r="Z288">
+        <v>33663</v>
+      </c>
+      <c r="AC288">
+        <v>312315</v>
+      </c>
+      <c r="AD288">
+        <v>129227</v>
+      </c>
+      <c r="AF288">
+        <v>0</v>
+      </c>
+      <c r="AG288">
+        <v>2769559</v>
+      </c>
+      <c r="AH288">
+        <v>24359</v>
+      </c>
+      <c r="AI288">
+        <v>97390</v>
+      </c>
+      <c r="AJ288">
+        <v>303478</v>
+      </c>
+      <c r="AN288">
+        <v>0</v>
+      </c>
+      <c r="AO288">
+        <v>2751358</v>
+      </c>
+      <c r="AP288">
+        <v>24149</v>
+      </c>
+    </row>
+    <row r="289" spans="1:42">
+      <c r="A289" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B289" t="s">
+        <v>41</v>
+      </c>
+      <c r="C289" t="s">
+        <v>42</v>
+      </c>
+      <c r="D289">
+        <v>4800</v>
+      </c>
+      <c r="E289">
+        <v>4444</v>
+      </c>
+      <c r="F289">
+        <v>44</v>
+      </c>
+      <c r="G289">
+        <v>356</v>
+      </c>
+      <c r="H289">
+        <v>13070</v>
+      </c>
+      <c r="I289">
+        <v>13070</v>
+      </c>
+      <c r="J289">
+        <v>1046</v>
+      </c>
+      <c r="K289">
+        <v>110</v>
+      </c>
+      <c r="M289">
+        <v>261</v>
+      </c>
+      <c r="N289">
+        <v>2531555</v>
+      </c>
+      <c r="O289">
+        <v>19316</v>
+      </c>
+      <c r="P289">
+        <v>83898</v>
+      </c>
+      <c r="R289">
+        <v>2457608</v>
+      </c>
+      <c r="T289">
+        <v>111</v>
+      </c>
+      <c r="U289">
+        <v>260119</v>
+      </c>
+      <c r="V289">
+        <v>241471</v>
+      </c>
+      <c r="W289">
+        <v>2799</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>13817</v>
+      </c>
+      <c r="Z289">
+        <v>34538</v>
+      </c>
+      <c r="AC289">
+        <v>315418</v>
+      </c>
+      <c r="AD289">
+        <v>130905</v>
+      </c>
+      <c r="AF289">
+        <v>0</v>
+      </c>
+      <c r="AG289">
+        <v>2791674</v>
+      </c>
+      <c r="AH289">
+        <v>22115</v>
+      </c>
+      <c r="AI289">
+        <v>97715</v>
+      </c>
+      <c r="AJ289">
+        <v>311277</v>
+      </c>
+      <c r="AN289">
+        <v>0</v>
+      </c>
+      <c r="AO289">
+        <v>2773026</v>
+      </c>
+      <c r="AP289">
+        <v>21668</v>
+      </c>
+    </row>
+    <row r="290" spans="1:42">
+      <c r="A290" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B290" t="s">
+        <v>41</v>
+      </c>
+      <c r="C290" t="s">
+        <v>42</v>
+      </c>
+      <c r="D290">
+        <v>4843</v>
+      </c>
+      <c r="E290">
+        <v>4484</v>
+      </c>
+      <c r="F290">
+        <v>43</v>
+      </c>
+      <c r="G290">
+        <v>359</v>
+      </c>
+      <c r="H290">
+        <v>13179</v>
+      </c>
+      <c r="I290">
+        <v>13179</v>
+      </c>
+      <c r="J290">
+        <v>1524</v>
+      </c>
+      <c r="K290">
+        <v>109</v>
+      </c>
+      <c r="M290">
+        <v>333</v>
+      </c>
+      <c r="N290">
+        <v>2545248</v>
+      </c>
+      <c r="O290">
+        <v>13693</v>
+      </c>
+      <c r="P290">
+        <v>84169</v>
+      </c>
+      <c r="R290">
+        <v>2470876</v>
+      </c>
+      <c r="T290">
+        <v>113</v>
+      </c>
+      <c r="U290">
+        <v>262774</v>
+      </c>
+      <c r="V290">
+        <v>243583</v>
+      </c>
+      <c r="W290">
+        <v>2655</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>13910</v>
+      </c>
+      <c r="Z290">
+        <v>35556</v>
+      </c>
+      <c r="AC290">
+        <v>317955</v>
+      </c>
+      <c r="AD290">
+        <v>132358</v>
+      </c>
+      <c r="AF290">
+        <v>0</v>
+      </c>
+      <c r="AG290">
+        <v>2808022</v>
+      </c>
+      <c r="AH290">
+        <v>16348</v>
+      </c>
+      <c r="AI290">
+        <v>98079</v>
+      </c>
+      <c r="AJ290">
+        <v>319131</v>
+      </c>
+      <c r="AN290">
+        <v>0</v>
+      </c>
+      <c r="AO290">
+        <v>2788831</v>
+      </c>
+      <c r="AP290">
+        <v>15805</v>
+      </c>
+    </row>
+    <row r="291" spans="1:42">
+      <c r="A291" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B291" t="s">
+        <v>41</v>
+      </c>
+      <c r="C291" t="s">
+        <v>42</v>
+      </c>
+      <c r="D291">
+        <v>4872</v>
+      </c>
+      <c r="E291">
+        <v>4512</v>
+      </c>
+      <c r="F291">
+        <v>29</v>
+      </c>
+      <c r="G291">
+        <v>360</v>
+      </c>
+      <c r="H291">
+        <v>13267</v>
+      </c>
+      <c r="I291">
+        <v>13267</v>
+      </c>
+      <c r="J291">
+        <v>1460</v>
+      </c>
+      <c r="K291">
+        <v>88</v>
+      </c>
+      <c r="M291">
+        <v>315</v>
+      </c>
+      <c r="N291">
+        <v>2577819</v>
+      </c>
+      <c r="O291">
+        <v>32571</v>
+      </c>
+      <c r="P291">
+        <v>84768</v>
+      </c>
+      <c r="R291">
+        <v>2502705</v>
+      </c>
+      <c r="T291">
+        <v>143</v>
+      </c>
+      <c r="U291">
+        <v>267076</v>
+      </c>
+      <c r="V291">
+        <v>247361</v>
+      </c>
+      <c r="W291">
+        <v>4302</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>14106</v>
+      </c>
+      <c r="Z291">
+        <v>36475</v>
+      </c>
+      <c r="AC291">
+        <v>322475</v>
+      </c>
+      <c r="AD291">
+        <v>133902</v>
+      </c>
+      <c r="AF291">
+        <v>0</v>
+      </c>
+      <c r="AG291">
+        <v>2844895</v>
+      </c>
+      <c r="AH291">
+        <v>36873</v>
+      </c>
+      <c r="AI291">
+        <v>98874</v>
+      </c>
+      <c r="AJ291">
+        <v>326401</v>
+      </c>
+      <c r="AN291">
+        <v>0</v>
+      </c>
+      <c r="AO291">
+        <v>2825180</v>
+      </c>
+      <c r="AP291">
+        <v>36349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25323,8 +26031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD158A91-9527-4640-92DA-366389F3CB67}">
   <dimension ref="A1:J303"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView topLeftCell="A269" workbookViewId="0">
+      <selection activeCell="I294" sqref="I294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35363,11 +36071,11 @@
         <v>1402.7142857142858</v>
       </c>
       <c r="E258" s="15">
-        <f t="shared" ref="E258:E284" si="22">B258/C258</f>
+        <f t="shared" ref="E258:E291" si="22">B258/C258</f>
         <v>8.0925795436066997E-2</v>
       </c>
       <c r="F258" s="16">
-        <f t="shared" ref="F258:F284" si="23">(B258/5148714)*100000</f>
+        <f t="shared" ref="F258:F291" si="23">(B258/5148714)*100000</f>
         <v>28.997532199302583</v>
       </c>
       <c r="G258">
@@ -35605,7 +36313,7 @@
         <v>32504</v>
       </c>
       <c r="D264">
-        <f t="shared" ref="D264:D327" si="24">AVERAGE(B258:B264)</f>
+        <f t="shared" ref="D264:D291" si="24">AVERAGE(B258:B264)</f>
         <v>1572</v>
       </c>
       <c r="E264" s="15">
@@ -35621,7 +36329,7 @@
         <v>43</v>
       </c>
       <c r="H264">
-        <f t="shared" ref="H264:H327" si="25">AVERAGE(G258:G264)</f>
+        <f t="shared" ref="H264:H284" si="25">AVERAGE(G258:G264)</f>
         <v>23.428571428571427</v>
       </c>
       <c r="I264">
@@ -36203,7 +36911,7 @@
         <v>1029</v>
       </c>
       <c r="J278">
-        <f t="shared" ref="J278:J309" si="26">AVERAGE(I273:I279)</f>
+        <f t="shared" ref="J278:J284" si="26">AVERAGE(I273:I279)</f>
         <v>994.71428571428567</v>
       </c>
     </row>
@@ -36450,7 +37158,7 @@
       </c>
       <c r="J284">
         <f t="shared" si="26"/>
-        <v>1152</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -36459,7 +37167,39 @@
       </c>
       <c r="B285">
         <f>covidTrackingProject!W285</f>
-        <v>0</v>
+        <v>3572</v>
+      </c>
+      <c r="C285">
+        <f>covidTrackingProject!AH285</f>
+        <v>3572</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="24"/>
+        <v>2794.7142857142858</v>
+      </c>
+      <c r="E285" s="15">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="F285" s="16">
+        <f t="shared" si="23"/>
+        <v>69.376547231017298</v>
+      </c>
+      <c r="G285">
+        <f>covidTrackingProject!F285</f>
+        <v>12</v>
+      </c>
+      <c r="H285">
+        <f t="shared" ref="H285:H291" si="27">AVERAGE(G279:G285)</f>
+        <v>24</v>
+      </c>
+      <c r="I285">
+        <f>covidTrackingProject!J285</f>
+        <v>1250</v>
+      </c>
+      <c r="J285">
+        <f t="shared" ref="J285:J291" si="28">AVERAGE(I280:I286)</f>
+        <v>1202.1428571428571</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -36468,7 +37208,39 @@
       </c>
       <c r="B286">
         <f>covidTrackingProject!W286</f>
-        <v>0</v>
+        <v>3408</v>
+      </c>
+      <c r="C286">
+        <f>covidTrackingProject!AH286</f>
+        <v>64293</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="24"/>
+        <v>2872.4285714285716</v>
+      </c>
+      <c r="E286" s="15">
+        <f t="shared" si="22"/>
+        <v>5.300732583640521E-2</v>
+      </c>
+      <c r="F286" s="16">
+        <f t="shared" si="23"/>
+        <v>66.191285823994107</v>
+      </c>
+      <c r="G286">
+        <f>covidTrackingProject!F286</f>
+        <v>54</v>
+      </c>
+      <c r="H286">
+        <f t="shared" si="27"/>
+        <v>24.714285714285715</v>
+      </c>
+      <c r="I286">
+        <f>covidTrackingProject!J286</f>
+        <v>1278</v>
+      </c>
+      <c r="J286">
+        <f t="shared" si="28"/>
+        <v>1238</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -36477,55 +37249,239 @@
       </c>
       <c r="B287">
         <f>covidTrackingProject!W287</f>
-        <v>0</v>
+        <v>2570</v>
+      </c>
+      <c r="C287">
+        <f>covidTrackingProject!AH287</f>
+        <v>25579</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="24"/>
+        <v>2874.8571428571427</v>
+      </c>
+      <c r="E287" s="15">
+        <f t="shared" si="22"/>
+        <v>0.10047304429414754</v>
+      </c>
+      <c r="F287" s="16">
+        <f t="shared" si="23"/>
+        <v>49.91537692713171</v>
+      </c>
+      <c r="G287">
+        <f>covidTrackingProject!F287</f>
+        <v>12</v>
+      </c>
+      <c r="H287">
+        <f t="shared" si="27"/>
+        <v>24.571428571428573</v>
+      </c>
+      <c r="I287">
+        <f>covidTrackingProject!J287</f>
+        <v>1276</v>
+      </c>
+      <c r="J287">
+        <f t="shared" si="28"/>
+        <v>1219</v>
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="5"/>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="5"/>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="5"/>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="5"/>
-    </row>
-    <row r="292" spans="1:1">
+      <c r="A288" s="5">
+        <v>44180</v>
+      </c>
+      <c r="B288">
+        <f>covidTrackingProject!W288</f>
+        <v>2544</v>
+      </c>
+      <c r="C288">
+        <f>covidTrackingProject!AH288</f>
+        <v>24359</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="24"/>
+        <v>2909.4285714285716</v>
+      </c>
+      <c r="E288" s="15">
+        <f t="shared" si="22"/>
+        <v>0.10443778480233179</v>
+      </c>
+      <c r="F288" s="16">
+        <f t="shared" si="23"/>
+        <v>49.410396460164613</v>
+      </c>
+      <c r="G288">
+        <f>covidTrackingProject!F288</f>
+        <v>5</v>
+      </c>
+      <c r="H288">
+        <f t="shared" si="27"/>
+        <v>24.428571428571427</v>
+      </c>
+      <c r="I288">
+        <f>covidTrackingProject!J288</f>
+        <v>1046</v>
+      </c>
+      <c r="J288">
+        <f t="shared" si="28"/>
+        <v>1194.5714285714287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="A289" s="5">
+        <v>44181</v>
+      </c>
+      <c r="B289">
+        <f>covidTrackingProject!W289</f>
+        <v>2799</v>
+      </c>
+      <c r="C289">
+        <f>covidTrackingProject!AH289</f>
+        <v>22115</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="24"/>
+        <v>2953.5714285714284</v>
+      </c>
+      <c r="E289" s="15">
+        <f t="shared" si="22"/>
+        <v>0.12656567940312005</v>
+      </c>
+      <c r="F289" s="16">
+        <f t="shared" si="23"/>
+        <v>54.363089501572624</v>
+      </c>
+      <c r="G289">
+        <f>covidTrackingProject!F289</f>
+        <v>44</v>
+      </c>
+      <c r="H289">
+        <f t="shared" si="27"/>
+        <v>26.857142857142858</v>
+      </c>
+      <c r="I289">
+        <f>covidTrackingProject!J289</f>
+        <v>1046</v>
+      </c>
+      <c r="J289">
+        <f t="shared" si="28"/>
+        <v>1236.2857142857142</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="A290" s="5">
+        <v>44182</v>
+      </c>
+      <c r="B290">
+        <f>covidTrackingProject!W290</f>
+        <v>2655</v>
+      </c>
+      <c r="C290">
+        <f>covidTrackingProject!AH290</f>
+        <v>16348</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="24"/>
+        <v>3012.5714285714284</v>
+      </c>
+      <c r="E290" s="15">
+        <f t="shared" si="22"/>
+        <v>0.16240518717885979</v>
+      </c>
+      <c r="F290" s="16">
+        <f t="shared" si="23"/>
+        <v>51.566274607601038</v>
+      </c>
+      <c r="G290">
+        <f>covidTrackingProject!F290</f>
+        <v>43</v>
+      </c>
+      <c r="H290">
+        <f t="shared" si="27"/>
+        <v>30.857142857142858</v>
+      </c>
+      <c r="I290">
+        <f>covidTrackingProject!J290</f>
+        <v>1524</v>
+      </c>
+      <c r="J290">
+        <f t="shared" si="28"/>
+        <v>1268.5714285714287</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291" s="5">
+        <v>44183</v>
+      </c>
+      <c r="B291">
+        <f>covidTrackingProject!W291</f>
+        <v>4302</v>
+      </c>
+      <c r="C291">
+        <f>covidTrackingProject!AH291</f>
+        <v>36873</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="24"/>
+        <v>3121.4285714285716</v>
+      </c>
+      <c r="E291" s="15">
+        <f t="shared" si="22"/>
+        <v>0.11667073468391506</v>
+      </c>
+      <c r="F291" s="16">
+        <f t="shared" si="23"/>
+        <v>83.554844957401016</v>
+      </c>
+      <c r="G291">
+        <f>covidTrackingProject!F291</f>
+        <v>29</v>
+      </c>
+      <c r="H291">
+        <f t="shared" si="27"/>
+        <v>28.428571428571427</v>
+      </c>
+      <c r="I291">
+        <f>covidTrackingProject!J291</f>
+        <v>1460</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="28"/>
+        <v>1271.6666666666667</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="5"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:10">
       <c r="A293" s="5"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:10">
       <c r="A294" s="5"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:10">
       <c r="A295" s="5"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:10">
       <c r="A296" s="5"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:10">
       <c r="A297" s="5"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:10">
       <c r="A298" s="5"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:10">
       <c r="A299" s="5"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:10">
       <c r="A300" s="5"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:10">
       <c r="A301" s="5"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:10">
       <c r="A302" s="5"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:10">
       <c r="A303" s="5"/>
     </row>
   </sheetData>
@@ -36548,8 +37504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064BE65-B8D2-5741-A35F-4FAC97112B61}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36615,7 +37571,7 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="19">
-        <f>(B2/5148714)*100000</f>
+        <f t="shared" ref="I2:I43" si="0">(B2/5148714)*100000</f>
         <v>3.8844651305160863E-2</v>
       </c>
     </row>
@@ -36640,7 +37596,7 @@
         <v>0.95575221238938057</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F42" si="0">B3/C3</f>
+        <f t="shared" ref="F3:F43" si="1">B3/C3</f>
         <v>9.7345132743362831E-2</v>
       </c>
       <c r="G3">
@@ -36652,7 +37608,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="19">
-        <f>(B3/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>0.21364558217838472</v>
       </c>
     </row>
@@ -36669,15 +37625,15 @@
         <v>1284</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:E42" si="1">(B4-B3)/B4</f>
+        <f t="shared" ref="D4:E43" si="2">(B4-B3)/B4</f>
         <v>0.92086330935251803</v>
       </c>
       <c r="E4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.911993769470405</v>
+      </c>
+      <c r="F4" s="18">
         <f t="shared" si="1"/>
-        <v>0.911993769470405</v>
-      </c>
-      <c r="F4" s="18">
-        <f t="shared" si="0"/>
         <v>0.10825545171339564</v>
       </c>
       <c r="G4">
@@ -36685,11 +37641,11 @@
         <v>1</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H42" si="2">(G4-G3)/G4</f>
+        <f t="shared" ref="H4:H43" si="3">(G4-G3)/G4</f>
         <v>1</v>
       </c>
       <c r="I4" s="19">
-        <f>(B4/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>2.6997032657086799</v>
       </c>
     </row>
@@ -36706,15 +37662,15 @@
         <v>1540</v>
       </c>
       <c r="D5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.64082687338501287</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="2"/>
+        <v>0.16623376623376623</v>
+      </c>
+      <c r="F5" s="18">
         <f t="shared" si="1"/>
-        <v>0.64082687338501287</v>
-      </c>
-      <c r="E5" s="18">
-        <f t="shared" si="1"/>
-        <v>0.16623376623376623</v>
-      </c>
-      <c r="F5" s="18">
-        <f t="shared" si="0"/>
         <v>0.2512987012987013</v>
       </c>
       <c r="G5">
@@ -36722,11 +37678,11 @@
         <v>12</v>
       </c>
       <c r="H5" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="I5" s="19">
-        <f>(B5/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>7.5164400275486276</v>
       </c>
     </row>
@@ -36743,15 +37699,15 @@
         <v>15367</v>
       </c>
       <c r="D6" s="18">
+        <f t="shared" si="2"/>
+        <v>0.71915820029027577</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="2"/>
+        <v>0.89978525411596277</v>
+      </c>
+      <c r="F6" s="18">
         <f t="shared" si="1"/>
-        <v>0.71915820029027577</v>
-      </c>
-      <c r="E6" s="18">
-        <f t="shared" si="1"/>
-        <v>0.89978525411596277</v>
-      </c>
-      <c r="F6" s="18">
-        <f t="shared" si="0"/>
         <v>8.9672675213119016E-2</v>
       </c>
       <c r="G6">
@@ -36759,11 +37715,11 @@
         <v>27</v>
       </c>
       <c r="H6" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="I6" s="19">
-        <f>(B6/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>26.763964749255834</v>
       </c>
     </row>
@@ -36780,15 +37736,15 @@
         <v>11779</v>
       </c>
       <c r="D7" s="18">
+        <f t="shared" si="2"/>
+        <v>-6.8217054263565891E-2</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.30460989897274809</v>
+      </c>
+      <c r="F7" s="18">
         <f t="shared" si="1"/>
-        <v>-6.8217054263565891E-2</v>
-      </c>
-      <c r="E7" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.30460989897274809</v>
-      </c>
-      <c r="F7" s="18">
-        <f t="shared" si="0"/>
         <v>0.1095169369216402</v>
       </c>
       <c r="G7">
@@ -36796,11 +37752,11 @@
         <v>40</v>
       </c>
       <c r="H7" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="I7" s="19">
-        <f>(B7/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>25.054800091828753</v>
       </c>
     </row>
@@ -36817,15 +37773,15 @@
         <v>8740</v>
       </c>
       <c r="D8" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.24157844080846969</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.34771167048054918</v>
+      </c>
+      <c r="F8" s="18">
         <f t="shared" si="1"/>
-        <v>-0.24157844080846969</v>
-      </c>
-      <c r="E8" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.34771167048054918</v>
-      </c>
-      <c r="F8" s="18">
-        <f t="shared" si="0"/>
         <v>0.11887871853546911</v>
       </c>
       <c r="G8">
@@ -36833,11 +37789,11 @@
         <v>39</v>
       </c>
       <c r="H8" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.564102564102564E-2</v>
       </c>
       <c r="I8" s="19">
-        <f>(B8/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>20.179796353031065</v>
       </c>
     </row>
@@ -36854,15 +37810,15 @@
         <v>10181</v>
       </c>
       <c r="D9" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.1777557100297914E-2</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.14153815931637365</v>
+      </c>
+      <c r="F9" s="18">
         <f t="shared" si="1"/>
-        <v>-3.1777557100297914E-2</v>
-      </c>
-      <c r="E9" s="18">
-        <f t="shared" si="1"/>
-        <v>0.14153815931637365</v>
-      </c>
-      <c r="F9" s="18">
-        <f t="shared" si="0"/>
         <v>9.8909733817896084E-2</v>
       </c>
       <c r="G9">
@@ -36870,11 +37826,11 @@
         <v>47</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1702127659574468</v>
       </c>
       <c r="I9" s="19">
-        <f>(B9/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>19.558281932148496</v>
       </c>
     </row>
@@ -36891,15 +37847,15 @@
         <v>12602</v>
       </c>
       <c r="D10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.18527508090614886</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="2"/>
+        <v>0.19211236311696556</v>
+      </c>
+      <c r="F10" s="18">
         <f t="shared" si="1"/>
-        <v>0.18527508090614886</v>
-      </c>
-      <c r="E10" s="18">
-        <f t="shared" si="1"/>
-        <v>0.19211236311696556</v>
-      </c>
-      <c r="F10" s="18">
-        <f t="shared" si="0"/>
         <v>9.8079669893667676E-2</v>
       </c>
       <c r="G10">
@@ -36907,11 +37863,11 @@
         <v>101</v>
       </c>
       <c r="H10" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.53465346534653468</v>
       </c>
       <c r="I10" s="19">
-        <f>(B10/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>24.005994506589413</v>
       </c>
     </row>
@@ -36928,15 +37884,15 @@
         <v>19347</v>
       </c>
       <c r="D11" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.18618042226487524</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="2"/>
+        <v>0.34863286297617202</v>
+      </c>
+      <c r="F11" s="18">
         <f t="shared" si="1"/>
-        <v>-0.18618042226487524</v>
-      </c>
-      <c r="E11" s="18">
-        <f t="shared" si="1"/>
-        <v>0.34863286297617202</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="0"/>
         <v>5.3858479350803741E-2</v>
       </c>
       <c r="G11">
@@ -36944,11 +37900,11 @@
         <v>63</v>
       </c>
       <c r="H11" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.60317460317460314</v>
       </c>
       <c r="I11" s="19">
-        <f>(B11/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>20.238063329988808</v>
       </c>
     </row>
@@ -36965,15 +37921,15 @@
         <v>28653</v>
       </c>
       <c r="D12" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.18949771689497716</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="2"/>
+        <v>0.32478274526227618</v>
+      </c>
+      <c r="F12" s="18">
         <f t="shared" si="1"/>
-        <v>-0.18949771689497716</v>
-      </c>
-      <c r="E12" s="18">
-        <f t="shared" si="1"/>
-        <v>0.32478274526227618</v>
-      </c>
-      <c r="F12" s="18">
-        <f t="shared" si="0"/>
         <v>3.057271489896346E-2</v>
       </c>
       <c r="G12">
@@ -36981,11 +37937,11 @@
         <v>50</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.26</v>
       </c>
       <c r="I12" s="19">
-        <f>(B12/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>17.013957271660455</v>
       </c>
     </row>
@@ -37002,15 +37958,15 @@
         <v>49294</v>
       </c>
       <c r="D13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.41129032258064518</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="2"/>
+        <v>0.41873250294153447</v>
+      </c>
+      <c r="F13" s="18">
         <f t="shared" si="1"/>
-        <v>0.41129032258064518</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" si="1"/>
-        <v>0.41873250294153447</v>
-      </c>
-      <c r="F13" s="18">
-        <f t="shared" si="0"/>
         <v>3.0186229561407069E-2</v>
       </c>
       <c r="G13">
@@ -37018,11 +37974,11 @@
         <v>45</v>
       </c>
       <c r="H13" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.1111111111111111</v>
       </c>
       <c r="I13" s="19">
-        <f>(B13/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>28.900420571039685</v>
       </c>
     </row>
@@ -37039,15 +37995,15 @@
         <v>30609</v>
       </c>
       <c r="D14" s="18">
+        <f t="shared" si="2"/>
+        <v>7.3382254836557703E-3</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.61044137345225258</v>
+      </c>
+      <c r="F14" s="18">
         <f t="shared" si="1"/>
-        <v>7.3382254836557703E-3</v>
-      </c>
-      <c r="E14" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.61044137345225258</v>
-      </c>
-      <c r="F14" s="18">
-        <f t="shared" si="0"/>
         <v>4.8972524420921953E-2</v>
       </c>
       <c r="G14">
@@ -37055,11 +38011,11 @@
         <v>62</v>
       </c>
       <c r="H14" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27419354838709675</v>
       </c>
       <c r="I14" s="19">
-        <f>(B14/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>29.114066153218065</v>
       </c>
     </row>
@@ -37076,15 +38032,15 @@
         <v>43225</v>
       </c>
       <c r="D15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.4056304520222046</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="2"/>
+        <v>0.29186813186813187</v>
+      </c>
+      <c r="F15" s="18">
         <f t="shared" si="1"/>
-        <v>0.4056304520222046</v>
-      </c>
-      <c r="E15" s="18">
-        <f t="shared" si="1"/>
-        <v>0.29186813186813187</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="0"/>
         <v>5.8345864661654138E-2</v>
       </c>
       <c r="G15">
@@ -37092,11 +38048,11 @@
         <v>58</v>
       </c>
       <c r="H15" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.8965517241379309E-2</v>
       </c>
       <c r="I15" s="19">
-        <f>(B15/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>48.983105295807846</v>
       </c>
     </row>
@@ -37113,15 +38069,15 @@
         <v>9162</v>
       </c>
       <c r="D16" s="18">
+        <f t="shared" si="2"/>
+        <v>0.37558801683585047</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.7178563632394672</v>
+      </c>
+      <c r="F16" s="18">
         <f t="shared" si="1"/>
-        <v>0.37558801683585047</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" si="1"/>
-        <v>-3.7178563632394672</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="0"/>
         <v>0.44084261078367171</v>
       </c>
       <c r="G16">
@@ -37129,11 +38085,11 @@
         <v>54</v>
       </c>
       <c r="H16" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.407407407407407E-2</v>
       </c>
       <c r="I16" s="19">
-        <f>(B16/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>78.446773310772357</v>
       </c>
     </row>
@@ -37150,15 +38106,15 @@
         <v>54343</v>
       </c>
       <c r="D17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.30732292917166865</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="2"/>
+        <v>0.83140422869550812</v>
+      </c>
+      <c r="F17" s="18">
         <f t="shared" si="1"/>
-        <v>0.30732292917166865</v>
-      </c>
-      <c r="E17" s="18">
-        <f t="shared" si="1"/>
-        <v>0.83140422869550812</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="0"/>
         <v>0.10729992823362715</v>
       </c>
       <c r="G17">
@@ -37166,11 +38122,11 @@
         <v>45</v>
       </c>
       <c r="H17" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
       <c r="I17" s="19">
-        <f>(B17/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>113.2515808801965</v>
       </c>
     </row>
@@ -37187,15 +38143,15 @@
         <v>54915</v>
       </c>
       <c r="D18" s="18">
+        <f t="shared" si="2"/>
+        <v>0.28480313994848522</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="2"/>
+        <v>1.0416097605390149E-2</v>
+      </c>
+      <c r="F18" s="18">
         <f t="shared" si="1"/>
-        <v>0.28480313994848522</v>
-      </c>
-      <c r="E18" s="18">
-        <f t="shared" si="1"/>
-        <v>1.0416097605390149E-2</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="0"/>
         <v>0.14846581079850679</v>
       </c>
       <c r="G18">
@@ -37203,11 +38159,11 @@
         <v>67</v>
       </c>
       <c r="H18" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32835820895522388</v>
       </c>
       <c r="I18" s="19">
-        <f>(B18/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>158.35022104548827</v>
       </c>
     </row>
@@ -37224,15 +38180,15 @@
         <v>69529</v>
       </c>
       <c r="D19" s="18">
+        <f t="shared" si="2"/>
+        <v>0.28776098541102474</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="2"/>
+        <v>0.21018567791856635</v>
+      </c>
+      <c r="F19" s="18">
         <f t="shared" si="1"/>
-        <v>0.28776098541102474</v>
-      </c>
-      <c r="E19" s="18">
-        <f t="shared" si="1"/>
-        <v>0.21018567791856635</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="0"/>
         <v>0.16463633879388456</v>
       </c>
       <c r="G19">
@@ -37240,11 +38196,11 @@
         <v>102</v>
       </c>
       <c r="H19" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34313725490196079</v>
       </c>
       <c r="I19" s="19">
-        <f>(B19/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>222.32736174508821</v>
       </c>
     </row>
@@ -37261,15 +38217,15 @@
         <v>67397</v>
       </c>
       <c r="D20" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.1844780341200388E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="2"/>
+        <v>-3.1633455495051706E-2</v>
+      </c>
+      <c r="F20" s="18">
         <f t="shared" si="1"/>
-        <v>-1.1844780341200388E-2</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" si="1"/>
-        <v>-3.1633455495051706E-2</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="0"/>
         <v>0.1678561360297936</v>
       </c>
       <c r="G20">
@@ -37277,11 +38233,11 @@
         <v>138</v>
       </c>
       <c r="H20" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2608695652173913</v>
       </c>
       <c r="I20" s="19">
-        <f>(B20/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>219.72477010764243</v>
       </c>
     </row>
@@ -37298,15 +38254,15 @@
         <v>73903</v>
       </c>
       <c r="D21" s="18">
+        <f t="shared" si="2"/>
+        <v>0.12390614109811818</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="2"/>
+        <v>8.8034315251072345E-2</v>
+      </c>
+      <c r="F21" s="18">
         <f t="shared" si="1"/>
-        <v>0.12390614109811818</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="1"/>
-        <v>8.8034315251072345E-2</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="0"/>
         <v>0.17472903671028239</v>
       </c>
       <c r="G21">
@@ -37314,11 +38270,11 @@
         <v>184</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="I21" s="19">
-        <f>(B21/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>250.8004911517711</v>
       </c>
     </row>
@@ -37335,15 +38291,15 @@
         <v>76497</v>
       </c>
       <c r="D22" s="18">
+        <f t="shared" si="2"/>
+        <v>-4.170700225879316E-2</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="2"/>
+        <v>3.3909826529144933E-2</v>
+      </c>
+      <c r="F22" s="18">
         <f t="shared" si="1"/>
-        <v>-4.170700225879316E-2</v>
-      </c>
-      <c r="E22" s="18">
-        <f t="shared" si="1"/>
-        <v>3.3909826529144933E-2</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="0"/>
         <v>0.16204557041452605</v>
       </c>
       <c r="G22">
@@ -37351,11 +38307,11 @@
         <v>330</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44242424242424244</v>
       </c>
       <c r="I22" s="19">
-        <f>(B22/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>240.75914878938701</v>
       </c>
     </row>
@@ -37372,15 +38328,15 @@
         <v>73379</v>
       </c>
       <c r="D23" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.17042772165045794</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="2"/>
+        <v>-4.2491721064609765E-2</v>
+      </c>
+      <c r="F23" s="18">
         <f t="shared" si="1"/>
-        <v>-0.17042772165045794</v>
-      </c>
-      <c r="E23" s="18">
-        <f t="shared" si="1"/>
-        <v>-4.2491721064609765E-2</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" si="0"/>
         <v>0.14433284727238038</v>
       </c>
       <c r="G23">
@@ -37388,11 +38344,11 @@
         <v>286</v>
       </c>
       <c r="H23" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.15384615384615385</v>
       </c>
       <c r="I23" s="19">
-        <f>(B23/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>205.70185098647934</v>
       </c>
     </row>
@@ -37409,15 +38365,15 @@
         <v>66206</v>
       </c>
       <c r="D24" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.19523755783771585</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.10834365465365677</v>
+      </c>
+      <c r="F24" s="18">
         <f t="shared" si="1"/>
-        <v>-0.19523755783771585</v>
-      </c>
-      <c r="E24" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.10834365465365677</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="0"/>
         <v>0.1338398332477419</v>
       </c>
       <c r="G24">
@@ -37425,11 +38381,11 @@
         <v>256</v>
       </c>
       <c r="H24" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.1171875</v>
       </c>
       <c r="I24" s="19">
-        <f>(B24/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>172.1012276075152</v>
       </c>
     </row>
@@ -37446,15 +38402,15 @@
         <v>82325</v>
       </c>
       <c r="D25" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.37978822796636563</v>
+      </c>
+      <c r="E25" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1957971454600668</v>
+      </c>
+      <c r="F25" s="18">
         <f t="shared" si="1"/>
-        <v>-0.37978822796636563</v>
-      </c>
-      <c r="E25" s="18">
-        <f t="shared" si="1"/>
-        <v>0.1957971454600668</v>
-      </c>
-      <c r="F25" s="18">
-        <f t="shared" si="0"/>
         <v>7.800789553598543E-2</v>
       </c>
       <c r="G25">
@@ -37462,11 +38418,11 @@
         <v>253</v>
       </c>
       <c r="H25" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.1857707509881422E-2</v>
       </c>
       <c r="I25" s="19">
-        <f>(B25/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>124.73017534087154</v>
       </c>
     </row>
@@ -37483,15 +38439,15 @@
         <v>51732</v>
       </c>
       <c r="D26" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.18640310363938667</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.59137477770045621</v>
+      </c>
+      <c r="F26" s="18">
         <f t="shared" si="1"/>
-        <v>-0.18640310363938667</v>
-      </c>
-      <c r="E26" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.59137477770045621</v>
-      </c>
-      <c r="F26" s="18">
-        <f t="shared" si="0"/>
         <v>0.10463542874816362</v>
       </c>
       <c r="G26">
@@ -37499,11 +38455,11 @@
         <v>233</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.5836909871244635E-2</v>
       </c>
       <c r="I26" s="19">
-        <f>(B26/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>105.13304875741788</v>
       </c>
     </row>
@@ -37520,15 +38476,15 @@
         <v>23491</v>
       </c>
       <c r="D27" s="18">
+        <f t="shared" si="2"/>
+        <v>9.0863285186429291E-2</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" si="2"/>
+        <v>-1.202205099825465</v>
+      </c>
+      <c r="F27" s="18">
         <f t="shared" si="1"/>
-        <v>9.0863285186429291E-2</v>
-      </c>
-      <c r="E27" s="18">
-        <f t="shared" si="1"/>
-        <v>-1.202205099825465</v>
-      </c>
-      <c r="F27" s="18">
-        <f t="shared" si="0"/>
         <v>0.25345877144438295</v>
       </c>
       <c r="G27">
@@ -37536,11 +38492,11 @@
         <v>205</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.13658536585365855</v>
       </c>
       <c r="I27" s="19">
-        <f>(B27/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>115.64052693546387</v>
       </c>
     </row>
@@ -37557,15 +38513,15 @@
         <v>58304</v>
       </c>
       <c r="D28" s="18">
+        <f t="shared" si="2"/>
+        <v>0.15426136363636364</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" si="2"/>
+        <v>0.59709453896816689</v>
+      </c>
+      <c r="F28" s="18">
         <f t="shared" si="1"/>
-        <v>0.15426136363636364</v>
-      </c>
-      <c r="E28" s="18">
-        <f t="shared" si="1"/>
-        <v>0.59709453896816689</v>
-      </c>
-      <c r="F28" s="18">
-        <f t="shared" si="0"/>
         <v>0.12074643249176729</v>
       </c>
       <c r="G28">
@@ -37573,11 +38529,11 @@
         <v>179</v>
       </c>
       <c r="H28" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.14525139664804471</v>
       </c>
       <c r="I28" s="19">
-        <f>(B28/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>136.73317259416623</v>
       </c>
     </row>
@@ -37594,15 +38550,15 @@
         <v>60945</v>
       </c>
       <c r="D29" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.23747583055018456</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="2"/>
+        <v>4.3334153745180078E-2</v>
+      </c>
+      <c r="F29" s="18">
         <f t="shared" si="1"/>
-        <v>-0.23747583055018456</v>
-      </c>
-      <c r="E29" s="18">
-        <f t="shared" si="1"/>
-        <v>4.3334153745180078E-2</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" si="0"/>
         <v>9.3346459922881292E-2</v>
       </c>
       <c r="G29">
@@ -37610,11 +38566,11 @@
         <v>163</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.815950920245399E-2</v>
       </c>
       <c r="I29" s="19">
-        <f>(B29/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>110.49361063753007</v>
       </c>
     </row>
@@ -37631,15 +38587,15 @@
         <v>68393</v>
       </c>
       <c r="D30" s="18">
+        <f t="shared" si="2"/>
+        <v>0.21660699531809419</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="2"/>
+        <v>0.10890003362917258</v>
+      </c>
+      <c r="F30" s="18">
         <f t="shared" si="1"/>
-        <v>0.21660699531809419</v>
-      </c>
-      <c r="E30" s="18">
-        <f t="shared" si="1"/>
-        <v>0.10890003362917258</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="0"/>
         <v>0.10618045706431944</v>
       </c>
       <c r="G30">
@@ -37647,11 +38603,11 @@
         <v>148</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.10135135135135136</v>
       </c>
       <c r="I30" s="19">
-        <f>(B30/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>141.04492888903908</v>
       </c>
     </row>
@@ -37668,15 +38624,15 @@
         <v>119532</v>
       </c>
       <c r="D31" s="18">
+        <f t="shared" si="2"/>
+        <v>9.5979086269139799E-2</v>
+      </c>
+      <c r="E31" s="18">
+        <f t="shared" si="2"/>
+        <v>0.42782685807984472</v>
+      </c>
+      <c r="F31" s="18">
         <f t="shared" si="1"/>
-        <v>9.5979086269139799E-2</v>
-      </c>
-      <c r="E31" s="18">
-        <f t="shared" si="1"/>
-        <v>0.42782685807984472</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="0"/>
         <v>6.7203761335876591E-2</v>
       </c>
       <c r="G31">
@@ -37684,11 +38640,11 @@
         <v>135</v>
       </c>
       <c r="H31" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.6296296296296297E-2</v>
       </c>
       <c r="I31" s="19">
-        <f>(B31/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>156.01954196717858</v>
       </c>
     </row>
@@ -37705,15 +38661,15 @@
         <v>96961</v>
       </c>
       <c r="D32" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.42986828052687787</v>
+      </c>
+      <c r="E32" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.23278431534328234</v>
+      </c>
+      <c r="F32" s="18">
         <f t="shared" si="1"/>
-        <v>-0.42986828052687787</v>
-      </c>
-      <c r="E32" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.23278431534328234</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" si="0"/>
         <v>5.7940821567434332E-2</v>
       </c>
       <c r="G32">
@@ -37721,11 +38677,11 @@
         <v>119</v>
       </c>
       <c r="H32" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.13445378151260504</v>
       </c>
       <c r="I32" s="19">
-        <f>(B32/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>109.11462551619687</v>
       </c>
     </row>
@@ -37742,15 +38698,15 @@
         <v>130553</v>
       </c>
       <c r="D33" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9546247818499129E-2</v>
+      </c>
+      <c r="E33" s="18">
+        <f t="shared" si="2"/>
+        <v>0.25730546214947186</v>
+      </c>
+      <c r="F33" s="18">
         <f t="shared" si="1"/>
-        <v>1.9546247818499129E-2</v>
-      </c>
-      <c r="E33" s="18">
-        <f t="shared" si="1"/>
-        <v>0.25730546214947186</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" si="0"/>
         <v>4.389022082985454E-2</v>
       </c>
       <c r="G33">
@@ -37758,11 +38714,11 @@
         <v>109</v>
       </c>
       <c r="H33" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.1743119266055051E-2</v>
       </c>
       <c r="I33" s="19">
-        <f>(B33/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>111.28992598928586</v>
       </c>
     </row>
@@ -37779,15 +38735,15 @@
         <v>114740</v>
       </c>
       <c r="D34" s="18">
+        <f t="shared" si="2"/>
+        <v>0.13089640527832549</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.13781593167160536</v>
+      </c>
+      <c r="F34" s="18">
         <f t="shared" si="1"/>
-        <v>0.13089640527832549</v>
-      </c>
-      <c r="E34" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.13781593167160536</v>
-      </c>
-      <c r="F34" s="18">
-        <f t="shared" si="0"/>
         <v>5.7460345128115743E-2</v>
       </c>
       <c r="G34">
@@ -37795,11 +38751,11 @@
         <v>86</v>
       </c>
       <c r="H34" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.26744186046511625</v>
       </c>
       <c r="I34" s="19">
-        <f>(B34/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>128.05139302746278</v>
       </c>
     </row>
@@ -37816,15 +38772,15 @@
         <v>94033</v>
       </c>
       <c r="D35" s="18">
+        <f t="shared" si="2"/>
+        <v>-7.6056797780316626E-2</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.22020992630246827</v>
+      </c>
+      <c r="F35" s="18">
         <f t="shared" si="1"/>
-        <v>-7.6056797780316626E-2</v>
-      </c>
-      <c r="E35" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.22020992630246827</v>
-      </c>
-      <c r="F35" s="18">
-        <f t="shared" si="0"/>
         <v>6.5157976455074276E-2</v>
       </c>
       <c r="G35">
@@ -37832,11 +38788,11 @@
         <v>156</v>
       </c>
       <c r="H35" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44871794871794873</v>
       </c>
       <c r="I35" s="19">
-        <f>(B35/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>119.0005892733603</v>
       </c>
     </row>
@@ -37853,15 +38809,15 @@
         <v>122966</v>
       </c>
       <c r="D36" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1573373676248109</v>
+      </c>
+      <c r="E36" s="18">
+        <f t="shared" si="2"/>
+        <v>0.23529268253013028</v>
+      </c>
+      <c r="F36" s="18">
         <f t="shared" si="1"/>
-        <v>0.1573373676248109</v>
-      </c>
-      <c r="E36" s="18">
-        <f t="shared" si="1"/>
-        <v>0.23529268253013028</v>
-      </c>
-      <c r="F36" s="18">
-        <f t="shared" si="0"/>
         <v>5.9130166062163522E-2</v>
       </c>
       <c r="G36">
@@ -37869,11 +38825,11 @@
         <v>142</v>
       </c>
       <c r="H36" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.8591549295774641E-2</v>
       </c>
       <c r="I36" s="19">
-        <f>(B36/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>141.21972981991232</v>
       </c>
     </row>
@@ -37890,15 +38846,15 @@
         <v>142878</v>
       </c>
       <c r="D37" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1056580565805658</v>
+      </c>
+      <c r="E37" s="18">
+        <f t="shared" si="2"/>
+        <v>0.13936365290667563</v>
+      </c>
+      <c r="F37" s="18">
         <f t="shared" si="1"/>
-        <v>0.1056580565805658</v>
-      </c>
-      <c r="E37" s="18">
-        <f t="shared" si="1"/>
-        <v>0.13936365290667563</v>
-      </c>
-      <c r="F37" s="18">
-        <f t="shared" si="0"/>
         <v>5.6901692352916478E-2</v>
       </c>
       <c r="G37">
@@ -37906,11 +38862,11 @@
         <v>80</v>
       </c>
       <c r="H37" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.77500000000000002</v>
       </c>
       <c r="I37" s="19">
-        <f>(B37/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>157.90350755547891</v>
       </c>
     </row>
@@ -37927,15 +38883,15 @@
         <v>127212</v>
       </c>
       <c r="D38" s="18">
+        <f t="shared" si="2"/>
+        <v>0.1231665228645384</v>
+      </c>
+      <c r="E38" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.12314875955098575</v>
+      </c>
+      <c r="F38" s="18">
         <f t="shared" si="1"/>
-        <v>0.1231665228645384</v>
-      </c>
-      <c r="E38" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.12314875955098575</v>
-      </c>
-      <c r="F38" s="18">
-        <f t="shared" si="0"/>
         <v>7.2886205703864421E-2</v>
       </c>
       <c r="G38">
@@ -37943,11 +38899,11 @@
         <v>95</v>
       </c>
       <c r="H38" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="I38" s="19">
-        <f>(B38/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>180.08380345072575</v>
       </c>
     </row>
@@ -37964,15 +38920,15 @@
         <v>153112</v>
       </c>
       <c r="D39" s="18">
+        <f t="shared" si="2"/>
+        <v>0.15739731006906579</v>
+      </c>
+      <c r="E39" s="18">
+        <f t="shared" si="2"/>
+        <v>0.16915721824546737</v>
+      </c>
+      <c r="F39" s="18">
         <f t="shared" si="1"/>
-        <v>0.15739731006906579</v>
-      </c>
-      <c r="E39" s="18">
-        <f t="shared" si="1"/>
-        <v>0.16915721824546737</v>
-      </c>
-      <c r="F39" s="18">
-        <f t="shared" si="0"/>
         <v>7.1868958670776945E-2</v>
       </c>
       <c r="G39">
@@ -37980,11 +38936,11 @@
         <v>164</v>
       </c>
       <c r="H39" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42073170731707316</v>
       </c>
       <c r="I39" s="19">
-        <f>(B39/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>213.72327148099507</v>
       </c>
     </row>
@@ -38001,15 +38957,15 @@
         <v>144981</v>
       </c>
       <c r="D40" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.11230162741332256</v>
+      </c>
+      <c r="E40" s="18">
+        <f t="shared" si="2"/>
+        <v>-5.6083210903497702E-2</v>
+      </c>
+      <c r="F40" s="18">
         <f t="shared" si="1"/>
-        <v>-0.11230162741332256</v>
-      </c>
-      <c r="E40" s="18">
-        <f t="shared" si="1"/>
-        <v>-5.6083210903497702E-2</v>
-      </c>
-      <c r="F40" s="18">
-        <f t="shared" si="0"/>
         <v>6.8236527544988657E-2</v>
       </c>
       <c r="G40">
@@ -38017,11 +38973,11 @@
         <v>72</v>
       </c>
       <c r="H40" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2777777777777777</v>
       </c>
       <c r="I40" s="19">
-        <f>(B40/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>192.1450676809782</v>
       </c>
     </row>
@@ -38038,15 +38994,15 @@
         <v>133688</v>
       </c>
       <c r="D41" s="18">
+        <f t="shared" si="2"/>
+        <v>0.30934096621055573</v>
+      </c>
+      <c r="E41" s="18">
+        <f t="shared" si="2"/>
+        <v>-8.4472802345760281E-2</v>
+      </c>
+      <c r="F41" s="18">
         <f t="shared" si="1"/>
-        <v>0.30934096621055573</v>
-      </c>
-      <c r="E41" s="18">
-        <f t="shared" si="1"/>
-        <v>-8.4472802345760281E-2</v>
-      </c>
-      <c r="F41" s="18">
-        <f t="shared" si="0"/>
         <v>0.10714499431512177</v>
       </c>
       <c r="G41">
@@ -38054,11 +39010,11 @@
         <v>171</v>
       </c>
       <c r="H41" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.57894736842105265</v>
       </c>
       <c r="I41" s="19">
-        <f>(B41/5148714)*100000</f>
+        <f t="shared" si="0"/>
         <v>278.20539264756212</v>
       </c>
     </row>
@@ -38068,39 +39024,73 @@
       </c>
       <c r="B42">
         <f>SUM(southCarolinaDaily!B279:B285)</f>
-        <v>15991</v>
+        <v>19563</v>
       </c>
       <c r="C42">
         <f>SUM(southCarolinaDaily!C279:C285)</f>
-        <v>147835</v>
+        <v>151407</v>
       </c>
       <c r="D42" s="18">
-        <f t="shared" si="1"/>
-        <v>0.10424613845287975</v>
+        <f t="shared" si="2"/>
+        <v>0.26780146194346471</v>
       </c>
       <c r="E42" s="18">
         <f>(C42-C41)/C42</f>
-        <v>9.5694524300740685E-2</v>
+        <v>0.11702893525398429</v>
       </c>
       <c r="F42" s="18">
-        <f t="shared" si="0"/>
-        <v>0.10816788987722799</v>
+        <f t="shared" si="1"/>
+        <v>0.12920802869087955</v>
       </c>
       <c r="G42">
         <f>SUM(southCarolinaDaily!G279:G285)</f>
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H42" s="18">
+        <f t="shared" si="3"/>
+        <v>-1.7857142857142856E-2</v>
+      </c>
+      <c r="I42" s="19">
+        <f t="shared" si="0"/>
+        <v>379.95895674143094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="5">
+        <v>44184</v>
+      </c>
+      <c r="B43" s="21">
+        <f>SUM(southCarolinaDaily!B286:B292)</f>
+        <v>18278</v>
+      </c>
+      <c r="C43" s="21">
+        <f>SUM(southCarolinaDaily!C286:C292)</f>
+        <v>189567</v>
+      </c>
+      <c r="D43" s="18">
         <f t="shared" si="2"/>
-        <v>-9.6153846153846159E-2</v>
-      </c>
-      <c r="I42" s="19">
-        <f>(B42/5148714)*100000</f>
-        <v>310.5824095104137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="5"/>
+        <v>-7.0303096618886091E-2</v>
+      </c>
+      <c r="E43" s="18">
+        <f>(C43-C42)/C43</f>
+        <v>0.20130085932678157</v>
+      </c>
+      <c r="F43" s="18">
+        <f t="shared" si="1"/>
+        <v>9.6419735502487253E-2</v>
+      </c>
+      <c r="G43" s="21">
+        <f>SUM(southCarolinaDaily!G286:G292)</f>
+        <v>187</v>
+      </c>
+      <c r="H43" s="18">
+        <f t="shared" si="3"/>
+        <v>0.10160427807486631</v>
+      </c>
+      <c r="I43" s="19">
+        <f t="shared" si="0"/>
+        <v>355.00126827786511</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="5"/>

--- a/southCarolina.xlsx
+++ b/southCarolina.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidferrara/Documents/Clemson/The Tiger/COVID-19/Data/ttn-clemson-covid-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4CCBDF-8FC1-B648-8FD8-2B9DAE9FA82B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097FBD9A-20B5-4E45-89AF-5584B8D48E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="72">
   <si>
     <t>date</t>
   </si>
@@ -1276,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF749DF-C7E0-7D4D-B7D4-EAE6FC469804}">
-  <dimension ref="A1:AP291"/>
+  <dimension ref="A1:AP312"/>
   <sheetViews>
-    <sheetView topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26022,6 +26022,2127 @@
         <v>36349</v>
       </c>
     </row>
+    <row r="292" spans="1:42">
+      <c r="A292" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B292" t="s">
+        <v>41</v>
+      </c>
+      <c r="C292" t="s">
+        <v>42</v>
+      </c>
+      <c r="D292">
+        <v>4895</v>
+      </c>
+      <c r="E292">
+        <v>4529</v>
+      </c>
+      <c r="F292">
+        <v>23</v>
+      </c>
+      <c r="G292">
+        <v>366</v>
+      </c>
+      <c r="H292">
+        <v>13367</v>
+      </c>
+      <c r="I292">
+        <v>13367</v>
+      </c>
+      <c r="J292">
+        <v>1461</v>
+      </c>
+      <c r="K292">
+        <v>100</v>
+      </c>
+      <c r="M292">
+        <v>311</v>
+      </c>
+      <c r="N292">
+        <v>2601084</v>
+      </c>
+      <c r="O292">
+        <v>23265</v>
+      </c>
+      <c r="P292">
+        <v>85354</v>
+      </c>
+      <c r="R292">
+        <v>2525381</v>
+      </c>
+      <c r="T292">
+        <v>148</v>
+      </c>
+      <c r="U292">
+        <v>270537</v>
+      </c>
+      <c r="V292">
+        <v>250386</v>
+      </c>
+      <c r="W292">
+        <v>3461</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>15028</v>
+      </c>
+      <c r="Z292">
+        <v>37213</v>
+      </c>
+      <c r="AC292">
+        <v>326089</v>
+      </c>
+      <c r="AD292">
+        <v>135084</v>
+      </c>
+      <c r="AF292">
+        <v>0</v>
+      </c>
+      <c r="AG292">
+        <v>2871621</v>
+      </c>
+      <c r="AH292">
+        <v>26726</v>
+      </c>
+      <c r="AI292">
+        <v>100382</v>
+      </c>
+      <c r="AJ292">
+        <v>333443</v>
+      </c>
+      <c r="AN292">
+        <v>0</v>
+      </c>
+      <c r="AO292">
+        <v>2851470</v>
+      </c>
+      <c r="AP292">
+        <v>26290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:42">
+      <c r="A293" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B293" t="s">
+        <v>41</v>
+      </c>
+      <c r="C293" t="s">
+        <v>42</v>
+      </c>
+      <c r="D293">
+        <v>4935</v>
+      </c>
+      <c r="E293">
+        <v>4566</v>
+      </c>
+      <c r="F293">
+        <v>40</v>
+      </c>
+      <c r="G293">
+        <v>369</v>
+      </c>
+      <c r="H293">
+        <v>13444</v>
+      </c>
+      <c r="I293">
+        <v>13444</v>
+      </c>
+      <c r="J293">
+        <v>1471</v>
+      </c>
+      <c r="K293">
+        <v>77</v>
+      </c>
+      <c r="M293">
+        <v>313</v>
+      </c>
+      <c r="N293">
+        <v>2623605</v>
+      </c>
+      <c r="O293">
+        <v>22521</v>
+      </c>
+      <c r="P293">
+        <v>85535</v>
+      </c>
+      <c r="R293">
+        <v>2547289</v>
+      </c>
+      <c r="T293">
+        <v>159</v>
+      </c>
+      <c r="U293">
+        <v>273406</v>
+      </c>
+      <c r="V293">
+        <v>253034</v>
+      </c>
+      <c r="W293">
+        <v>2869</v>
+      </c>
+      <c r="X293">
+        <v>0</v>
+      </c>
+      <c r="Y293">
+        <v>15129</v>
+      </c>
+      <c r="Z293">
+        <v>38015</v>
+      </c>
+      <c r="AC293">
+        <v>329350</v>
+      </c>
+      <c r="AD293">
+        <v>136505</v>
+      </c>
+      <c r="AF293">
+        <v>0</v>
+      </c>
+      <c r="AG293">
+        <v>2897011</v>
+      </c>
+      <c r="AH293">
+        <v>25390</v>
+      </c>
+      <c r="AI293">
+        <v>100664</v>
+      </c>
+      <c r="AJ293">
+        <v>339557</v>
+      </c>
+      <c r="AN293">
+        <v>0</v>
+      </c>
+      <c r="AO293">
+        <v>2876639</v>
+      </c>
+      <c r="AP293">
+        <v>25169</v>
+      </c>
+    </row>
+    <row r="294" spans="1:42">
+      <c r="A294" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B294" t="s">
+        <v>41</v>
+      </c>
+      <c r="C294" t="s">
+        <v>42</v>
+      </c>
+      <c r="D294">
+        <v>4962</v>
+      </c>
+      <c r="E294">
+        <v>4587</v>
+      </c>
+      <c r="F294">
+        <v>27</v>
+      </c>
+      <c r="G294">
+        <v>375</v>
+      </c>
+      <c r="H294">
+        <v>13466</v>
+      </c>
+      <c r="I294">
+        <v>13466</v>
+      </c>
+      <c r="J294">
+        <v>1523</v>
+      </c>
+      <c r="K294">
+        <v>22</v>
+      </c>
+      <c r="M294">
+        <v>324</v>
+      </c>
+      <c r="N294">
+        <v>2640894</v>
+      </c>
+      <c r="O294">
+        <v>17289</v>
+      </c>
+      <c r="P294">
+        <v>86086</v>
+      </c>
+      <c r="R294">
+        <v>2563959</v>
+      </c>
+      <c r="T294">
+        <v>165</v>
+      </c>
+      <c r="U294">
+        <v>275733</v>
+      </c>
+      <c r="V294">
+        <v>255210</v>
+      </c>
+      <c r="W294">
+        <v>2327</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>15319</v>
+      </c>
+      <c r="Z294">
+        <v>38323</v>
+      </c>
+      <c r="AC294">
+        <v>332145</v>
+      </c>
+      <c r="AD294">
+        <v>137590</v>
+      </c>
+      <c r="AF294">
+        <v>0</v>
+      </c>
+      <c r="AG294">
+        <v>2916627</v>
+      </c>
+      <c r="AH294">
+        <v>19616</v>
+      </c>
+      <c r="AI294">
+        <v>101405</v>
+      </c>
+      <c r="AJ294">
+        <v>343808</v>
+      </c>
+      <c r="AN294">
+        <v>0</v>
+      </c>
+      <c r="AO294">
+        <v>2896104</v>
+      </c>
+      <c r="AP294">
+        <v>19465</v>
+      </c>
+    </row>
+    <row r="295" spans="1:42">
+      <c r="A295" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B295" t="s">
+        <v>41</v>
+      </c>
+      <c r="C295" t="s">
+        <v>42</v>
+      </c>
+      <c r="D295">
+        <v>4976</v>
+      </c>
+      <c r="E295">
+        <v>4602</v>
+      </c>
+      <c r="F295">
+        <v>14</v>
+      </c>
+      <c r="G295">
+        <v>374</v>
+      </c>
+      <c r="H295">
+        <v>13507</v>
+      </c>
+      <c r="I295">
+        <v>13507</v>
+      </c>
+      <c r="J295">
+        <v>1586</v>
+      </c>
+      <c r="K295">
+        <v>41</v>
+      </c>
+      <c r="M295">
+        <v>344</v>
+      </c>
+      <c r="N295">
+        <v>2664125</v>
+      </c>
+      <c r="O295">
+        <v>23231</v>
+      </c>
+      <c r="P295">
+        <v>86478</v>
+      </c>
+      <c r="R295">
+        <v>2586531</v>
+      </c>
+      <c r="T295">
+        <v>170</v>
+      </c>
+      <c r="U295">
+        <v>278055</v>
+      </c>
+      <c r="V295">
+        <v>257340</v>
+      </c>
+      <c r="W295">
+        <v>2322</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>15436</v>
+      </c>
+      <c r="Z295">
+        <v>38628</v>
+      </c>
+      <c r="AC295">
+        <v>334934</v>
+      </c>
+      <c r="AD295">
+        <v>138745</v>
+      </c>
+      <c r="AF295">
+        <v>0</v>
+      </c>
+      <c r="AG295">
+        <v>2942180</v>
+      </c>
+      <c r="AH295">
+        <v>25553</v>
+      </c>
+      <c r="AI295">
+        <v>101914</v>
+      </c>
+      <c r="AJ295">
+        <v>345379</v>
+      </c>
+      <c r="AN295">
+        <v>0</v>
+      </c>
+      <c r="AO295">
+        <v>2921465</v>
+      </c>
+      <c r="AP295">
+        <v>25361</v>
+      </c>
+    </row>
+    <row r="296" spans="1:42">
+      <c r="A296" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B296" t="s">
+        <v>41</v>
+      </c>
+      <c r="C296" t="s">
+        <v>42</v>
+      </c>
+      <c r="D296">
+        <v>5028</v>
+      </c>
+      <c r="E296">
+        <v>4651</v>
+      </c>
+      <c r="F296">
+        <v>52</v>
+      </c>
+      <c r="G296">
+        <v>377</v>
+      </c>
+      <c r="H296">
+        <v>13672</v>
+      </c>
+      <c r="I296">
+        <v>13672</v>
+      </c>
+      <c r="J296">
+        <v>1671</v>
+      </c>
+      <c r="K296">
+        <v>165</v>
+      </c>
+      <c r="M296">
+        <v>355</v>
+      </c>
+      <c r="N296">
+        <v>2693489</v>
+      </c>
+      <c r="O296">
+        <v>29364</v>
+      </c>
+      <c r="P296">
+        <v>86869</v>
+      </c>
+      <c r="R296">
+        <v>2614924</v>
+      </c>
+      <c r="T296">
+        <v>142</v>
+      </c>
+      <c r="U296">
+        <v>282230</v>
+      </c>
+      <c r="V296">
+        <v>261024</v>
+      </c>
+      <c r="W296">
+        <v>4175</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>15586</v>
+      </c>
+      <c r="Z296">
+        <v>39458</v>
+      </c>
+      <c r="AC296">
+        <v>339589</v>
+      </c>
+      <c r="AD296">
+        <v>140452</v>
+      </c>
+      <c r="AF296">
+        <v>0</v>
+      </c>
+      <c r="AG296">
+        <v>2975719</v>
+      </c>
+      <c r="AH296">
+        <v>33539</v>
+      </c>
+      <c r="AI296">
+        <v>102455</v>
+      </c>
+      <c r="AJ296">
+        <v>350852</v>
+      </c>
+      <c r="AN296">
+        <v>0</v>
+      </c>
+      <c r="AO296">
+        <v>2954513</v>
+      </c>
+      <c r="AP296">
+        <v>33048</v>
+      </c>
+    </row>
+    <row r="297" spans="1:42">
+      <c r="A297" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B297" t="s">
+        <v>41</v>
+      </c>
+      <c r="C297" t="s">
+        <v>42</v>
+      </c>
+      <c r="D297">
+        <v>5043</v>
+      </c>
+      <c r="E297">
+        <v>4662</v>
+      </c>
+      <c r="F297">
+        <v>15</v>
+      </c>
+      <c r="G297">
+        <v>381</v>
+      </c>
+      <c r="H297">
+        <v>13776</v>
+      </c>
+      <c r="I297">
+        <v>13776</v>
+      </c>
+      <c r="J297">
+        <v>1766</v>
+      </c>
+      <c r="K297">
+        <v>104</v>
+      </c>
+      <c r="M297">
+        <v>365</v>
+      </c>
+      <c r="N297">
+        <v>2713727</v>
+      </c>
+      <c r="O297">
+        <v>20238</v>
+      </c>
+      <c r="P297">
+        <v>87064</v>
+      </c>
+      <c r="R297">
+        <v>2634628</v>
+      </c>
+      <c r="T297">
+        <v>177</v>
+      </c>
+      <c r="U297">
+        <v>285028</v>
+      </c>
+      <c r="V297">
+        <v>263392</v>
+      </c>
+      <c r="W297">
+        <v>2798</v>
+      </c>
+      <c r="X297">
+        <v>0</v>
+      </c>
+      <c r="Y297">
+        <v>15698</v>
+      </c>
+      <c r="Z297">
+        <v>40482</v>
+      </c>
+      <c r="AC297">
+        <v>342491</v>
+      </c>
+      <c r="AD297">
+        <v>141962</v>
+      </c>
+      <c r="AF297">
+        <v>0</v>
+      </c>
+      <c r="AG297">
+        <v>2998755</v>
+      </c>
+      <c r="AH297">
+        <v>23036</v>
+      </c>
+      <c r="AI297">
+        <v>102762</v>
+      </c>
+      <c r="AJ297">
+        <v>360223</v>
+      </c>
+      <c r="AN297">
+        <v>0</v>
+      </c>
+      <c r="AO297">
+        <v>2977119</v>
+      </c>
+      <c r="AP297">
+        <v>22606</v>
+      </c>
+    </row>
+    <row r="298" spans="1:42">
+      <c r="A298" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B298" t="s">
+        <v>41</v>
+      </c>
+      <c r="C298" t="s">
+        <v>42</v>
+      </c>
+      <c r="D298">
+        <v>5043</v>
+      </c>
+      <c r="E298">
+        <v>4662</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>381</v>
+      </c>
+      <c r="H298">
+        <v>13776</v>
+      </c>
+      <c r="I298">
+        <v>13776</v>
+      </c>
+      <c r="J298">
+        <v>1766</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>365</v>
+      </c>
+      <c r="N298">
+        <v>2713727</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>87064</v>
+      </c>
+      <c r="R298">
+        <v>2634628</v>
+      </c>
+      <c r="T298">
+        <v>177</v>
+      </c>
+      <c r="U298">
+        <v>285028</v>
+      </c>
+      <c r="V298">
+        <v>263392</v>
+      </c>
+      <c r="W298">
+        <v>0</v>
+      </c>
+      <c r="X298">
+        <v>0</v>
+      </c>
+      <c r="Y298">
+        <v>15698</v>
+      </c>
+      <c r="Z298">
+        <v>40482</v>
+      </c>
+      <c r="AC298">
+        <v>342491</v>
+      </c>
+      <c r="AD298">
+        <v>141962</v>
+      </c>
+      <c r="AF298">
+        <v>0</v>
+      </c>
+      <c r="AG298">
+        <v>2998755</v>
+      </c>
+      <c r="AH298">
+        <v>0</v>
+      </c>
+      <c r="AI298">
+        <v>102762</v>
+      </c>
+      <c r="AJ298">
+        <v>360223</v>
+      </c>
+      <c r="AN298">
+        <v>0</v>
+      </c>
+      <c r="AO298">
+        <v>2977119</v>
+      </c>
+      <c r="AP298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:42">
+      <c r="A299" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B299" t="s">
+        <v>41</v>
+      </c>
+      <c r="C299" t="s">
+        <v>42</v>
+      </c>
+      <c r="D299">
+        <v>5124</v>
+      </c>
+      <c r="E299">
+        <v>4736</v>
+      </c>
+      <c r="F299">
+        <v>81</v>
+      </c>
+      <c r="G299">
+        <v>388</v>
+      </c>
+      <c r="H299">
+        <v>13894</v>
+      </c>
+      <c r="I299">
+        <v>13894</v>
+      </c>
+      <c r="J299">
+        <v>1758</v>
+      </c>
+      <c r="K299">
+        <v>118</v>
+      </c>
+      <c r="M299">
+        <v>357</v>
+      </c>
+      <c r="N299">
+        <v>2742443</v>
+      </c>
+      <c r="O299">
+        <v>28716</v>
+      </c>
+      <c r="P299">
+        <v>87474</v>
+      </c>
+      <c r="R299">
+        <v>2662483</v>
+      </c>
+      <c r="T299">
+        <v>176</v>
+      </c>
+      <c r="U299">
+        <v>288892</v>
+      </c>
+      <c r="V299">
+        <v>266678</v>
+      </c>
+      <c r="W299">
+        <v>3864</v>
+      </c>
+      <c r="X299">
+        <v>0</v>
+      </c>
+      <c r="Y299">
+        <v>15855</v>
+      </c>
+      <c r="Z299">
+        <v>42119</v>
+      </c>
+      <c r="AC299">
+        <v>346638</v>
+      </c>
+      <c r="AD299">
+        <v>143320</v>
+      </c>
+      <c r="AF299">
+        <v>0</v>
+      </c>
+      <c r="AG299">
+        <v>3031335</v>
+      </c>
+      <c r="AH299">
+        <v>32580</v>
+      </c>
+      <c r="AI299">
+        <v>103329</v>
+      </c>
+      <c r="AJ299">
+        <v>373991</v>
+      </c>
+      <c r="AN299">
+        <v>0</v>
+      </c>
+      <c r="AO299">
+        <v>3009121</v>
+      </c>
+      <c r="AP299">
+        <v>32002</v>
+      </c>
+    </row>
+    <row r="300" spans="1:42">
+      <c r="A300" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B300" t="s">
+        <v>41</v>
+      </c>
+      <c r="C300" t="s">
+        <v>42</v>
+      </c>
+      <c r="D300">
+        <v>5155</v>
+      </c>
+      <c r="E300">
+        <v>4764</v>
+      </c>
+      <c r="F300">
+        <v>31</v>
+      </c>
+      <c r="G300">
+        <v>391</v>
+      </c>
+      <c r="H300">
+        <v>13975</v>
+      </c>
+      <c r="I300">
+        <v>13975</v>
+      </c>
+      <c r="J300">
+        <v>1780</v>
+      </c>
+      <c r="K300">
+        <v>81</v>
+      </c>
+      <c r="M300">
+        <v>365</v>
+      </c>
+      <c r="N300">
+        <v>2806705</v>
+      </c>
+      <c r="O300">
+        <v>64262</v>
+      </c>
+      <c r="P300">
+        <v>88282</v>
+      </c>
+      <c r="R300">
+        <v>2724488</v>
+      </c>
+      <c r="T300">
+        <v>177</v>
+      </c>
+      <c r="U300">
+        <v>296179</v>
+      </c>
+      <c r="V300">
+        <v>273659</v>
+      </c>
+      <c r="W300">
+        <v>7287</v>
+      </c>
+      <c r="X300">
+        <v>0</v>
+      </c>
+      <c r="Y300">
+        <v>16206</v>
+      </c>
+      <c r="Z300">
+        <v>42989</v>
+      </c>
+      <c r="AC300">
+        <v>355876</v>
+      </c>
+      <c r="AD300">
+        <v>145988</v>
+      </c>
+      <c r="AF300">
+        <v>0</v>
+      </c>
+      <c r="AG300">
+        <v>3102884</v>
+      </c>
+      <c r="AH300">
+        <v>71549</v>
+      </c>
+      <c r="AI300">
+        <v>104488</v>
+      </c>
+      <c r="AJ300">
+        <v>385700</v>
+      </c>
+      <c r="AN300">
+        <v>0</v>
+      </c>
+      <c r="AO300">
+        <v>3080364</v>
+      </c>
+      <c r="AP300">
+        <v>71243</v>
+      </c>
+    </row>
+    <row r="301" spans="1:42">
+      <c r="A301" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B301" t="s">
+        <v>41</v>
+      </c>
+      <c r="C301" t="s">
+        <v>42</v>
+      </c>
+      <c r="D301">
+        <v>5173</v>
+      </c>
+      <c r="E301">
+        <v>4782</v>
+      </c>
+      <c r="F301">
+        <v>18</v>
+      </c>
+      <c r="G301">
+        <v>391</v>
+      </c>
+      <c r="H301">
+        <v>14050</v>
+      </c>
+      <c r="I301">
+        <v>14050</v>
+      </c>
+      <c r="J301">
+        <v>1867</v>
+      </c>
+      <c r="K301">
+        <v>75</v>
+      </c>
+      <c r="M301">
+        <v>380</v>
+      </c>
+      <c r="N301">
+        <v>2819077</v>
+      </c>
+      <c r="O301">
+        <v>12372</v>
+      </c>
+      <c r="P301">
+        <v>88408</v>
+      </c>
+      <c r="R301">
+        <v>2736587</v>
+      </c>
+      <c r="T301">
+        <v>175</v>
+      </c>
+      <c r="U301">
+        <v>298050</v>
+      </c>
+      <c r="V301">
+        <v>275285</v>
+      </c>
+      <c r="W301">
+        <v>1871</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>16246</v>
+      </c>
+      <c r="Z301">
+        <v>43262</v>
+      </c>
+      <c r="AC301">
+        <v>357775</v>
+      </c>
+      <c r="AD301">
+        <v>147106</v>
+      </c>
+      <c r="AF301">
+        <v>0</v>
+      </c>
+      <c r="AG301">
+        <v>3117127</v>
+      </c>
+      <c r="AH301">
+        <v>14243</v>
+      </c>
+      <c r="AI301">
+        <v>104654</v>
+      </c>
+      <c r="AJ301">
+        <v>387061</v>
+      </c>
+      <c r="AN301">
+        <v>0</v>
+      </c>
+      <c r="AO301">
+        <v>3094362</v>
+      </c>
+      <c r="AP301">
+        <v>13998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:42">
+      <c r="A302" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B302" t="s">
+        <v>41</v>
+      </c>
+      <c r="C302" t="s">
+        <v>42</v>
+      </c>
+      <c r="D302">
+        <v>5198</v>
+      </c>
+      <c r="E302">
+        <v>4804</v>
+      </c>
+      <c r="F302">
+        <v>25</v>
+      </c>
+      <c r="G302">
+        <v>394</v>
+      </c>
+      <c r="H302">
+        <v>14103</v>
+      </c>
+      <c r="I302">
+        <v>14103</v>
+      </c>
+      <c r="J302">
+        <v>1954</v>
+      </c>
+      <c r="K302">
+        <v>53</v>
+      </c>
+      <c r="M302">
+        <v>379</v>
+      </c>
+      <c r="N302">
+        <v>2832683</v>
+      </c>
+      <c r="O302">
+        <v>13606</v>
+      </c>
+      <c r="P302">
+        <v>88512</v>
+      </c>
+      <c r="R302">
+        <v>2749596</v>
+      </c>
+      <c r="T302">
+        <v>189</v>
+      </c>
+      <c r="U302">
+        <v>300602</v>
+      </c>
+      <c r="V302">
+        <v>277563</v>
+      </c>
+      <c r="W302">
+        <v>2552</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>16320</v>
+      </c>
+      <c r="Z302">
+        <v>43968</v>
+      </c>
+      <c r="AC302">
+        <v>360650</v>
+      </c>
+      <c r="AD302">
+        <v>148226</v>
+      </c>
+      <c r="AF302">
+        <v>0</v>
+      </c>
+      <c r="AG302">
+        <v>3133285</v>
+      </c>
+      <c r="AH302">
+        <v>16158</v>
+      </c>
+      <c r="AI302">
+        <v>104832</v>
+      </c>
+      <c r="AJ302">
+        <v>389817</v>
+      </c>
+      <c r="AN302">
+        <v>0</v>
+      </c>
+      <c r="AO302">
+        <v>3110246</v>
+      </c>
+      <c r="AP302">
+        <v>15884</v>
+      </c>
+    </row>
+    <row r="303" spans="1:42">
+      <c r="A303" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B303" t="s">
+        <v>41</v>
+      </c>
+      <c r="C303" t="s">
+        <v>42</v>
+      </c>
+      <c r="D303">
+        <v>5249</v>
+      </c>
+      <c r="E303">
+        <v>4846</v>
+      </c>
+      <c r="F303">
+        <v>51</v>
+      </c>
+      <c r="G303">
+        <v>403</v>
+      </c>
+      <c r="H303">
+        <v>14236</v>
+      </c>
+      <c r="I303">
+        <v>14236</v>
+      </c>
+      <c r="J303">
+        <v>2001</v>
+      </c>
+      <c r="K303">
+        <v>133</v>
+      </c>
+      <c r="M303">
+        <v>393</v>
+      </c>
+      <c r="N303">
+        <v>2847359</v>
+      </c>
+      <c r="O303">
+        <v>14676</v>
+      </c>
+      <c r="P303">
+        <v>88648</v>
+      </c>
+      <c r="R303">
+        <v>2763870</v>
+      </c>
+      <c r="T303">
+        <v>198</v>
+      </c>
+      <c r="U303">
+        <v>303475</v>
+      </c>
+      <c r="V303">
+        <v>280024</v>
+      </c>
+      <c r="W303">
+        <v>2873</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>16367</v>
+      </c>
+      <c r="Z303">
+        <v>44962</v>
+      </c>
+      <c r="AC303">
+        <v>363513</v>
+      </c>
+      <c r="AD303">
+        <v>149770</v>
+      </c>
+      <c r="AF303">
+        <v>0</v>
+      </c>
+      <c r="AG303">
+        <v>3150834</v>
+      </c>
+      <c r="AH303">
+        <v>17549</v>
+      </c>
+      <c r="AI303">
+        <v>105015</v>
+      </c>
+      <c r="AJ303">
+        <v>396295</v>
+      </c>
+      <c r="AN303">
+        <v>0</v>
+      </c>
+      <c r="AO303">
+        <v>3127383</v>
+      </c>
+      <c r="AP303">
+        <v>17137</v>
+      </c>
+    </row>
+    <row r="304" spans="1:42">
+      <c r="A304" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B304" t="s">
+        <v>41</v>
+      </c>
+      <c r="C304" t="s">
+        <v>42</v>
+      </c>
+      <c r="D304">
+        <v>5296</v>
+      </c>
+      <c r="E304">
+        <v>4885</v>
+      </c>
+      <c r="F304">
+        <v>47</v>
+      </c>
+      <c r="G304">
+        <v>411</v>
+      </c>
+      <c r="H304">
+        <v>14390</v>
+      </c>
+      <c r="I304">
+        <v>14390</v>
+      </c>
+      <c r="J304">
+        <v>2025</v>
+      </c>
+      <c r="K304">
+        <v>154</v>
+      </c>
+      <c r="M304">
+        <v>400</v>
+      </c>
+      <c r="N304">
+        <v>2865514</v>
+      </c>
+      <c r="O304">
+        <v>18155</v>
+      </c>
+      <c r="P304">
+        <v>88978</v>
+      </c>
+      <c r="R304">
+        <v>2781083</v>
+      </c>
+      <c r="T304">
+        <v>199</v>
+      </c>
+      <c r="U304">
+        <v>307507</v>
+      </c>
+      <c r="V304">
+        <v>283424</v>
+      </c>
+      <c r="W304">
+        <v>4032</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <v>16447</v>
+      </c>
+      <c r="Z304">
+        <v>46617</v>
+      </c>
+      <c r="AC304">
+        <v>367855</v>
+      </c>
+      <c r="AD304">
+        <v>151084</v>
+      </c>
+      <c r="AF304">
+        <v>0</v>
+      </c>
+      <c r="AG304">
+        <v>3173021</v>
+      </c>
+      <c r="AH304">
+        <v>22187</v>
+      </c>
+      <c r="AI304">
+        <v>105425</v>
+      </c>
+      <c r="AJ304">
+        <v>407614</v>
+      </c>
+      <c r="AN304">
+        <v>0</v>
+      </c>
+      <c r="AO304">
+        <v>3148938</v>
+      </c>
+      <c r="AP304">
+        <v>21555</v>
+      </c>
+    </row>
+    <row r="305" spans="1:42">
+      <c r="A305" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B305" t="s">
+        <v>41</v>
+      </c>
+      <c r="C305" t="s">
+        <v>42</v>
+      </c>
+      <c r="D305">
+        <v>5296</v>
+      </c>
+      <c r="E305">
+        <v>4885</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>411</v>
+      </c>
+      <c r="H305">
+        <v>14390</v>
+      </c>
+      <c r="I305">
+        <v>14390</v>
+      </c>
+      <c r="J305">
+        <v>2025</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="M305">
+        <v>400</v>
+      </c>
+      <c r="N305">
+        <v>2865514</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305">
+        <v>88978</v>
+      </c>
+      <c r="R305">
+        <v>2781083</v>
+      </c>
+      <c r="T305">
+        <v>199</v>
+      </c>
+      <c r="U305">
+        <v>307507</v>
+      </c>
+      <c r="V305">
+        <v>283424</v>
+      </c>
+      <c r="W305">
+        <v>0</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>16447</v>
+      </c>
+      <c r="Z305">
+        <v>46617</v>
+      </c>
+      <c r="AC305">
+        <v>367855</v>
+      </c>
+      <c r="AD305">
+        <v>151084</v>
+      </c>
+      <c r="AF305">
+        <v>0</v>
+      </c>
+      <c r="AG305">
+        <v>3173021</v>
+      </c>
+      <c r="AH305">
+        <v>0</v>
+      </c>
+      <c r="AI305">
+        <v>105425</v>
+      </c>
+      <c r="AJ305">
+        <v>407614</v>
+      </c>
+      <c r="AN305">
+        <v>0</v>
+      </c>
+      <c r="AO305">
+        <v>3148938</v>
+      </c>
+      <c r="AP305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:42">
+      <c r="A306" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B306" t="s">
+        <v>41</v>
+      </c>
+      <c r="C306" t="s">
+        <v>42</v>
+      </c>
+      <c r="D306">
+        <v>5385</v>
+      </c>
+      <c r="E306">
+        <v>4968</v>
+      </c>
+      <c r="F306">
+        <v>89</v>
+      </c>
+      <c r="G306">
+        <v>417</v>
+      </c>
+      <c r="H306">
+        <v>14586</v>
+      </c>
+      <c r="I306">
+        <v>14586</v>
+      </c>
+      <c r="J306">
+        <v>1994</v>
+      </c>
+      <c r="K306">
+        <v>196</v>
+      </c>
+      <c r="M306">
+        <v>413</v>
+      </c>
+      <c r="N306">
+        <v>2891537</v>
+      </c>
+      <c r="O306">
+        <v>26023</v>
+      </c>
+      <c r="P306">
+        <v>89362</v>
+      </c>
+      <c r="R306">
+        <v>2806376</v>
+      </c>
+      <c r="T306">
+        <v>214</v>
+      </c>
+      <c r="U306">
+        <v>312718</v>
+      </c>
+      <c r="V306">
+        <v>287776</v>
+      </c>
+      <c r="W306">
+        <v>5211</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>16606</v>
+      </c>
+      <c r="Z306">
+        <v>48175</v>
+      </c>
+      <c r="AC306">
+        <v>372937</v>
+      </c>
+      <c r="AD306">
+        <v>152535</v>
+      </c>
+      <c r="AF306">
+        <v>0</v>
+      </c>
+      <c r="AG306">
+        <v>3204255</v>
+      </c>
+      <c r="AH306">
+        <v>31234</v>
+      </c>
+      <c r="AI306">
+        <v>105968</v>
+      </c>
+      <c r="AJ306">
+        <v>416971</v>
+      </c>
+      <c r="AN306">
+        <v>0</v>
+      </c>
+      <c r="AO306">
+        <v>3179313</v>
+      </c>
+      <c r="AP306">
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="307" spans="1:42">
+      <c r="A307" s="1">
+        <v>44199</v>
+      </c>
+      <c r="B307" t="s">
+        <v>41</v>
+      </c>
+      <c r="C307" t="s">
+        <v>42</v>
+      </c>
+      <c r="D307">
+        <v>5469</v>
+      </c>
+      <c r="E307">
+        <v>5042</v>
+      </c>
+      <c r="F307">
+        <v>84</v>
+      </c>
+      <c r="G307">
+        <v>427</v>
+      </c>
+      <c r="H307">
+        <v>14727</v>
+      </c>
+      <c r="I307">
+        <v>14727</v>
+      </c>
+      <c r="J307">
+        <v>2072</v>
+      </c>
+      <c r="K307">
+        <v>141</v>
+      </c>
+      <c r="M307">
+        <v>414</v>
+      </c>
+      <c r="N307">
+        <v>2939758</v>
+      </c>
+      <c r="O307">
+        <v>48221</v>
+      </c>
+      <c r="P307">
+        <v>90059</v>
+      </c>
+      <c r="R307">
+        <v>2853298</v>
+      </c>
+      <c r="T307">
+        <v>217</v>
+      </c>
+      <c r="U307">
+        <v>321669</v>
+      </c>
+      <c r="V307">
+        <v>296093</v>
+      </c>
+      <c r="W307">
+        <v>8951</v>
+      </c>
+      <c r="X307">
+        <v>0</v>
+      </c>
+      <c r="Y307">
+        <v>16912</v>
+      </c>
+      <c r="Z307">
+        <v>50632</v>
+      </c>
+      <c r="AC307">
+        <v>382553</v>
+      </c>
+      <c r="AD307">
+        <v>154943</v>
+      </c>
+      <c r="AF307">
+        <v>0</v>
+      </c>
+      <c r="AG307">
+        <v>3261427</v>
+      </c>
+      <c r="AH307">
+        <v>57172</v>
+      </c>
+      <c r="AI307">
+        <v>106971</v>
+      </c>
+      <c r="AJ307">
+        <v>432080</v>
+      </c>
+      <c r="AN307">
+        <v>0</v>
+      </c>
+      <c r="AO307">
+        <v>3235851</v>
+      </c>
+      <c r="AP307">
+        <v>56538</v>
+      </c>
+    </row>
+    <row r="308" spans="1:42">
+      <c r="A308" s="1">
+        <v>44200</v>
+      </c>
+      <c r="B308" t="s">
+        <v>41</v>
+      </c>
+      <c r="C308" t="s">
+        <v>42</v>
+      </c>
+      <c r="D308">
+        <v>5484</v>
+      </c>
+      <c r="E308">
+        <v>5056</v>
+      </c>
+      <c r="F308">
+        <v>15</v>
+      </c>
+      <c r="G308">
+        <v>428</v>
+      </c>
+      <c r="H308">
+        <v>14798</v>
+      </c>
+      <c r="I308">
+        <v>14798</v>
+      </c>
+      <c r="J308">
+        <v>2155</v>
+      </c>
+      <c r="K308">
+        <v>71</v>
+      </c>
+      <c r="M308">
+        <v>419</v>
+      </c>
+      <c r="N308">
+        <v>2956766</v>
+      </c>
+      <c r="O308">
+        <v>17008</v>
+      </c>
+      <c r="P308">
+        <v>90229</v>
+      </c>
+      <c r="R308">
+        <v>2869765</v>
+      </c>
+      <c r="T308">
+        <v>215</v>
+      </c>
+      <c r="U308">
+        <v>325472</v>
+      </c>
+      <c r="V308">
+        <v>299685</v>
+      </c>
+      <c r="W308">
+        <v>3803</v>
+      </c>
+      <c r="X308">
+        <v>0</v>
+      </c>
+      <c r="Y308">
+        <v>17013</v>
+      </c>
+      <c r="Z308">
+        <v>51014</v>
+      </c>
+      <c r="AC308">
+        <v>386686</v>
+      </c>
+      <c r="AD308">
+        <v>156090</v>
+      </c>
+      <c r="AF308">
+        <v>0</v>
+      </c>
+      <c r="AG308">
+        <v>3282238</v>
+      </c>
+      <c r="AH308">
+        <v>20811</v>
+      </c>
+      <c r="AI308">
+        <v>107242</v>
+      </c>
+      <c r="AJ308">
+        <v>432727</v>
+      </c>
+      <c r="AN308">
+        <v>0</v>
+      </c>
+      <c r="AO308">
+        <v>3256451</v>
+      </c>
+      <c r="AP308">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="309" spans="1:42">
+      <c r="A309" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B309" t="s">
+        <v>41</v>
+      </c>
+      <c r="C309" t="s">
+        <v>42</v>
+      </c>
+      <c r="D309">
+        <v>5498</v>
+      </c>
+      <c r="E309">
+        <v>5068</v>
+      </c>
+      <c r="F309">
+        <v>14</v>
+      </c>
+      <c r="G309">
+        <v>430</v>
+      </c>
+      <c r="H309">
+        <v>14851</v>
+      </c>
+      <c r="I309">
+        <v>14851</v>
+      </c>
+      <c r="J309">
+        <v>2344</v>
+      </c>
+      <c r="K309">
+        <v>53</v>
+      </c>
+      <c r="M309">
+        <v>447</v>
+      </c>
+      <c r="N309">
+        <v>2970408</v>
+      </c>
+      <c r="O309">
+        <v>13642</v>
+      </c>
+      <c r="P309">
+        <v>90335</v>
+      </c>
+      <c r="R309">
+        <v>2882982</v>
+      </c>
+      <c r="T309">
+        <v>241</v>
+      </c>
+      <c r="U309">
+        <v>328073</v>
+      </c>
+      <c r="V309">
+        <v>302003</v>
+      </c>
+      <c r="W309">
+        <v>2601</v>
+      </c>
+      <c r="X309">
+        <v>0</v>
+      </c>
+      <c r="Y309">
+        <v>17062</v>
+      </c>
+      <c r="Z309">
+        <v>52129</v>
+      </c>
+      <c r="AC309">
+        <v>389429</v>
+      </c>
+      <c r="AD309">
+        <v>157106</v>
+      </c>
+      <c r="AF309">
+        <v>0</v>
+      </c>
+      <c r="AG309">
+        <v>3298481</v>
+      </c>
+      <c r="AH309">
+        <v>16243</v>
+      </c>
+      <c r="AI309">
+        <v>107397</v>
+      </c>
+      <c r="AJ309">
+        <v>437379</v>
+      </c>
+      <c r="AN309">
+        <v>0</v>
+      </c>
+      <c r="AO309">
+        <v>3272411</v>
+      </c>
+      <c r="AP309">
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="310" spans="1:42">
+      <c r="A310" s="1">
+        <v>44202</v>
+      </c>
+      <c r="B310" t="s">
+        <v>41</v>
+      </c>
+      <c r="C310" t="s">
+        <v>42</v>
+      </c>
+      <c r="D310">
+        <v>5582</v>
+      </c>
+      <c r="E310">
+        <v>5139</v>
+      </c>
+      <c r="F310">
+        <v>84</v>
+      </c>
+      <c r="G310">
+        <v>443</v>
+      </c>
+      <c r="H310">
+        <v>15015</v>
+      </c>
+      <c r="I310">
+        <v>15015</v>
+      </c>
+      <c r="J310">
+        <v>2424</v>
+      </c>
+      <c r="K310">
+        <v>164</v>
+      </c>
+      <c r="M310">
+        <v>469</v>
+      </c>
+      <c r="N310">
+        <v>2993641</v>
+      </c>
+      <c r="O310">
+        <v>23233</v>
+      </c>
+      <c r="P310">
+        <v>90487</v>
+      </c>
+      <c r="R310">
+        <v>2905531</v>
+      </c>
+      <c r="T310">
+        <v>247</v>
+      </c>
+      <c r="U310">
+        <v>333235</v>
+      </c>
+      <c r="V310">
+        <v>306204</v>
+      </c>
+      <c r="W310">
+        <v>5162</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+      <c r="Y310">
+        <v>17169</v>
+      </c>
+      <c r="Z310">
+        <v>53786</v>
+      </c>
+      <c r="AC310">
+        <v>394314</v>
+      </c>
+      <c r="AD310">
+        <v>158273</v>
+      </c>
+      <c r="AF310">
+        <v>0</v>
+      </c>
+      <c r="AG310">
+        <v>3326876</v>
+      </c>
+      <c r="AH310">
+        <v>28395</v>
+      </c>
+      <c r="AI310">
+        <v>107656</v>
+      </c>
+      <c r="AJ310">
+        <v>447762</v>
+      </c>
+      <c r="AN310">
+        <v>0</v>
+      </c>
+      <c r="AO310">
+        <v>3299845</v>
+      </c>
+      <c r="AP310">
+        <v>27434</v>
+      </c>
+    </row>
+    <row r="311" spans="1:42">
+      <c r="A311" s="1">
+        <v>44203</v>
+      </c>
+      <c r="B311" t="s">
+        <v>41</v>
+      </c>
+      <c r="C311" t="s">
+        <v>42</v>
+      </c>
+      <c r="D311">
+        <v>5661</v>
+      </c>
+      <c r="E311">
+        <v>5189</v>
+      </c>
+      <c r="F311">
+        <v>79</v>
+      </c>
+      <c r="G311">
+        <v>472</v>
+      </c>
+      <c r="H311">
+        <v>15202</v>
+      </c>
+      <c r="I311">
+        <v>15202</v>
+      </c>
+      <c r="J311">
+        <v>2425</v>
+      </c>
+      <c r="K311">
+        <v>187</v>
+      </c>
+      <c r="M311">
+        <v>476</v>
+      </c>
+      <c r="N311">
+        <v>3018742</v>
+      </c>
+      <c r="O311">
+        <v>25101</v>
+      </c>
+      <c r="P311">
+        <v>90700</v>
+      </c>
+      <c r="R311">
+        <v>2930137</v>
+      </c>
+      <c r="T311">
+        <v>245</v>
+      </c>
+      <c r="U311">
+        <v>338112</v>
+      </c>
+      <c r="V311">
+        <v>310246</v>
+      </c>
+      <c r="W311">
+        <v>4877</v>
+      </c>
+      <c r="X311">
+        <v>0</v>
+      </c>
+      <c r="Y311">
+        <v>17263</v>
+      </c>
+      <c r="Z311">
+        <v>55426</v>
+      </c>
+      <c r="AC311">
+        <v>398851</v>
+      </c>
+      <c r="AD311">
+        <v>159700</v>
+      </c>
+      <c r="AF311">
+        <v>0</v>
+      </c>
+      <c r="AG311">
+        <v>3356854</v>
+      </c>
+      <c r="AH311">
+        <v>29978</v>
+      </c>
+      <c r="AI311">
+        <v>107963</v>
+      </c>
+      <c r="AJ311">
+        <v>457586</v>
+      </c>
+      <c r="AN311">
+        <v>0</v>
+      </c>
+      <c r="AO311">
+        <v>3328988</v>
+      </c>
+      <c r="AP311">
+        <v>29143</v>
+      </c>
+    </row>
+    <row r="312" spans="1:42">
+      <c r="A312" s="1">
+        <v>44204</v>
+      </c>
+      <c r="B312" t="s">
+        <v>41</v>
+      </c>
+      <c r="C312" t="s">
+        <v>42</v>
+      </c>
+      <c r="D312">
+        <v>5695</v>
+      </c>
+      <c r="E312">
+        <v>5217</v>
+      </c>
+      <c r="F312">
+        <v>34</v>
+      </c>
+      <c r="G312">
+        <v>478</v>
+      </c>
+      <c r="H312">
+        <v>15335</v>
+      </c>
+      <c r="I312">
+        <v>15335</v>
+      </c>
+      <c r="J312">
+        <v>2396</v>
+      </c>
+      <c r="K312">
+        <v>133</v>
+      </c>
+      <c r="M312">
+        <v>488</v>
+      </c>
+      <c r="N312">
+        <v>3053938</v>
+      </c>
+      <c r="O312">
+        <v>35196</v>
+      </c>
+      <c r="P312">
+        <v>91357</v>
+      </c>
+      <c r="R312">
+        <v>2964302</v>
+      </c>
+      <c r="T312">
+        <v>251</v>
+      </c>
+      <c r="U312">
+        <v>344176</v>
+      </c>
+      <c r="V312">
+        <v>315353</v>
+      </c>
+      <c r="W312">
+        <v>6064</v>
+      </c>
+      <c r="X312">
+        <v>0</v>
+      </c>
+      <c r="Y312">
+        <v>17490</v>
+      </c>
+      <c r="Z312">
+        <v>57927</v>
+      </c>
+      <c r="AC312">
+        <v>404989</v>
+      </c>
+      <c r="AD312">
+        <v>164575</v>
+      </c>
+      <c r="AF312">
+        <v>0</v>
+      </c>
+      <c r="AG312">
+        <v>3398114</v>
+      </c>
+      <c r="AH312">
+        <v>41260</v>
+      </c>
+      <c r="AI312">
+        <v>108847</v>
+      </c>
+      <c r="AJ312">
+        <v>468863</v>
+      </c>
+      <c r="AN312">
+        <v>0</v>
+      </c>
+      <c r="AO312">
+        <v>3369291</v>
+      </c>
+      <c r="AP312">
+        <v>40303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26029,10 +28150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD158A91-9527-4640-92DA-366389F3CB67}">
-  <dimension ref="A1:J303"/>
+  <dimension ref="A1:J315"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="I294" sqref="I294"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -36071,11 +38192,11 @@
         <v>1402.7142857142858</v>
       </c>
       <c r="E258" s="15">
-        <f t="shared" ref="E258:E291" si="22">B258/C258</f>
+        <f t="shared" ref="E258:E312" si="22">B258/C258</f>
         <v>8.0925795436066997E-2</v>
       </c>
       <c r="F258" s="16">
-        <f t="shared" ref="F258:F291" si="23">(B258/5148714)*100000</f>
+        <f t="shared" ref="F258:F312" si="23">(B258/5148714)*100000</f>
         <v>28.997532199302583</v>
       </c>
       <c r="G258">
@@ -36313,7 +38434,7 @@
         <v>32504</v>
       </c>
       <c r="D264">
-        <f t="shared" ref="D264:D291" si="24">AVERAGE(B258:B264)</f>
+        <f t="shared" ref="D264:D312" si="24">AVERAGE(B258:B264)</f>
         <v>1572</v>
       </c>
       <c r="E264" s="15">
@@ -37445,44 +39566,880 @@
       </c>
       <c r="J291">
         <f t="shared" si="28"/>
-        <v>1271.6666666666667</v>
+        <v>1298.7142857142858</v>
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="5"/>
+      <c r="A292" s="5">
+        <v>44184</v>
+      </c>
+      <c r="B292">
+        <f>covidTrackingProject!W292</f>
+        <v>3461</v>
+      </c>
+      <c r="C292">
+        <f>covidTrackingProject!AH292</f>
+        <v>26726</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="24"/>
+        <v>3105.5714285714284</v>
+      </c>
+      <c r="E292" s="15">
+        <f t="shared" si="22"/>
+        <v>0.12949936391528849</v>
+      </c>
+      <c r="F292" s="16">
+        <f t="shared" si="23"/>
+        <v>67.220669083580873</v>
+      </c>
+      <c r="G292">
+        <f>covidTrackingProject!F292</f>
+        <v>23</v>
+      </c>
+      <c r="H292">
+        <f t="shared" ref="H292:H312" si="29">AVERAGE(G286:G292)</f>
+        <v>30</v>
+      </c>
+      <c r="I292">
+        <f>covidTrackingProject!J292</f>
+        <v>1461</v>
+      </c>
+      <c r="J292">
+        <f t="shared" ref="J292:J312" si="30">AVERAGE(I287:I293)</f>
+        <v>1326.2857142857142</v>
+      </c>
     </row>
     <row r="293" spans="1:10">
-      <c r="A293" s="5"/>
+      <c r="A293" s="5">
+        <v>44185</v>
+      </c>
+      <c r="B293">
+        <f>covidTrackingProject!W293</f>
+        <v>2869</v>
+      </c>
+      <c r="C293">
+        <f>covidTrackingProject!AH293</f>
+        <v>25390</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="24"/>
+        <v>3028.5714285714284</v>
+      </c>
+      <c r="E293" s="15">
+        <f t="shared" si="22"/>
+        <v>0.11299724300905868</v>
+      </c>
+      <c r="F293" s="16">
+        <f t="shared" si="23"/>
+        <v>55.722652297253255</v>
+      </c>
+      <c r="G293">
+        <f>covidTrackingProject!F293</f>
+        <v>40</v>
+      </c>
+      <c r="H293">
+        <f t="shared" si="29"/>
+        <v>28</v>
+      </c>
+      <c r="I293">
+        <f>covidTrackingProject!J293</f>
+        <v>1471</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="30"/>
+        <v>1361.5714285714287</v>
+      </c>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="5"/>
+      <c r="A294" s="5">
+        <v>44186</v>
+      </c>
+      <c r="B294">
+        <f>covidTrackingProject!W294</f>
+        <v>2327</v>
+      </c>
+      <c r="C294">
+        <f>covidTrackingProject!AH294</f>
+        <v>19616</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="24"/>
+        <v>2993.8571428571427</v>
+      </c>
+      <c r="E294" s="15">
+        <f t="shared" si="22"/>
+        <v>0.11862765089722675</v>
+      </c>
+      <c r="F294" s="16">
+        <f t="shared" si="23"/>
+        <v>45.195751793554663</v>
+      </c>
+      <c r="G294">
+        <f>covidTrackingProject!F294</f>
+        <v>27</v>
+      </c>
+      <c r="H294">
+        <f t="shared" si="29"/>
+        <v>30.142857142857142</v>
+      </c>
+      <c r="I294">
+        <f>covidTrackingProject!J294</f>
+        <v>1523</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="30"/>
+        <v>1438.7142857142858</v>
+      </c>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="5"/>
+      <c r="A295" s="5">
+        <v>44187</v>
+      </c>
+      <c r="B295">
+        <f>covidTrackingProject!W295</f>
+        <v>2322</v>
+      </c>
+      <c r="C295">
+        <f>covidTrackingProject!AH295</f>
+        <v>25553</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="24"/>
+        <v>2962.1428571428573</v>
+      </c>
+      <c r="E295" s="15">
+        <f t="shared" si="22"/>
+        <v>9.0869956560873474E-2</v>
+      </c>
+      <c r="F295" s="16">
+        <f t="shared" si="23"/>
+        <v>45.098640165291755</v>
+      </c>
+      <c r="G295">
+        <f>covidTrackingProject!F295</f>
+        <v>14</v>
+      </c>
+      <c r="H295">
+        <f t="shared" si="29"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="I295">
+        <f>covidTrackingProject!J295</f>
+        <v>1586</v>
+      </c>
+      <c r="J295">
+        <f t="shared" si="30"/>
+        <v>1528</v>
+      </c>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="5"/>
+      <c r="A296" s="5">
+        <v>44188</v>
+      </c>
+      <c r="B296">
+        <f>covidTrackingProject!W296</f>
+        <v>4175</v>
+      </c>
+      <c r="C296">
+        <f>covidTrackingProject!AH296</f>
+        <v>33539</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="24"/>
+        <v>3158.7142857142858</v>
+      </c>
+      <c r="E296" s="15">
+        <f t="shared" si="22"/>
+        <v>0.12448194639076895</v>
+      </c>
+      <c r="F296" s="16">
+        <f t="shared" si="23"/>
+        <v>81.088209599523296</v>
+      </c>
+      <c r="G296">
+        <f>covidTrackingProject!F296</f>
+        <v>52</v>
+      </c>
+      <c r="H296">
+        <f t="shared" si="29"/>
+        <v>32.571428571428569</v>
+      </c>
+      <c r="I296">
+        <f>covidTrackingProject!J296</f>
+        <v>1671</v>
+      </c>
+      <c r="J296">
+        <f t="shared" si="30"/>
+        <v>1562.5714285714287</v>
+      </c>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="5"/>
+      <c r="A297" s="5">
+        <v>44189</v>
+      </c>
+      <c r="B297">
+        <f>covidTrackingProject!W297</f>
+        <v>2798</v>
+      </c>
+      <c r="C297">
+        <f>covidTrackingProject!AH297</f>
+        <v>23036</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="24"/>
+        <v>3179.1428571428573</v>
+      </c>
+      <c r="E297" s="15">
+        <f t="shared" si="22"/>
+        <v>0.12146205938530995</v>
+      </c>
+      <c r="F297" s="16">
+        <f t="shared" si="23"/>
+        <v>54.343667175920046</v>
+      </c>
+      <c r="G297">
+        <f>covidTrackingProject!F297</f>
+        <v>15</v>
+      </c>
+      <c r="H297">
+        <f t="shared" si="29"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="I297">
+        <f>covidTrackingProject!J297</f>
+        <v>1766</v>
+      </c>
+      <c r="J297">
+        <f t="shared" si="30"/>
+        <v>1606.2857142857142</v>
+      </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="5"/>
+      <c r="A298" s="5">
+        <v>44190</v>
+      </c>
+      <c r="B298">
+        <f>covidTrackingProject!W298</f>
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <f>covidTrackingProject!AH298</f>
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="24"/>
+        <v>2564.5714285714284</v>
+      </c>
+      <c r="E298" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F298" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <f>covidTrackingProject!F298</f>
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <f t="shared" si="29"/>
+        <v>24.428571428571427</v>
+      </c>
+      <c r="I298">
+        <f>covidTrackingProject!J298</f>
+        <v>1766</v>
+      </c>
+      <c r="J298">
+        <f t="shared" si="30"/>
+        <v>1648.7142857142858</v>
+      </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="5"/>
+      <c r="A299" s="5">
+        <v>44191</v>
+      </c>
+      <c r="B299">
+        <f>covidTrackingProject!W299</f>
+        <v>3864</v>
+      </c>
+      <c r="C299">
+        <f>covidTrackingProject!AH299</f>
+        <v>32580</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="24"/>
+        <v>2622.1428571428573</v>
+      </c>
+      <c r="E299" s="15">
+        <f t="shared" si="22"/>
+        <v>0.11860036832412522</v>
+      </c>
+      <c r="F299" s="16">
+        <f t="shared" si="23"/>
+        <v>75.047866321570794</v>
+      </c>
+      <c r="G299">
+        <f>covidTrackingProject!F299</f>
+        <v>81</v>
+      </c>
+      <c r="H299">
+        <f t="shared" si="29"/>
+        <v>32.714285714285715</v>
+      </c>
+      <c r="I299">
+        <f>covidTrackingProject!J299</f>
+        <v>1758</v>
+      </c>
+      <c r="J299">
+        <f t="shared" si="30"/>
+        <v>1692.8571428571429</v>
+      </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="5"/>
+      <c r="A300" s="5">
+        <v>44192</v>
+      </c>
+      <c r="B300">
+        <f>covidTrackingProject!W300</f>
+        <v>7287</v>
+      </c>
+      <c r="C300">
+        <f>covidTrackingProject!AH300</f>
+        <v>71549</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="24"/>
+        <v>3253.2857142857142</v>
+      </c>
+      <c r="E300" s="15">
+        <f t="shared" si="22"/>
+        <v>0.10184628715984849</v>
+      </c>
+      <c r="F300" s="16">
+        <f t="shared" si="23"/>
+        <v>141.53048703035361</v>
+      </c>
+      <c r="G300">
+        <f>covidTrackingProject!F300</f>
+        <v>31</v>
+      </c>
+      <c r="H300">
+        <f t="shared" si="29"/>
+        <v>31.428571428571427</v>
+      </c>
+      <c r="I300">
+        <f>covidTrackingProject!J300</f>
+        <v>1780</v>
+      </c>
+      <c r="J300">
+        <f t="shared" si="30"/>
+        <v>1742</v>
+      </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="5"/>
+      <c r="A301" s="5">
+        <v>44193</v>
+      </c>
+      <c r="B301">
+        <f>covidTrackingProject!W301</f>
+        <v>1871</v>
+      </c>
+      <c r="C301">
+        <f>covidTrackingProject!AH301</f>
+        <v>14243</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="24"/>
+        <v>3188.1428571428573</v>
+      </c>
+      <c r="E301" s="15">
+        <f t="shared" si="22"/>
+        <v>0.13136277469634206</v>
+      </c>
+      <c r="F301" s="16">
+        <f t="shared" si="23"/>
+        <v>36.339171295977991</v>
+      </c>
+      <c r="G301">
+        <f>covidTrackingProject!F301</f>
+        <v>18</v>
+      </c>
+      <c r="H301">
+        <f t="shared" si="29"/>
+        <v>30.142857142857142</v>
+      </c>
+      <c r="I301">
+        <f>covidTrackingProject!J301</f>
+        <v>1867</v>
+      </c>
+      <c r="J301">
+        <f t="shared" si="30"/>
+        <v>1794.5714285714287</v>
+      </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="5"/>
+      <c r="A302" s="5">
+        <v>44194</v>
+      </c>
+      <c r="B302">
+        <f>covidTrackingProject!W302</f>
+        <v>2552</v>
+      </c>
+      <c r="C302">
+        <f>covidTrackingProject!AH302</f>
+        <v>16158</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="24"/>
+        <v>3221</v>
+      </c>
+      <c r="E302" s="15">
+        <f t="shared" si="22"/>
+        <v>0.15794033915088501</v>
+      </c>
+      <c r="F302" s="16">
+        <f t="shared" si="23"/>
+        <v>49.56577506538526</v>
+      </c>
+      <c r="G302">
+        <f>covidTrackingProject!F302</f>
+        <v>25</v>
+      </c>
+      <c r="H302">
+        <f t="shared" si="29"/>
+        <v>31.714285714285715</v>
+      </c>
+      <c r="I302">
+        <f>covidTrackingProject!J302</f>
+        <v>1954</v>
+      </c>
+      <c r="J302">
+        <f t="shared" si="30"/>
+        <v>1841.7142857142858</v>
+      </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="5"/>
+      <c r="A303" s="5">
+        <v>44195</v>
+      </c>
+      <c r="B303">
+        <f>covidTrackingProject!W303</f>
+        <v>2873</v>
+      </c>
+      <c r="C303">
+        <f>covidTrackingProject!AH303</f>
+        <v>17549</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="24"/>
+        <v>3035</v>
+      </c>
+      <c r="E303" s="15">
+        <f t="shared" si="22"/>
+        <v>0.1637130320816001</v>
+      </c>
+      <c r="F303" s="16">
+        <f t="shared" si="23"/>
+        <v>55.800341599863579</v>
+      </c>
+      <c r="G303">
+        <f>covidTrackingProject!F303</f>
+        <v>51</v>
+      </c>
+      <c r="H303">
+        <f t="shared" si="29"/>
+        <v>31.571428571428573</v>
+      </c>
+      <c r="I303">
+        <f>covidTrackingProject!J303</f>
+        <v>2001</v>
+      </c>
+      <c r="J303">
+        <f t="shared" si="30"/>
+        <v>1878.7142857142858</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304" s="5">
+        <v>44196</v>
+      </c>
+      <c r="B304">
+        <f>covidTrackingProject!W304</f>
+        <v>4032</v>
+      </c>
+      <c r="C304">
+        <f>covidTrackingProject!AH304</f>
+        <v>22187</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="24"/>
+        <v>3211.2857142857142</v>
+      </c>
+      <c r="E304" s="15">
+        <f t="shared" si="22"/>
+        <v>0.18172803894172262</v>
+      </c>
+      <c r="F304" s="16">
+        <f t="shared" si="23"/>
+        <v>78.310817031204294</v>
+      </c>
+      <c r="G304">
+        <f>covidTrackingProject!F304</f>
+        <v>47</v>
+      </c>
+      <c r="H304">
+        <f t="shared" si="29"/>
+        <v>36.142857142857146</v>
+      </c>
+      <c r="I304">
+        <f>covidTrackingProject!J304</f>
+        <v>2025</v>
+      </c>
+      <c r="J304">
+        <f t="shared" si="30"/>
+        <v>1915.7142857142858</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
+      <c r="A305" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B305">
+        <f>covidTrackingProject!W305</f>
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <f>covidTrackingProject!AH305</f>
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="24"/>
+        <v>3211.2857142857142</v>
+      </c>
+      <c r="E305" s="15" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F305" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <f>covidTrackingProject!F305</f>
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <f t="shared" si="29"/>
+        <v>36.142857142857146</v>
+      </c>
+      <c r="I305">
+        <f>covidTrackingProject!J305</f>
+        <v>2025</v>
+      </c>
+      <c r="J305">
+        <f t="shared" si="30"/>
+        <v>1949.4285714285713</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
+      <c r="A306" s="5">
+        <v>44198</v>
+      </c>
+      <c r="B306">
+        <f>covidTrackingProject!W306</f>
+        <v>5211</v>
+      </c>
+      <c r="C306">
+        <f>covidTrackingProject!AH306</f>
+        <v>31234</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="24"/>
+        <v>3403.7142857142858</v>
+      </c>
+      <c r="E306" s="15">
+        <f t="shared" si="22"/>
+        <v>0.16683742075942884</v>
+      </c>
+      <c r="F306" s="16">
+        <f t="shared" si="23"/>
+        <v>101.20973897559662</v>
+      </c>
+      <c r="G306">
+        <f>covidTrackingProject!F306</f>
+        <v>89</v>
+      </c>
+      <c r="H306">
+        <f t="shared" si="29"/>
+        <v>37.285714285714285</v>
+      </c>
+      <c r="I306">
+        <f>covidTrackingProject!J306</f>
+        <v>1994</v>
+      </c>
+      <c r="J306">
+        <f t="shared" si="30"/>
+        <v>1991.1428571428571</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="A307" s="5">
+        <v>44199</v>
+      </c>
+      <c r="B307">
+        <f>covidTrackingProject!W307</f>
+        <v>8951</v>
+      </c>
+      <c r="C307">
+        <f>covidTrackingProject!AH307</f>
+        <v>57172</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="24"/>
+        <v>3641.4285714285716</v>
+      </c>
+      <c r="E307" s="15">
+        <f t="shared" si="22"/>
+        <v>0.15656265304694605</v>
+      </c>
+      <c r="F307" s="16">
+        <f t="shared" si="23"/>
+        <v>173.84923691624743</v>
+      </c>
+      <c r="G307">
+        <f>covidTrackingProject!F307</f>
+        <v>84</v>
+      </c>
+      <c r="H307">
+        <f t="shared" si="29"/>
+        <v>44.857142857142854</v>
+      </c>
+      <c r="I307">
+        <f>covidTrackingProject!J307</f>
+        <v>2072</v>
+      </c>
+      <c r="J307">
+        <f t="shared" si="30"/>
+        <v>2032.2857142857142</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="A308" s="5">
+        <v>44200</v>
+      </c>
+      <c r="B308">
+        <f>covidTrackingProject!W308</f>
+        <v>3803</v>
+      </c>
+      <c r="C308">
+        <f>covidTrackingProject!AH308</f>
+        <v>20811</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="24"/>
+        <v>3917.4285714285716</v>
+      </c>
+      <c r="E308" s="15">
+        <f t="shared" si="22"/>
+        <v>0.18273989716976599</v>
+      </c>
+      <c r="F308" s="16">
+        <f t="shared" si="23"/>
+        <v>73.863104456763381</v>
+      </c>
+      <c r="G308">
+        <f>covidTrackingProject!F308</f>
+        <v>15</v>
+      </c>
+      <c r="H308">
+        <f t="shared" si="29"/>
+        <v>44.428571428571431</v>
+      </c>
+      <c r="I308">
+        <f>covidTrackingProject!J308</f>
+        <v>2155</v>
+      </c>
+      <c r="J308">
+        <f t="shared" si="30"/>
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
+      <c r="A309" s="5">
+        <v>44201</v>
+      </c>
+      <c r="B309">
+        <f>covidTrackingProject!W309</f>
+        <v>2601</v>
+      </c>
+      <c r="C309">
+        <f>covidTrackingProject!AH309</f>
+        <v>16243</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="24"/>
+        <v>3924.4285714285716</v>
+      </c>
+      <c r="E309" s="15">
+        <f t="shared" si="22"/>
+        <v>0.16013051776149725</v>
+      </c>
+      <c r="F309" s="16">
+        <f t="shared" si="23"/>
+        <v>50.517469022361702</v>
+      </c>
+      <c r="G309">
+        <f>covidTrackingProject!F309</f>
+        <v>14</v>
+      </c>
+      <c r="H309">
+        <f t="shared" si="29"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="I309">
+        <f>covidTrackingProject!J309</f>
+        <v>2344</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="30"/>
+        <v>2148.4285714285716</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
+      <c r="A310" s="5">
+        <v>44202</v>
+      </c>
+      <c r="B310">
+        <f>covidTrackingProject!W310</f>
+        <v>5162</v>
+      </c>
+      <c r="C310">
+        <f>covidTrackingProject!AH310</f>
+        <v>28395</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="24"/>
+        <v>4251.4285714285716</v>
+      </c>
+      <c r="E310" s="15">
+        <f t="shared" si="22"/>
+        <v>0.18179256911428068</v>
+      </c>
+      <c r="F310" s="16">
+        <f t="shared" si="23"/>
+        <v>100.25804501862018</v>
+      </c>
+      <c r="G310">
+        <f>covidTrackingProject!F310</f>
+        <v>84</v>
+      </c>
+      <c r="H310">
+        <f t="shared" si="29"/>
+        <v>47.571428571428569</v>
+      </c>
+      <c r="I310">
+        <f>covidTrackingProject!J310</f>
+        <v>2424</v>
+      </c>
+      <c r="J310">
+        <f t="shared" si="30"/>
+        <v>2205.5714285714284</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
+      <c r="A311" s="5">
+        <v>44203</v>
+      </c>
+      <c r="B311">
+        <f>covidTrackingProject!W311</f>
+        <v>4877</v>
+      </c>
+      <c r="C311">
+        <f>covidTrackingProject!AH311</f>
+        <v>29978</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="24"/>
+        <v>4372.1428571428569</v>
+      </c>
+      <c r="E311" s="15">
+        <f t="shared" si="22"/>
+        <v>0.16268596971112148</v>
+      </c>
+      <c r="F311" s="16">
+        <f t="shared" si="23"/>
+        <v>94.722682207634762</v>
+      </c>
+      <c r="G311">
+        <f>covidTrackingProject!F311</f>
+        <v>79</v>
+      </c>
+      <c r="H311">
+        <f t="shared" si="29"/>
+        <v>52.142857142857146</v>
+      </c>
+      <c r="I311">
+        <f>covidTrackingProject!J311</f>
+        <v>2425</v>
+      </c>
+      <c r="J311">
+        <f t="shared" si="30"/>
+        <v>2258.5714285714284</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312" s="5">
+        <v>44204</v>
+      </c>
+      <c r="B312">
+        <f>covidTrackingProject!W312</f>
+        <v>6064</v>
+      </c>
+      <c r="C312">
+        <f>covidTrackingProject!AH312</f>
+        <v>41260</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="24"/>
+        <v>5238.4285714285716</v>
+      </c>
+      <c r="E312" s="15">
+        <f t="shared" si="22"/>
+        <v>0.14697043141056715</v>
+      </c>
+      <c r="F312" s="16">
+        <f t="shared" si="23"/>
+        <v>117.77698275724772</v>
+      </c>
+      <c r="G312">
+        <f>covidTrackingProject!F312</f>
+        <v>34</v>
+      </c>
+      <c r="H312">
+        <f t="shared" si="29"/>
+        <v>57</v>
+      </c>
+      <c r="I312">
+        <f>covidTrackingProject!J312</f>
+        <v>2396</v>
+      </c>
+      <c r="J312">
+        <f t="shared" si="30"/>
+        <v>2302.6666666666665</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
+      <c r="A313" s="5">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="A314" s="5"/>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="A315" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
@@ -37502,10 +40459,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064BE65-B8D2-5741-A35F-4FAC97112B61}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -37596,7 +40553,7 @@
         <v>0.95575221238938057</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F43" si="1">B3/C3</f>
+        <f t="shared" ref="F3:F44" si="1">B3/C3</f>
         <v>9.7345132743362831E-2</v>
       </c>
       <c r="G3">
@@ -37625,7 +40582,7 @@
         <v>1284</v>
       </c>
       <c r="D4" s="18">
-        <f t="shared" ref="D4:E43" si="2">(B4-B3)/B4</f>
+        <f t="shared" ref="D4:E44" si="2">(B4-B3)/B4</f>
         <v>0.92086330935251803</v>
       </c>
       <c r="E4" s="18">
@@ -37641,7 +40598,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="18">
-        <f t="shared" ref="H4:H43" si="3">(G4-G3)/G4</f>
+        <f t="shared" ref="H4:H44" si="3">(G4-G3)/G4</f>
         <v>1</v>
       </c>
       <c r="I4" s="19">
@@ -39061,42 +42018,147 @@
       </c>
       <c r="B43" s="21">
         <f>SUM(southCarolinaDaily!B286:B292)</f>
-        <v>18278</v>
+        <v>21739</v>
       </c>
       <c r="C43" s="21">
         <f>SUM(southCarolinaDaily!C286:C292)</f>
-        <v>189567</v>
+        <v>216293</v>
       </c>
       <c r="D43" s="18">
         <f t="shared" si="2"/>
-        <v>-7.0303096618886091E-2</v>
+        <v>0.10009660057960348</v>
       </c>
       <c r="E43" s="18">
         <f>(C43-C42)/C43</f>
-        <v>0.20130085932678157</v>
+        <v>0.29999121561955311</v>
       </c>
       <c r="F43" s="18">
         <f t="shared" si="1"/>
-        <v>9.6419735502487253E-2</v>
+        <v>0.10050718238685487</v>
       </c>
       <c r="G43" s="21">
         <f>SUM(southCarolinaDaily!G286:G292)</f>
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="H43" s="18">
         <f t="shared" si="3"/>
-        <v>0.10160427807486631</v>
+        <v>0.2</v>
       </c>
       <c r="I43" s="19">
         <f t="shared" si="0"/>
-        <v>355.00126827786511</v>
+        <v>422.22193736144601</v>
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="5"/>
+      <c r="A44" s="5">
+        <v>44191</v>
+      </c>
+      <c r="B44">
+        <f>SUM(southCarolinaDaily!B293:B299)</f>
+        <v>18355</v>
+      </c>
+      <c r="C44">
+        <f>SUM(southCarolinaDaily!C293:C299)</f>
+        <v>159714</v>
+      </c>
+      <c r="D44" s="18">
+        <f t="shared" si="2"/>
+        <v>-0.18436393353309724</v>
+      </c>
+      <c r="E44" s="18">
+        <f>(C44-C43)/C44</f>
+        <v>-0.35425197540603831</v>
+      </c>
+      <c r="F44" s="18">
+        <f t="shared" si="1"/>
+        <v>0.11492417696632731</v>
+      </c>
+      <c r="G44">
+        <f>SUM(southCarolinaDaily!G293:G299)</f>
+        <v>229</v>
+      </c>
+      <c r="H44" s="18">
+        <f>(G44-G43)/G44</f>
+        <v>8.296943231441048E-2</v>
+      </c>
+      <c r="I44" s="19">
+        <f>(B44/5148714)*100000</f>
+        <v>356.4967873531138</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="5"/>
+      <c r="A45" s="5">
+        <v>44198</v>
+      </c>
+      <c r="B45">
+        <f>SUM(southCarolinaDaily!B300:B306)</f>
+        <v>23826</v>
+      </c>
+      <c r="C45">
+        <f>SUM(southCarolinaDaily!C300:C306)</f>
+        <v>172920</v>
+      </c>
+      <c r="D45" s="18">
+        <f t="shared" ref="D45:D46" si="4">(B45-B44)/B45</f>
+        <v>0.22962310081423654</v>
+      </c>
+      <c r="E45" s="18">
+        <f t="shared" ref="E45:E46" si="5">(C45-C44)/C45</f>
+        <v>7.63705759888966E-2</v>
+      </c>
+      <c r="F45" s="18">
+        <f t="shared" ref="F45:F46" si="6">B45/C45</f>
+        <v>0.13778625954198473</v>
+      </c>
+      <c r="G45">
+        <f>SUM(southCarolinaDaily!G300:G306)</f>
+        <v>261</v>
+      </c>
+      <c r="H45" s="18">
+        <f>(G45-G44)/G45</f>
+        <v>0.12260536398467432</v>
+      </c>
+      <c r="I45" s="19">
+        <f>(B45/5148714)*100000</f>
+        <v>462.75633099838132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="5">
+        <v>44205</v>
+      </c>
+      <c r="B46">
+        <f>SUM(southCarolinaDaily!B307:B313)</f>
+        <v>31458</v>
+      </c>
+      <c r="C46">
+        <f>SUM(southCarolinaDaily!C307:C313)</f>
+        <v>193859</v>
+      </c>
+      <c r="D46" s="18">
+        <f t="shared" si="4"/>
+        <v>0.24260919320999427</v>
+      </c>
+      <c r="E46" s="18">
+        <f t="shared" si="5"/>
+        <v>0.10801149288916172</v>
+      </c>
+      <c r="F46" s="18">
+        <f t="shared" si="6"/>
+        <v>0.16227257955524377</v>
+      </c>
+      <c r="G46">
+        <f>SUM(southCarolinaDaily!G307:G313)</f>
+        <v>310</v>
+      </c>
+      <c r="H46" s="18">
+        <f>(G46-G45)/G46</f>
+        <v>0.15806451612903225</v>
+      </c>
+      <c r="I46" s="19">
+        <f>(B46/5148714)*100000</f>
+        <v>610.98752037887527</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
